--- a/EMIExpert/Home+Loan+EMI+Calculations+Personal.xlsx
+++ b/EMIExpert/Home+Loan+EMI+Calculations+Personal.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="570" windowWidth="11175" windowHeight="4815" activeTab="1"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="13110" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Test-ExcelFormula" sheetId="2" r:id="rId1"/>
     <sheet name="Formulas" sheetId="4" r:id="rId2"/>
     <sheet name="Inputs" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
+  <oleSize ref="A1:G23"/>
 </workbook>
 </file>
 
@@ -112,8 +113,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="31">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -857,7 +858,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -892,7 +892,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1068,15 +1067,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28.85546875" style="22" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" style="22" customWidth="1"/>
@@ -1089,13 +1088,13 @@
     <col min="9" max="9" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A1" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="37">
         <f>B7+B6</f>
-        <v>2337352.4986243309</v>
+        <v>1532490.026807081</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="1"/>
@@ -1103,12 +1102,12 @@
       <c r="F1" s="37"/>
       <c r="G1" s="37"/>
     </row>
-    <row r="2" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="12">
-        <v>0.105</v>
+        <v>0.115</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="1"/>
@@ -1118,16 +1117,16 @@
       </c>
       <c r="G2" s="6">
         <f>B5</f>
-        <v>97389.687442680457</v>
+        <v>14059.541530340197</v>
       </c>
       <c r="H2" s="12"/>
     </row>
-    <row r="3" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="22">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="1"/>
@@ -1136,13 +1135,12 @@
       <c r="G3" s="37"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="37">
-        <f>2400000-B8</f>
-        <v>2100000</v>
+        <v>948333</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="1"/>
@@ -1150,13 +1148,13 @@
       <c r="F4" s="37"/>
       <c r="G4" s="37"/>
     </row>
-    <row r="5" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="40">
         <f>D10+E10</f>
-        <v>97389.687442680457</v>
+        <v>14059.541530340197</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="1"/>
@@ -1165,13 +1163,13 @@
       <c r="G5" s="37"/>
       <c r="H5" s="37"/>
     </row>
-    <row r="6" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B6" s="37">
         <f>SUM(D9:D259)</f>
-        <v>2100000.0000000005</v>
+        <v>948333.00000000035</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="1"/>
@@ -1180,13 +1178,13 @@
       <c r="G6" s="37"/>
       <c r="H6" s="9"/>
     </row>
-    <row r="7" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="37">
         <f>SUM(E10:E260)</f>
-        <v>237352.49862433056</v>
+        <v>584157.02680708061</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="1"/>
@@ -1195,7 +1193,7 @@
       <c r="G7" s="37"/>
       <c r="H7" s="9"/>
     </row>
-    <row r="8" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -1210,7 +1208,7 @@
       <c r="G8" s="37"/>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B9" s="44" t="s">
         <v>0</v>
       </c>
@@ -1229,2482 +1227,2482 @@
       <c r="G9" s="37"/>
       <c r="H9" s="9"/>
     </row>
-    <row r="10" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" s="37">
         <f>B4</f>
-        <v>2100000</v>
+        <v>948333</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" ref="D10:D73" si="0">IF(ISERROR(PPMT(($B$2/12),$B10,$B$3,-$B$4)),0,PPMT(($B$2/12),$B10,$B$3,-$B$4))</f>
-        <v>79014.687442680457</v>
+        <v>4971.3502803401952</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" ref="E10:E73" si="1">IF(ISERROR(IPMT(($B$2/12),$B10,$B$3,-$B$4)),0,IPMT(($B$2/12),$B10,$B$3,-$B$4))</f>
-        <v>18374.999999999996</v>
+        <v>9088.1912500000017</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" ref="F10:F73" si="2">C10-D10</f>
-        <v>2020985.3125573196</v>
+        <v>943361.64971965982</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B11" s="22">
         <v>2</v>
       </c>
       <c r="C11" s="37">
         <f t="shared" ref="C11:C74" si="3">C10-D10</f>
-        <v>2020985.3125573196</v>
+        <v>943361.64971965982</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>79706.065957803919</v>
+        <v>5018.9923871934552</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" si="1"/>
-        <v>17683.621484876548</v>
+        <v>9040.5491431467417</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>1941279.2465995157</v>
+        <v>938342.65733246633</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="22">
         <v>3</v>
       </c>
       <c r="C12" s="37">
         <f t="shared" si="3"/>
-        <v>1941279.2465995157</v>
+        <v>938342.65733246633</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>80403.494034934702</v>
+        <v>5067.0910642373929</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="1"/>
-        <v>16986.193407745763</v>
+        <v>8992.4504661028041</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>1860875.7525645809</v>
+        <v>933275.56626822893</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="22">
         <v>4</v>
       </c>
       <c r="C13" s="37">
         <f t="shared" si="3"/>
-        <v>1860875.7525645809</v>
+        <v>933275.56626822893</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>81107.024607740372</v>
+        <v>5115.6506869363348</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="1"/>
-        <v>16282.662834940085</v>
+        <v>8943.8908434038622</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>1779768.7279568405</v>
+        <v>928159.91558129259</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="9"/>
     </row>
-    <row r="14" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B14" s="22">
         <v>5</v>
       </c>
       <c r="C14" s="37">
         <f t="shared" si="3"/>
-        <v>1779768.7279568405</v>
+        <v>928159.91558129259</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>81816.711073058104</v>
+        <v>5164.6756726861404</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="1"/>
-        <v>15572.976369622354</v>
+        <v>8894.8658576540565</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>1697952.0168837823</v>
+        <v>922995.2399086064</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="9"/>
     </row>
-    <row r="15" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="22">
         <v>6</v>
       </c>
       <c r="C15" s="37">
         <f t="shared" si="3"/>
-        <v>1697952.0168837823</v>
+        <v>922995.2399086064</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>82532.60729494736</v>
+        <v>5214.1704812160497</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>14857.080147733099</v>
+        <v>8845.3710491241472</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>1615419.409588835</v>
+        <v>917781.06942739035</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="9"/>
     </row>
-    <row r="16" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B16" s="22">
         <v>7</v>
       </c>
       <c r="C16" s="37">
         <f t="shared" si="3"/>
-        <v>1615419.409588835</v>
+        <v>917781.06942739035</v>
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>83254.767608778144</v>
+        <v>5264.1396149943703</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="1"/>
-        <v>14134.919833902308</v>
+        <v>8795.4019153458266</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>1532164.6419800569</v>
+        <v>912516.92981239595</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B17" s="22">
         <v>8</v>
       </c>
       <c r="C17" s="37">
         <f t="shared" si="3"/>
-        <v>1532164.6419800569</v>
+        <v>912516.92981239595</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>83983.24682535496</v>
+        <v>5314.5876196380668</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="1"/>
-        <v>13406.440617325501</v>
+        <v>8744.9539107021301</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>1448181.395154702</v>
+        <v>907202.34219275787</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B18" s="22">
         <v>9</v>
       </c>
       <c r="C18" s="37">
         <f t="shared" si="3"/>
-        <v>1448181.395154702</v>
+        <v>907202.34219275787</v>
       </c>
       <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>84718.100235076825</v>
+        <v>5365.5190843262644</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="1"/>
-        <v>12671.587207603643</v>
+        <v>8694.0224460139325</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>1363463.2949196252</v>
+        <v>901836.82310843165</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="9"/>
     </row>
-    <row r="19" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" s="22" customFormat="1" ht="12.75" customHeight="1">
       <c r="B19" s="22">
         <v>10</v>
       </c>
       <c r="C19" s="37">
         <f t="shared" si="3"/>
-        <v>1363463.2949196252</v>
+        <v>901836.82310843165</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" si="0"/>
-        <v>85459.383612133737</v>
+        <v>5416.9386422177249</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>11930.303830546723</v>
+        <v>8642.602888122472</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>1278003.9113074914</v>
+        <v>896419.88446621387</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" s="22" customFormat="1">
       <c r="B20" s="22">
         <v>11</v>
       </c>
       <c r="C20" s="37">
         <f t="shared" si="3"/>
-        <v>1278003.9113074914</v>
+        <v>896419.88446621387</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>86207.153218739913</v>
+        <v>5468.8509708723104</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="1"/>
-        <v>11182.534223940551</v>
+        <v>8590.6905594678865</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>1191796.7580887515</v>
+        <v>890951.03349534154</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" s="22" customFormat="1">
       <c r="B21" s="22">
         <v>12</v>
       </c>
       <c r="C21" s="37">
         <f t="shared" si="3"/>
-        <v>1191796.7580887515</v>
+        <v>890951.03349534154</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="0"/>
-        <v>86961.46580940389</v>
+        <v>5521.2607926765049</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="1"/>
-        <v>10428.221633276578</v>
+        <v>8538.280737663692</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>1104835.2922793475</v>
+        <v>885429.77270266507</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" s="22" customFormat="1">
       <c r="B22" s="22">
         <v>13</v>
       </c>
       <c r="C22" s="37">
         <f t="shared" si="3"/>
-        <v>1104835.2922793475</v>
+        <v>885429.77270266507</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="0"/>
-        <v>87722.378635236164</v>
+        <v>5574.1728752729869</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="1"/>
-        <v>9667.3088074442949</v>
+        <v>8485.3686550672101</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>1017112.9136441114</v>
+        <v>879855.59982739203</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" s="22" customFormat="1">
       <c r="B23" s="22">
         <v>14</v>
       </c>
       <c r="C23" s="37">
         <f t="shared" si="3"/>
-        <v>1017112.9136441114</v>
+        <v>879855.59982739203</v>
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>88489.949448294472</v>
+        <v>5627.5920319943543</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="1"/>
-        <v>8899.7379943859778</v>
+        <v>8431.9494983458426</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>928622.96419581689</v>
+        <v>874228.00779539766</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" s="22" customFormat="1">
       <c r="B24" s="22">
         <v>15</v>
       </c>
       <c r="C24" s="37">
         <f t="shared" si="3"/>
-        <v>928622.96419581689</v>
+        <v>874228.00779539766</v>
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>89264.236505967056</v>
+        <v>5681.523122300965</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="1"/>
-        <v>8125.4509367134024</v>
+        <v>8378.0184080392319</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>839358.72768984979</v>
+        <v>868546.48467309668</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
     </row>
-    <row r="25" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" s="22" customFormat="1">
       <c r="B25" s="22">
         <v>16</v>
       </c>
       <c r="C25" s="37">
         <f t="shared" si="3"/>
-        <v>839358.72768984979</v>
+        <v>868546.48467309668</v>
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>90045.298575394278</v>
+        <v>5735.971052223018</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" si="1"/>
-        <v>7344.3888672861895</v>
+        <v>8323.5704781171789</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>749313.42911445547</v>
+        <v>862810.51362087368</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
     </row>
-    <row r="26" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" s="22" customFormat="1">
       <c r="B26" s="22">
         <v>17</v>
       </c>
       <c r="C26" s="37">
         <f t="shared" si="3"/>
-        <v>749313.42911445547</v>
+        <v>862810.51362087368</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>90833.194937928958</v>
+        <v>5790.9407748068224</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="1"/>
-        <v>6556.4925047514889</v>
+        <v>8268.6007555333745</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>658480.23417652654</v>
+        <v>857019.57284606691</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" s="22" customFormat="1">
       <c r="B27" s="22">
         <v>18</v>
       </c>
       <c r="C27" s="37">
         <f t="shared" si="3"/>
-        <v>658480.23417652654</v>
+        <v>857019.57284606691</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>91627.985393635856</v>
+        <v>5846.4372905653854</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="1"/>
-        <v>5761.7020490446112</v>
+        <v>8213.1042397748115</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>566852.24878289073</v>
+        <v>851173.13555550156</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" s="22" customFormat="1">
       <c r="B28" s="22">
         <v>19</v>
       </c>
       <c r="C28" s="37">
         <f t="shared" si="3"/>
-        <v>566852.24878289073</v>
+        <v>851173.13555550156</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>92429.730265830149</v>
+        <v>5902.4656479333034</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" si="1"/>
-        <v>4959.9571768502983</v>
+        <v>8157.0758824068935</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>474422.51851706055</v>
+        <v>845270.66990756826</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" s="22" customFormat="1">
       <c r="B29" s="22">
         <v>20</v>
       </c>
       <c r="C29" s="37">
         <f t="shared" si="3"/>
-        <v>474422.51851706055</v>
+        <v>845270.66990756826</v>
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>93238.490405656179</v>
+        <v>5959.0309437259984</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" si="1"/>
-        <v>4151.1970370242843</v>
+        <v>8100.5105866141985</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>381184.02811140439</v>
+        <v>839311.6389638423</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:8" s="22" customFormat="1">
       <c r="B30" s="22">
         <v>21</v>
       </c>
       <c r="C30" s="37">
         <f t="shared" si="3"/>
-        <v>381184.02811140439</v>
+        <v>839311.6389638423</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>94054.327196705664</v>
+        <v>6016.1383236033716</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="1"/>
-        <v>3335.3602459747926</v>
+        <v>8043.4032067368253</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>287129.70091469871</v>
+        <v>833295.50064023898</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:8" s="22" customFormat="1">
       <c r="B31" s="22">
         <v>22</v>
       </c>
       <c r="C31" s="37">
         <f t="shared" si="3"/>
-        <v>287129.70091469871</v>
+        <v>833295.50064023898</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>94877.302559676842</v>
+        <v>6073.7929825379051</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="1"/>
-        <v>2512.3848830036186</v>
+        <v>7985.7485478022918</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>192252.39835502187</v>
+        <v>827221.7076577011</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:8" s="22" customFormat="1">
       <c r="B32" s="22">
         <v>23</v>
       </c>
       <c r="C32" s="37">
         <f t="shared" si="3"/>
-        <v>192252.39835502187</v>
+        <v>827221.7076577011</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="0"/>
-        <v>95707.47895707401</v>
+        <v>6132.000165287227</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="1"/>
-        <v>1682.2084856064459</v>
+        <v>7927.5413650529699</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>96544.919397947859</v>
+        <v>821089.70749241393</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:8" s="22" customFormat="1">
       <c r="B33" s="22">
         <v>24</v>
       </c>
       <c r="C33" s="37">
         <f t="shared" si="3"/>
-        <v>96544.919397947859</v>
+        <v>821089.70749241393</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" si="0"/>
-        <v>96544.919397948412</v>
+        <v>6190.7651668712297</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="1"/>
-        <v>844.76804473204857</v>
+        <v>7868.7763634689672</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>814898.94232554268</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:8" s="22" customFormat="1">
       <c r="B34" s="22">
         <v>25</v>
       </c>
       <c r="C34" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>814898.94232554268</v>
       </c>
       <c r="D34" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6250.0933330537455</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7809.4481972864514</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>808648.84899248893</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:8" s="22" customFormat="1">
       <c r="B35" s="22">
         <v>26</v>
       </c>
       <c r="C35" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>808648.84899248893</v>
       </c>
       <c r="D35" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6309.9900608288426</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7749.5514695113543</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>802338.85893166007</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:8" s="22" customFormat="1">
       <c r="B36" s="22">
         <v>27</v>
       </c>
       <c r="C36" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>802338.85893166007</v>
       </c>
       <c r="D36" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6370.4607989117867</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7689.0807314284102</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>795968.39813274832</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:8" s="22" customFormat="1">
       <c r="B37" s="22">
         <v>28</v>
       </c>
       <c r="C37" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>795968.39813274832</v>
       </c>
       <c r="D37" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6431.5110482346918</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7628.0304821055051</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>789536.88708451367</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:8" s="22" customFormat="1">
       <c r="B38" s="22">
         <v>29</v>
       </c>
       <c r="C38" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>789536.88708451367</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6493.1463624469388</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7566.3951678932581</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>783043.74072206672</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:8" s="22" customFormat="1">
       <c r="B39" s="22">
         <v>30</v>
       </c>
       <c r="C39" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>783043.74072206672</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6555.3723484203892</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7504.1691819198077</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>776488.36837364628</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:8" s="22" customFormat="1">
       <c r="B40" s="22">
         <v>31</v>
       </c>
       <c r="C40" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>776488.36837364628</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6618.1946667594184</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7441.3468635807785</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>769870.17370688682</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:8" s="22" customFormat="1">
       <c r="B41" s="22">
         <v>32</v>
       </c>
       <c r="C41" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>769870.17370688682</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6681.6190323158617</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7377.9224980243353</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>763188.55467457091</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:8" s="22" customFormat="1">
       <c r="B42" s="22">
         <v>33</v>
       </c>
       <c r="C42" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>763188.55467457091</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6745.6512147088897</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7313.8903156313072</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>756442.90345986199</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:8" s="22" customFormat="1">
       <c r="B43" s="22">
         <v>34</v>
       </c>
       <c r="C43" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>756442.90345986199</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6810.2970388498497</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7249.2444914903472</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>749632.6064210122</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:8" s="22" customFormat="1">
       <c r="B44" s="22">
         <v>35</v>
       </c>
       <c r="C44" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>749632.6064210122</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6875.5623854721616</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7183.9791448680353</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>742757.04403554008</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:8" s="22" customFormat="1">
       <c r="B45" s="22">
         <v>36</v>
       </c>
       <c r="C45" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>742757.04403554008</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6941.4531916662681</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7118.0883386739288</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>735815.5908438738</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:8" s="22" customFormat="1">
       <c r="B46" s="22">
         <v>37</v>
       </c>
       <c r="C46" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>735815.5908438738</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7007.9754514197366</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7051.5660789204603</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>728807.61539245408</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:8" s="22" customFormat="1">
       <c r="B47" s="22">
         <v>38</v>
       </c>
       <c r="C47" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>728807.61539245408</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7075.1352161625091</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6984.4063141776878</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>721732.48017629154</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:8" s="22" customFormat="1">
       <c r="B48" s="22">
         <v>39</v>
       </c>
       <c r="C48" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>721732.48017629154</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7142.9385953173996</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6916.6029350227973</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>714589.54158097412</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" s="22" customFormat="1">
       <c r="B49" s="22">
         <v>40</v>
       </c>
       <c r="C49" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>714589.54158097412</v>
       </c>
       <c r="D49" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7211.3917568558591</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6848.1497734843379</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>707378.14982411824</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" s="22" customFormat="1">
       <c r="B50" s="22">
         <v>41</v>
       </c>
       <c r="C50" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>707378.14982411824</v>
       </c>
       <c r="D50" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7280.5009278590605</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6779.0406024811364</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>700097.64889625914</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" s="22" customFormat="1">
       <c r="B51" s="22">
         <v>42</v>
       </c>
       <c r="C51" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>700097.64889625914</v>
       </c>
       <c r="D51" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7350.2723950843774</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6709.2691352558195</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>692747.37650117476</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" s="22" customFormat="1">
       <c r="B52" s="22">
         <v>43</v>
       </c>
       <c r="C52" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>692747.37650117476</v>
       </c>
       <c r="D52" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7420.712505537269</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6638.829024802928</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>685326.66399563744</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" s="22" customFormat="1">
       <c r="B53" s="22">
         <v>44</v>
       </c>
       <c r="C53" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>685326.66399563744</v>
       </c>
       <c r="D53" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7491.8276670486684</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6567.7138632915285</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>677834.83632858878</v>
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" s="22" customFormat="1">
       <c r="B54" s="22">
         <v>45</v>
       </c>
       <c r="C54" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>677834.83632858878</v>
       </c>
       <c r="D54" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7563.624348857883</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6495.9171814823139</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>670271.21197973087</v>
       </c>
       <c r="G54" s="37"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:8" s="22" customFormat="1">
       <c r="B55" s="22">
         <v>46</v>
       </c>
       <c r="C55" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>670271.21197973087</v>
       </c>
       <c r="D55" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7636.1090822011056</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6423.4324481390913</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>662635.10289752972</v>
       </c>
       <c r="G55" s="37"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" s="22" customFormat="1">
       <c r="B56" s="22">
         <v>47</v>
       </c>
       <c r="C56" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>662635.10289752972</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7709.2884609055318</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6350.2530694346651</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>654925.81443662418</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="9"/>
     </row>
-    <row r="57" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:8" s="22" customFormat="1">
       <c r="B57" s="22">
         <v>48</v>
       </c>
       <c r="C57" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>654925.81443662418</v>
       </c>
       <c r="D57" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7783.1691419892104</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6276.3723883509865</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>647142.64529463497</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="9"/>
     </row>
-    <row r="58" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" s="22" customFormat="1">
       <c r="B58" s="22">
         <v>49</v>
       </c>
       <c r="C58" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>647142.64529463497</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7857.7578462666052</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6201.7836840735918</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>639284.88744836836</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="9"/>
     </row>
-    <row r="59" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" s="22" customFormat="1">
       <c r="B59" s="22">
         <v>50</v>
       </c>
       <c r="C59" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>639284.88744836836</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7933.0613589599961</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6126.4801713802008</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>631351.82608940837</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="9"/>
     </row>
-    <row r="60" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" s="22" customFormat="1">
       <c r="B60" s="22">
         <v>51</v>
       </c>
       <c r="C60" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>631351.82608940837</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8009.0865303166966</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6050.4550000235004</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>623342.73955909163</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="9"/>
     </row>
-    <row r="61" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:8" s="22" customFormat="1">
       <c r="B61" s="22">
         <v>52</v>
       </c>
       <c r="C61" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>623342.73955909163</v>
       </c>
       <c r="D61" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8085.8402762322303</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5973.7012541079666</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>615256.89928285941</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="9"/>
     </row>
-    <row r="62" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" s="22" customFormat="1">
       <c r="B62" s="22">
         <v>53</v>
       </c>
       <c r="C62" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>615256.89928285941</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8163.3295788794549</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5896.2119514607421</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>607093.56970398</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="9"/>
     </row>
-    <row r="63" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" s="22" customFormat="1">
       <c r="B63" s="22">
         <v>54</v>
       </c>
       <c r="C63" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>607093.56970398</v>
       </c>
       <c r="D63" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8241.5614873437171</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5817.9800429964798</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>598852.00821663626</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="9"/>
     </row>
-    <row r="64" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" s="22" customFormat="1">
       <c r="B64" s="22">
         <v>55</v>
       </c>
       <c r="C64" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>598852.00821663626</v>
       </c>
       <c r="D64" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8320.5431182640932</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5738.9984120761028</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>590531.46509837219</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="9"/>
     </row>
-    <row r="65" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:8" s="22" customFormat="1">
       <c r="B65" s="22">
         <v>56</v>
       </c>
       <c r="C65" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>590531.46509837219</v>
       </c>
       <c r="D65" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8400.2816564807908</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5659.2598738594061</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>582131.18344189145</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="9"/>
     </row>
-    <row r="66" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:8" s="22" customFormat="1">
       <c r="B66" s="22">
         <v>57</v>
       </c>
       <c r="C66" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>582131.18344189145</v>
       </c>
       <c r="D66" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8480.7843556887328</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5578.7571746514641</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>573650.39908620273</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="9"/>
     </row>
-    <row r="67" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" s="22" customFormat="1">
       <c r="B67" s="22">
         <v>58</v>
       </c>
       <c r="C67" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>573650.39908620273</v>
       </c>
       <c r="D67" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8562.0585390974193</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5497.4829912427786</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>565088.3405471053</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="9"/>
     </row>
-    <row r="68" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" s="22" customFormat="1">
       <c r="B68" s="22">
         <v>59</v>
       </c>
       <c r="C68" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>565088.3405471053</v>
       </c>
       <c r="D68" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8644.1116000971015</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5415.4299302430954</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>556444.22894700815</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" s="22" customFormat="1">
       <c r="B69" s="22">
         <v>60</v>
       </c>
       <c r="C69" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>556444.22894700815</v>
       </c>
       <c r="D69" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8726.9510029313642</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5332.5905274088318</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>547717.27794407681</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="9"/>
     </row>
-    <row r="70" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:8" s="22" customFormat="1">
       <c r="B70" s="22">
         <v>61</v>
       </c>
       <c r="C70" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>547717.27794407681</v>
       </c>
       <c r="D70" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8810.5842833761235</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5248.9572469640743</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>538906.69366070069</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" s="22" customFormat="1">
       <c r="B71" s="22">
         <v>62</v>
       </c>
       <c r="C71" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>538906.69366070069</v>
       </c>
       <c r="D71" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8895.0190494251437</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5164.5224809150532</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>530011.67461127555</v>
       </c>
       <c r="G71" s="37"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" s="22" customFormat="1">
       <c r="B72" s="22">
         <v>63</v>
       </c>
       <c r="C72" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>530011.67461127555</v>
       </c>
       <c r="D72" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8980.2629819821341</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>5079.2785483580619</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>521031.4116292934</v>
       </c>
       <c r="G72" s="37"/>
       <c r="H72" s="9"/>
     </row>
-    <row r="73" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" s="22" customFormat="1">
       <c r="B73" s="22">
         <v>64</v>
       </c>
       <c r="C73" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>521031.4116292934</v>
       </c>
       <c r="D73" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9066.323835559464</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4993.2176947807329</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>511965.08779373392</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="9"/>
     </row>
-    <row r="74" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:8" s="22" customFormat="1">
       <c r="B74" s="22">
         <v>65</v>
       </c>
       <c r="C74" s="37">
         <f t="shared" si="3"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>511965.08779373392</v>
       </c>
       <c r="D74" s="14">
         <f t="shared" ref="D74:D137" si="4">IF(ISERROR(PPMT(($B$2/12),$B74,$B$3,-$B$4)),0,PPMT(($B$2/12),$B74,$B$3,-$B$4))</f>
-        <v>0</v>
+        <v>9153.2094389835729</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" ref="E74:E137" si="5">IF(ISERROR(IPMT(($B$2/12),$B74,$B$3,-$B$4)),0,IPMT(($B$2/12),$B74,$B$3,-$B$4))</f>
-        <v>0</v>
+        <v>4906.332091356624</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F137" si="6">C74-D74</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>502811.87835475034</v>
       </c>
       <c r="G74" s="37"/>
       <c r="H74" s="9"/>
     </row>
-    <row r="75" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:8" s="22" customFormat="1">
       <c r="B75" s="22">
         <v>66</v>
       </c>
       <c r="C75" s="37">
         <f t="shared" ref="C75:C138" si="7">C74-D74</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>502811.87835475034</v>
       </c>
       <c r="D75" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9240.9276961071682</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4818.6138342330287</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>493570.95065864315</v>
       </c>
       <c r="G75" s="37"/>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" s="22" customFormat="1">
       <c r="B76" s="22">
         <v>67</v>
       </c>
       <c r="C76" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>493570.95065864315</v>
       </c>
       <c r="D76" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9329.4865865281936</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4730.0549438120042</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>484241.46407211496</v>
       </c>
       <c r="G76" s="37"/>
       <c r="H76" s="9"/>
     </row>
-    <row r="77" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" s="22" customFormat="1">
       <c r="B77" s="22">
         <v>68</v>
       </c>
       <c r="C77" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>484241.46407211496</v>
       </c>
       <c r="D77" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9418.8941663157566</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4640.6473640244403</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>474822.56990579923</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" s="22" customFormat="1">
       <c r="B78" s="22">
         <v>69</v>
       </c>
       <c r="C78" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>474822.56990579923</v>
       </c>
       <c r="D78" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9509.1585687429506</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4550.3829615972463</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>465313.41133705626</v>
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="9"/>
     </row>
-    <row r="79" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:8" s="22" customFormat="1">
       <c r="B79" s="22">
         <v>70</v>
       </c>
       <c r="C79" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>465313.41133705626</v>
       </c>
       <c r="D79" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9600.2880050267322</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4459.2535253134647</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>455713.1233320295</v>
       </c>
       <c r="G79" s="37"/>
       <c r="H79" s="9"/>
     </row>
-    <row r="80" spans="2:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" s="22" customFormat="1">
       <c r="B80" s="22">
         <v>71</v>
       </c>
       <c r="C80" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>455713.1233320295</v>
       </c>
       <c r="D80" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9692.2907650749112</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4367.2507652652866</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>446020.8325669546</v>
       </c>
       <c r="G80" s="37"/>
       <c r="H80" s="9"/>
     </row>
-    <row r="81" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:7" s="22" customFormat="1">
       <c r="B81" s="22">
         <v>72</v>
       </c>
       <c r="C81" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>446020.8325669546</v>
       </c>
       <c r="D81" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9785.1752182402088</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4274.3663120999872</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>436235.65734871442</v>
       </c>
       <c r="G81" s="37"/>
     </row>
-    <row r="82" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:7" s="22" customFormat="1">
       <c r="B82" s="22">
         <v>73</v>
       </c>
       <c r="C82" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>436235.65734871442</v>
       </c>
       <c r="D82" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9878.9498140816777</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4180.5917162585192</v>
       </c>
       <c r="F82" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>426356.70753463276</v>
       </c>
       <c r="G82" s="37"/>
     </row>
-    <row r="83" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:7" s="22" customFormat="1">
       <c r="B83" s="22">
         <v>74</v>
       </c>
       <c r="C83" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>426356.70753463276</v>
       </c>
       <c r="D83" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>9973.6230831332905</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4085.9184472069055</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>416383.08445149945</v>
       </c>
       <c r="G83" s="37"/>
     </row>
-    <row r="84" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:7" s="22" customFormat="1">
       <c r="B84" s="22">
         <v>75</v>
       </c>
       <c r="C84" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>416383.08445149945</v>
       </c>
       <c r="D84" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10069.20363767999</v>
       </c>
       <c r="E84" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3990.3378926602072</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>406313.88081381947</v>
       </c>
       <c r="G84" s="37"/>
     </row>
-    <row r="85" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:7" s="22" customFormat="1">
       <c r="B85" s="22">
         <v>76</v>
       </c>
       <c r="C85" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>406313.88081381947</v>
       </c>
       <c r="D85" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10165.700172541088</v>
       </c>
       <c r="E85" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3893.8413577991091</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>396148.18064127839</v>
       </c>
       <c r="G85" s="37"/>
     </row>
-    <row r="86" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:7" s="22" customFormat="1">
       <c r="B86" s="22">
         <v>77</v>
       </c>
       <c r="C86" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>396148.18064127839</v>
       </c>
       <c r="D86" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10263.121465861273</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3796.420064478923</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>385885.05917541712</v>
       </c>
       <c r="G86" s="37"/>
     </row>
-    <row r="87" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:7" s="22" customFormat="1">
       <c r="B87" s="22">
         <v>78</v>
       </c>
       <c r="C87" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>385885.05917541712</v>
       </c>
       <c r="D87" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10361.476379909109</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3698.0651504310872</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>375523.58279550803</v>
       </c>
       <c r="G87" s="37"/>
     </row>
-    <row r="88" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:7" s="22" customFormat="1">
       <c r="B88" s="22">
         <v>79</v>
       </c>
       <c r="C88" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>375523.58279550803</v>
       </c>
       <c r="D88" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10460.773861883237</v>
       </c>
       <c r="E88" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3598.7676684569606</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>365062.80893362476</v>
       </c>
       <c r="G88" s="37"/>
     </row>
-    <row r="89" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:7" s="22" customFormat="1">
       <c r="B89" s="22">
         <v>80</v>
       </c>
       <c r="C89" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>365062.80893362476</v>
       </c>
       <c r="D89" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10561.022944726286</v>
       </c>
       <c r="E89" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3498.518585613911</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>354501.78598889848</v>
       </c>
       <c r="G89" s="37"/>
     </row>
-    <row r="90" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:7" s="22" customFormat="1">
       <c r="B90" s="22">
         <v>81</v>
       </c>
       <c r="C90" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>354501.78598889848</v>
       </c>
       <c r="D90" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10662.232747946578</v>
       </c>
       <c r="E90" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3397.3087823936175</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>343839.55324095191</v>
       </c>
       <c r="G90" s="37"/>
     </row>
-    <row r="91" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:7" s="22" customFormat="1">
       <c r="B91" s="22">
         <v>82</v>
       </c>
       <c r="C91" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>343839.55324095191</v>
       </c>
       <c r="D91" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10764.412478447735</v>
       </c>
       <c r="E91" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3295.129051892462</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>333075.14076250419</v>
       </c>
       <c r="G91" s="37"/>
     </row>
-    <row r="92" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:7" s="22" customFormat="1">
       <c r="B92" s="22">
         <v>83</v>
       </c>
       <c r="C92" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>333075.14076250419</v>
       </c>
       <c r="D92" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10867.571431366194</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3191.9700989740031</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>322207.56933113799</v>
       </c>
       <c r="G92" s="37"/>
     </row>
-    <row r="93" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:7" s="22" customFormat="1">
       <c r="B93" s="22">
         <v>84</v>
       </c>
       <c r="C93" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>322207.56933113799</v>
       </c>
       <c r="D93" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>10971.718990916783</v>
       </c>
       <c r="E93" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3087.8225394234146</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>311235.85034022119</v>
       </c>
       <c r="G93" s="37"/>
     </row>
-    <row r="94" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:7" s="22" customFormat="1">
       <c r="B94" s="22">
         <v>85</v>
       </c>
       <c r="C94" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>311235.85034022119</v>
       </c>
       <c r="D94" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11076.864631246402</v>
       </c>
       <c r="E94" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2982.6768990937944</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>300158.98570897477</v>
       </c>
       <c r="G94" s="37"/>
     </row>
-    <row r="95" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:7" s="22" customFormat="1">
       <c r="B95" s="22">
         <v>86</v>
       </c>
       <c r="C95" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>300158.98570897477</v>
       </c>
       <c r="D95" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11183.017917295845</v>
       </c>
       <c r="E95" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2876.5236130443509</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>288975.96779167891</v>
       </c>
       <c r="G95" s="37"/>
     </row>
-    <row r="96" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:7" s="22" customFormat="1">
       <c r="B96" s="22">
         <v>87</v>
       </c>
       <c r="C96" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>288975.96779167891</v>
       </c>
       <c r="D96" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11290.188505669934</v>
       </c>
       <c r="E96" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2769.3530246702626</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>277685.77928600897</v>
       </c>
       <c r="G96" s="37"/>
     </row>
-    <row r="97" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:7" s="22" customFormat="1">
       <c r="B97" s="22">
         <v>88</v>
       </c>
       <c r="C97" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>277685.77928600897</v>
       </c>
       <c r="D97" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11398.386145515939</v>
       </c>
       <c r="E97" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2661.1553848242579</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>266287.39314049302</v>
       </c>
       <c r="G97" s="37"/>
     </row>
-    <row r="98" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:7" s="22" customFormat="1">
       <c r="B98" s="22">
         <v>89</v>
       </c>
       <c r="C98" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>266287.39314049302</v>
       </c>
       <c r="D98" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11507.620679410464</v>
       </c>
       <c r="E98" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2551.9208509297332</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>254779.77246108255</v>
       </c>
       <c r="G98" s="37"/>
     </row>
-    <row r="99" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:7" s="22" customFormat="1">
       <c r="B99" s="22">
         <v>90</v>
       </c>
       <c r="C99" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>254779.77246108255</v>
       </c>
       <c r="D99" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11617.902044254815</v>
       </c>
       <c r="E99" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2441.6394860853816</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>243161.87041682773</v>
       </c>
       <c r="G99" s="37"/>
     </row>
-    <row r="100" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:7" s="22" customFormat="1">
       <c r="B100" s="22">
         <v>91</v>
       </c>
       <c r="C100" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>243161.87041682773</v>
       </c>
       <c r="D100" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11729.240272178922</v>
       </c>
       <c r="E100" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2330.3012581612747</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>231432.63014464881</v>
       </c>
       <c r="G100" s="37"/>
     </row>
-    <row r="101" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:7" s="22" customFormat="1">
       <c r="B101" s="22">
         <v>92</v>
       </c>
       <c r="C101" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>231432.63014464881</v>
       </c>
       <c r="D101" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11841.645491453972</v>
       </c>
       <c r="E101" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2217.8960388862261</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>219590.98465319484</v>
       </c>
       <c r="G101" s="37"/>
     </row>
-    <row r="102" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:7" s="22" customFormat="1">
       <c r="B102" s="22">
         <v>93</v>
       </c>
       <c r="C102" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>219590.98465319484</v>
       </c>
       <c r="D102" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>11955.127927413738</v>
       </c>
       <c r="E102" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2104.4136029264582</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>207635.85672578111</v>
       </c>
       <c r="G102" s="37"/>
     </row>
-    <row r="103" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:7" s="22" customFormat="1">
       <c r="B103" s="22">
         <v>94</v>
       </c>
       <c r="C103" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>207635.85672578111</v>
       </c>
       <c r="D103" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12069.697903384789</v>
       </c>
       <c r="E103" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1989.8436269554081</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>195566.1588223963</v>
       </c>
       <c r="G103" s="37"/>
     </row>
-    <row r="104" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:7" s="22" customFormat="1">
       <c r="B104" s="22">
         <v>95</v>
       </c>
       <c r="C104" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>195566.1588223963</v>
       </c>
       <c r="D104" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12185.365841625557</v>
       </c>
       <c r="E104" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1874.1756887146403</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>183380.79298077076</v>
       </c>
       <c r="G104" s="37"/>
     </row>
-    <row r="105" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:7" s="22" customFormat="1">
       <c r="B105" s="22">
         <v>96</v>
       </c>
       <c r="C105" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>183380.79298077076</v>
       </c>
       <c r="D105" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12302.142264274469</v>
       </c>
       <c r="E105" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1757.3992660657273</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>171078.65071649628</v>
       </c>
       <c r="G105" s="37"/>
     </row>
-    <row r="106" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:7" s="22" customFormat="1">
       <c r="B106" s="22">
         <v>97</v>
       </c>
       <c r="C106" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>171078.65071649628</v>
       </c>
       <c r="D106" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12420.0377943071</v>
       </c>
       <c r="E106" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1639.5037360330973</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>158658.61292218918</v>
       </c>
       <c r="G106" s="37"/>
     </row>
-    <row r="107" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:7" s="22" customFormat="1">
       <c r="B107" s="22">
         <v>98</v>
       </c>
       <c r="C107" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>158658.61292218918</v>
       </c>
       <c r="D107" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12539.063156502545</v>
       </c>
       <c r="E107" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1520.478373837652</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>146119.54976568662</v>
       </c>
       <c r="G107" s="37"/>
     </row>
-    <row r="108" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:7" s="22" customFormat="1">
       <c r="B108" s="22">
         <v>99</v>
       </c>
       <c r="C108" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>146119.54976568662</v>
       </c>
       <c r="D108" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12659.22917841902</v>
       </c>
       <c r="E108" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1400.3123519211758</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>133460.3205872676</v>
       </c>
       <c r="G108" s="37"/>
     </row>
-    <row r="109" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:7" s="22" customFormat="1">
       <c r="B109" s="22">
         <v>100</v>
       </c>
       <c r="C109" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>133460.3205872676</v>
       </c>
       <c r="D109" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12780.546791378869</v>
       </c>
       <c r="E109" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1278.9947389613283</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>120679.77379588873</v>
       </c>
       <c r="G109" s="37"/>
     </row>
-    <row r="110" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:7" s="22" customFormat="1">
       <c r="B110" s="22">
         <v>101</v>
       </c>
       <c r="C110" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>120679.77379588873</v>
       </c>
       <c r="D110" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12903.027031462925</v>
       </c>
       <c r="E110" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1156.5144988772718</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>107776.7467644258</v>
       </c>
       <c r="G110" s="37"/>
     </row>
-    <row r="111" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:7" s="22" customFormat="1">
       <c r="B111" s="22">
         <v>102</v>
       </c>
       <c r="C111" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>107776.7467644258</v>
       </c>
       <c r="D111" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13026.681040514442</v>
       </c>
       <c r="E111" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1032.8604898257549</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>94750.065723911364</v>
       </c>
       <c r="G111" s="37"/>
     </row>
-    <row r="112" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:7" s="22" customFormat="1">
       <c r="B112" s="22">
         <v>103</v>
       </c>
       <c r="C112" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>94750.065723911364</v>
       </c>
       <c r="D112" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13151.520067152704</v>
       </c>
       <c r="E112" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>908.02146318749317</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>81598.545656758666</v>
       </c>
       <c r="G112" s="37"/>
     </row>
-    <row r="113" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:7" s="22" customFormat="1">
       <c r="B113" s="22">
         <v>104</v>
       </c>
       <c r="C113" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>81598.545656758666</v>
       </c>
       <c r="D113" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13277.55546779625</v>
       </c>
       <c r="E113" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>781.98606254394781</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>68320.990188962416</v>
       </c>
       <c r="G113" s="37"/>
     </row>
-    <row r="114" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:7" s="22" customFormat="1">
       <c r="B114" s="22">
         <v>105</v>
       </c>
       <c r="C114" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>68320.990188962416</v>
       </c>
       <c r="D114" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13404.798707695965</v>
       </c>
       <c r="E114" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>654.74282264423118</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>54916.191481266447</v>
       </c>
       <c r="G114" s="37"/>
     </row>
-    <row r="115" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:7" s="22" customFormat="1">
       <c r="B115" s="22">
         <v>106</v>
       </c>
       <c r="C115" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>54916.191481266447</v>
       </c>
       <c r="D115" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13533.26136197805</v>
       </c>
       <c r="E115" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>526.28016836214761</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>41382.930119288401</v>
       </c>
       <c r="G115" s="37"/>
     </row>
-    <row r="116" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:7" s="22" customFormat="1">
       <c r="B116" s="22">
         <v>107</v>
       </c>
       <c r="C116" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>41382.930119288401</v>
       </c>
       <c r="D116" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13662.95511669701</v>
       </c>
       <c r="E116" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>396.58641364318709</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>27719.975002591389</v>
       </c>
       <c r="G116" s="37"/>
     </row>
-    <row r="117" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:7" s="22" customFormat="1">
       <c r="B117" s="22">
         <v>108</v>
       </c>
       <c r="C117" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>27719.975002591389</v>
       </c>
       <c r="D117" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13793.89176989869</v>
       </c>
       <c r="E117" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>265.64976044150637</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>13926.083232692699</v>
       </c>
       <c r="G117" s="37"/>
     </row>
-    <row r="118" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:7" s="22" customFormat="1">
       <c r="B118" s="22">
         <v>109</v>
       </c>
       <c r="C118" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>13926.083232692699</v>
       </c>
       <c r="D118" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13926.083232693547</v>
       </c>
       <c r="E118" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>133.4582976466493</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G118" s="37"/>
     </row>
-    <row r="119" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:7" s="22" customFormat="1">
       <c r="B119" s="22">
         <v>110</v>
       </c>
       <c r="C119" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D119" s="14">
         <f t="shared" si="4"/>
@@ -3716,17 +3714,17 @@
       </c>
       <c r="F119" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G119" s="37"/>
     </row>
-    <row r="120" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:7" s="22" customFormat="1">
       <c r="B120" s="22">
         <v>111</v>
       </c>
       <c r="C120" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D120" s="14">
         <f t="shared" si="4"/>
@@ -3738,17 +3736,17 @@
       </c>
       <c r="F120" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G120" s="37"/>
     </row>
-    <row r="121" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:7" s="22" customFormat="1">
       <c r="B121" s="22">
         <v>112</v>
       </c>
       <c r="C121" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D121" s="14">
         <f t="shared" si="4"/>
@@ -3760,17 +3758,17 @@
       </c>
       <c r="F121" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G121" s="37"/>
     </row>
-    <row r="122" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:7" s="22" customFormat="1">
       <c r="B122" s="22">
         <v>113</v>
       </c>
       <c r="C122" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D122" s="14">
         <f t="shared" si="4"/>
@@ -3782,17 +3780,17 @@
       </c>
       <c r="F122" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G122" s="37"/>
     </row>
-    <row r="123" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:7" s="22" customFormat="1">
       <c r="B123" s="22">
         <v>114</v>
       </c>
       <c r="C123" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D123" s="14">
         <f t="shared" si="4"/>
@@ -3804,17 +3802,17 @@
       </c>
       <c r="F123" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G123" s="37"/>
     </row>
-    <row r="124" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:7" s="22" customFormat="1">
       <c r="B124" s="22">
         <v>115</v>
       </c>
       <c r="C124" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D124" s="14">
         <f t="shared" si="4"/>
@@ -3826,17 +3824,17 @@
       </c>
       <c r="F124" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G124" s="37"/>
     </row>
-    <row r="125" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:7" s="22" customFormat="1">
       <c r="B125" s="22">
         <v>116</v>
       </c>
       <c r="C125" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D125" s="14">
         <f t="shared" si="4"/>
@@ -3848,17 +3846,17 @@
       </c>
       <c r="F125" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G125" s="37"/>
     </row>
-    <row r="126" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:7" s="22" customFormat="1">
       <c r="B126" s="22">
         <v>117</v>
       </c>
       <c r="C126" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D126" s="14">
         <f t="shared" si="4"/>
@@ -3870,17 +3868,17 @@
       </c>
       <c r="F126" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G126" s="37"/>
     </row>
-    <row r="127" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:7" s="22" customFormat="1">
       <c r="B127" s="22">
         <v>118</v>
       </c>
       <c r="C127" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D127" s="14">
         <f t="shared" si="4"/>
@@ -3892,17 +3890,17 @@
       </c>
       <c r="F127" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G127" s="37"/>
     </row>
-    <row r="128" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:7" s="22" customFormat="1">
       <c r="B128" s="22">
         <v>119</v>
       </c>
       <c r="C128" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D128" s="14">
         <f t="shared" si="4"/>
@@ -3914,17 +3912,17 @@
       </c>
       <c r="F128" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G128" s="37"/>
     </row>
-    <row r="129" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:7" s="22" customFormat="1">
       <c r="B129" s="22">
         <v>120</v>
       </c>
       <c r="C129" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D129" s="14">
         <f t="shared" si="4"/>
@@ -3936,17 +3934,17 @@
       </c>
       <c r="F129" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G129" s="37"/>
     </row>
-    <row r="130" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:7" s="22" customFormat="1">
       <c r="B130" s="22">
         <v>121</v>
       </c>
       <c r="C130" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D130" s="14">
         <f t="shared" si="4"/>
@@ -3958,17 +3956,17 @@
       </c>
       <c r="F130" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G130" s="37"/>
     </row>
-    <row r="131" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:7" s="22" customFormat="1">
       <c r="B131" s="22">
         <v>122</v>
       </c>
       <c r="C131" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D131" s="14">
         <f t="shared" si="4"/>
@@ -3980,17 +3978,17 @@
       </c>
       <c r="F131" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G131" s="37"/>
     </row>
-    <row r="132" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:7" s="22" customFormat="1">
       <c r="B132" s="22">
         <v>123</v>
       </c>
       <c r="C132" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D132" s="14">
         <f t="shared" si="4"/>
@@ -4002,17 +4000,17 @@
       </c>
       <c r="F132" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G132" s="37"/>
     </row>
-    <row r="133" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:7" s="22" customFormat="1">
       <c r="B133" s="22">
         <v>124</v>
       </c>
       <c r="C133" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D133" s="14">
         <f t="shared" si="4"/>
@@ -4024,17 +4022,17 @@
       </c>
       <c r="F133" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G133" s="37"/>
     </row>
-    <row r="134" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:7" s="22" customFormat="1">
       <c r="B134" s="22">
         <v>125</v>
       </c>
       <c r="C134" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D134" s="14">
         <f t="shared" si="4"/>
@@ -4046,17 +4044,17 @@
       </c>
       <c r="F134" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G134" s="37"/>
     </row>
-    <row r="135" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:7" s="22" customFormat="1">
       <c r="B135" s="22">
         <v>126</v>
       </c>
       <c r="C135" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D135" s="14">
         <f t="shared" si="4"/>
@@ -4068,17 +4066,17 @@
       </c>
       <c r="F135" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G135" s="37"/>
     </row>
-    <row r="136" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:7" s="22" customFormat="1">
       <c r="B136" s="22">
         <v>127</v>
       </c>
       <c r="C136" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D136" s="14">
         <f t="shared" si="4"/>
@@ -4090,17 +4088,17 @@
       </c>
       <c r="F136" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G136" s="37"/>
     </row>
-    <row r="137" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:7" s="22" customFormat="1">
       <c r="B137" s="22">
         <v>128</v>
       </c>
       <c r="C137" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D137" s="14">
         <f t="shared" si="4"/>
@@ -4112,17 +4110,17 @@
       </c>
       <c r="F137" s="37">
         <f t="shared" si="6"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G137" s="37"/>
     </row>
-    <row r="138" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:7" s="22" customFormat="1">
       <c r="B138" s="22">
         <v>129</v>
       </c>
       <c r="C138" s="37">
         <f t="shared" si="7"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D138" s="14">
         <f t="shared" ref="D138:D201" si="8">IF(ISERROR(PPMT(($B$2/12),$B138,$B$3,-$B$4)),0,PPMT(($B$2/12),$B138,$B$3,-$B$4))</f>
@@ -4134,17 +4132,17 @@
       </c>
       <c r="F138" s="37">
         <f t="shared" ref="F138:F201" si="10">C138-D138</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G138" s="37"/>
     </row>
-    <row r="139" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:7" s="22" customFormat="1">
       <c r="B139" s="22">
         <v>130</v>
       </c>
       <c r="C139" s="37">
         <f t="shared" ref="C139:C202" si="11">C138-D138</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D139" s="14">
         <f t="shared" si="8"/>
@@ -4156,17 +4154,17 @@
       </c>
       <c r="F139" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G139" s="37"/>
     </row>
-    <row r="140" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:7" s="22" customFormat="1">
       <c r="B140" s="22">
         <v>131</v>
       </c>
       <c r="C140" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D140" s="14">
         <f t="shared" si="8"/>
@@ -4178,17 +4176,17 @@
       </c>
       <c r="F140" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G140" s="37"/>
     </row>
-    <row r="141" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:7" s="22" customFormat="1">
       <c r="B141" s="22">
         <v>132</v>
       </c>
       <c r="C141" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D141" s="14">
         <f t="shared" si="8"/>
@@ -4200,17 +4198,17 @@
       </c>
       <c r="F141" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G141" s="37"/>
     </row>
-    <row r="142" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:7" s="22" customFormat="1">
       <c r="B142" s="22">
         <v>133</v>
       </c>
       <c r="C142" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D142" s="14">
         <f t="shared" si="8"/>
@@ -4222,17 +4220,17 @@
       </c>
       <c r="F142" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G142" s="37"/>
     </row>
-    <row r="143" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:7" s="22" customFormat="1">
       <c r="B143" s="22">
         <v>134</v>
       </c>
       <c r="C143" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D143" s="14">
         <f t="shared" si="8"/>
@@ -4244,17 +4242,17 @@
       </c>
       <c r="F143" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G143" s="37"/>
     </row>
-    <row r="144" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:7" s="22" customFormat="1">
       <c r="B144" s="22">
         <v>135</v>
       </c>
       <c r="C144" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D144" s="14">
         <f t="shared" si="8"/>
@@ -4266,17 +4264,17 @@
       </c>
       <c r="F144" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G144" s="37"/>
     </row>
-    <row r="145" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:7" s="22" customFormat="1">
       <c r="B145" s="22">
         <v>136</v>
       </c>
       <c r="C145" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D145" s="14">
         <f t="shared" si="8"/>
@@ -4288,17 +4286,17 @@
       </c>
       <c r="F145" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G145" s="37"/>
     </row>
-    <row r="146" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:7" s="22" customFormat="1">
       <c r="B146" s="22">
         <v>137</v>
       </c>
       <c r="C146" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D146" s="14">
         <f t="shared" si="8"/>
@@ -4310,17 +4308,17 @@
       </c>
       <c r="F146" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G146" s="37"/>
     </row>
-    <row r="147" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:7" s="22" customFormat="1">
       <c r="B147" s="22">
         <v>138</v>
       </c>
       <c r="C147" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D147" s="14">
         <f t="shared" si="8"/>
@@ -4332,17 +4330,17 @@
       </c>
       <c r="F147" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G147" s="37"/>
     </row>
-    <row r="148" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:7" s="22" customFormat="1">
       <c r="B148" s="22">
         <v>139</v>
       </c>
       <c r="C148" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D148" s="14">
         <f t="shared" si="8"/>
@@ -4354,17 +4352,17 @@
       </c>
       <c r="F148" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G148" s="37"/>
     </row>
-    <row r="149" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:7" s="22" customFormat="1">
       <c r="B149" s="22">
         <v>140</v>
       </c>
       <c r="C149" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D149" s="14">
         <f t="shared" si="8"/>
@@ -4376,17 +4374,17 @@
       </c>
       <c r="F149" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G149" s="37"/>
     </row>
-    <row r="150" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:7" s="22" customFormat="1">
       <c r="B150" s="22">
         <v>141</v>
       </c>
       <c r="C150" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D150" s="14">
         <f t="shared" si="8"/>
@@ -4398,17 +4396,17 @@
       </c>
       <c r="F150" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G150" s="37"/>
     </row>
-    <row r="151" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:7" s="22" customFormat="1">
       <c r="B151" s="22">
         <v>142</v>
       </c>
       <c r="C151" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D151" s="14">
         <f t="shared" si="8"/>
@@ -4420,17 +4418,17 @@
       </c>
       <c r="F151" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G151" s="37"/>
     </row>
-    <row r="152" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:7" s="22" customFormat="1">
       <c r="B152" s="22">
         <v>143</v>
       </c>
       <c r="C152" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D152" s="14">
         <f t="shared" si="8"/>
@@ -4442,17 +4440,17 @@
       </c>
       <c r="F152" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G152" s="37"/>
     </row>
-    <row r="153" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:7" s="22" customFormat="1">
       <c r="B153" s="22">
         <v>144</v>
       </c>
       <c r="C153" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D153" s="14">
         <f t="shared" si="8"/>
@@ -4464,17 +4462,17 @@
       </c>
       <c r="F153" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G153" s="37"/>
     </row>
-    <row r="154" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:7" s="22" customFormat="1">
       <c r="B154" s="22">
         <v>145</v>
       </c>
       <c r="C154" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D154" s="14">
         <f t="shared" si="8"/>
@@ -4486,17 +4484,17 @@
       </c>
       <c r="F154" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G154" s="37"/>
     </row>
-    <row r="155" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:7" s="22" customFormat="1">
       <c r="B155" s="22">
         <v>146</v>
       </c>
       <c r="C155" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D155" s="14">
         <f t="shared" si="8"/>
@@ -4508,17 +4506,17 @@
       </c>
       <c r="F155" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G155" s="37"/>
     </row>
-    <row r="156" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:7" s="22" customFormat="1">
       <c r="B156" s="22">
         <v>147</v>
       </c>
       <c r="C156" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D156" s="14">
         <f t="shared" si="8"/>
@@ -4530,17 +4528,17 @@
       </c>
       <c r="F156" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G156" s="37"/>
     </row>
-    <row r="157" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:7" s="22" customFormat="1">
       <c r="B157" s="22">
         <v>148</v>
       </c>
       <c r="C157" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D157" s="14">
         <f t="shared" si="8"/>
@@ -4552,17 +4550,17 @@
       </c>
       <c r="F157" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G157" s="37"/>
     </row>
-    <row r="158" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:7" s="22" customFormat="1">
       <c r="B158" s="22">
         <v>149</v>
       </c>
       <c r="C158" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D158" s="14">
         <f t="shared" si="8"/>
@@ -4574,17 +4572,17 @@
       </c>
       <c r="F158" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G158" s="37"/>
     </row>
-    <row r="159" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:7" s="22" customFormat="1">
       <c r="B159" s="22">
         <v>150</v>
       </c>
       <c r="C159" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D159" s="14">
         <f t="shared" si="8"/>
@@ -4596,17 +4594,17 @@
       </c>
       <c r="F159" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G159" s="37"/>
     </row>
-    <row r="160" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:7" s="22" customFormat="1">
       <c r="B160" s="22">
         <v>151</v>
       </c>
       <c r="C160" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D160" s="14">
         <f t="shared" si="8"/>
@@ -4618,17 +4616,17 @@
       </c>
       <c r="F160" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G160" s="37"/>
     </row>
-    <row r="161" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:7" s="22" customFormat="1">
       <c r="B161" s="22">
         <v>152</v>
       </c>
       <c r="C161" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D161" s="14">
         <f t="shared" si="8"/>
@@ -4640,17 +4638,17 @@
       </c>
       <c r="F161" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G161" s="37"/>
     </row>
-    <row r="162" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:7" s="22" customFormat="1">
       <c r="B162" s="22">
         <v>153</v>
       </c>
       <c r="C162" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D162" s="14">
         <f t="shared" si="8"/>
@@ -4662,17 +4660,17 @@
       </c>
       <c r="F162" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G162" s="37"/>
     </row>
-    <row r="163" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:7" s="22" customFormat="1">
       <c r="B163" s="22">
         <v>154</v>
       </c>
       <c r="C163" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D163" s="14">
         <f t="shared" si="8"/>
@@ -4684,17 +4682,17 @@
       </c>
       <c r="F163" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G163" s="37"/>
     </row>
-    <row r="164" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:7" s="22" customFormat="1">
       <c r="B164" s="22">
         <v>155</v>
       </c>
       <c r="C164" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D164" s="14">
         <f t="shared" si="8"/>
@@ -4706,17 +4704,17 @@
       </c>
       <c r="F164" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G164" s="37"/>
     </row>
-    <row r="165" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:7" s="22" customFormat="1">
       <c r="B165" s="22">
         <v>156</v>
       </c>
       <c r="C165" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D165" s="14">
         <f t="shared" si="8"/>
@@ -4728,17 +4726,17 @@
       </c>
       <c r="F165" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G165" s="37"/>
     </row>
-    <row r="166" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:7" s="22" customFormat="1">
       <c r="B166" s="22">
         <v>157</v>
       </c>
       <c r="C166" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D166" s="14">
         <f t="shared" si="8"/>
@@ -4750,17 +4748,17 @@
       </c>
       <c r="F166" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G166" s="37"/>
     </row>
-    <row r="167" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:7" s="22" customFormat="1">
       <c r="B167" s="22">
         <v>158</v>
       </c>
       <c r="C167" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D167" s="14">
         <f t="shared" si="8"/>
@@ -4772,17 +4770,17 @@
       </c>
       <c r="F167" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G167" s="37"/>
     </row>
-    <row r="168" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:7" s="22" customFormat="1">
       <c r="B168" s="22">
         <v>159</v>
       </c>
       <c r="C168" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D168" s="14">
         <f t="shared" si="8"/>
@@ -4794,17 +4792,17 @@
       </c>
       <c r="F168" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G168" s="37"/>
     </row>
-    <row r="169" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:7" s="22" customFormat="1">
       <c r="B169" s="22">
         <v>160</v>
       </c>
       <c r="C169" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D169" s="14">
         <f t="shared" si="8"/>
@@ -4816,17 +4814,17 @@
       </c>
       <c r="F169" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G169" s="37"/>
     </row>
-    <row r="170" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:7" s="22" customFormat="1">
       <c r="B170" s="22">
         <v>161</v>
       </c>
       <c r="C170" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D170" s="14">
         <f t="shared" si="8"/>
@@ -4838,17 +4836,17 @@
       </c>
       <c r="F170" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G170" s="37"/>
     </row>
-    <row r="171" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:7" s="22" customFormat="1">
       <c r="B171" s="22">
         <v>162</v>
       </c>
       <c r="C171" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D171" s="14">
         <f t="shared" si="8"/>
@@ -4860,17 +4858,17 @@
       </c>
       <c r="F171" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G171" s="37"/>
     </row>
-    <row r="172" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:7" s="22" customFormat="1">
       <c r="B172" s="22">
         <v>163</v>
       </c>
       <c r="C172" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D172" s="14">
         <f t="shared" si="8"/>
@@ -4882,17 +4880,17 @@
       </c>
       <c r="F172" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G172" s="37"/>
     </row>
-    <row r="173" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:7" s="22" customFormat="1">
       <c r="B173" s="22">
         <v>164</v>
       </c>
       <c r="C173" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D173" s="14">
         <f t="shared" si="8"/>
@@ -4904,17 +4902,17 @@
       </c>
       <c r="F173" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G173" s="37"/>
     </row>
-    <row r="174" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:7" s="22" customFormat="1">
       <c r="B174" s="22">
         <v>165</v>
       </c>
       <c r="C174" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D174" s="14">
         <f t="shared" si="8"/>
@@ -4926,17 +4924,17 @@
       </c>
       <c r="F174" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G174" s="37"/>
     </row>
-    <row r="175" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:7" s="22" customFormat="1">
       <c r="B175" s="22">
         <v>166</v>
       </c>
       <c r="C175" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D175" s="14">
         <f t="shared" si="8"/>
@@ -4948,17 +4946,17 @@
       </c>
       <c r="F175" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G175" s="37"/>
     </row>
-    <row r="176" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:7" s="22" customFormat="1">
       <c r="B176" s="22">
         <v>167</v>
       </c>
       <c r="C176" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D176" s="14">
         <f t="shared" si="8"/>
@@ -4970,17 +4968,17 @@
       </c>
       <c r="F176" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G176" s="37"/>
     </row>
-    <row r="177" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:7" s="22" customFormat="1">
       <c r="B177" s="22">
         <v>168</v>
       </c>
       <c r="C177" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D177" s="14">
         <f t="shared" si="8"/>
@@ -4992,17 +4990,17 @@
       </c>
       <c r="F177" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G177" s="37"/>
     </row>
-    <row r="178" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:7" s="22" customFormat="1">
       <c r="B178" s="22">
         <v>169</v>
       </c>
       <c r="C178" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D178" s="14">
         <f t="shared" si="8"/>
@@ -5014,17 +5012,17 @@
       </c>
       <c r="F178" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G178" s="37"/>
     </row>
-    <row r="179" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:7" s="22" customFormat="1">
       <c r="B179" s="22">
         <v>170</v>
       </c>
       <c r="C179" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D179" s="14">
         <f t="shared" si="8"/>
@@ -5036,17 +5034,17 @@
       </c>
       <c r="F179" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G179" s="37"/>
     </row>
-    <row r="180" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:7" s="22" customFormat="1">
       <c r="B180" s="22">
         <v>171</v>
       </c>
       <c r="C180" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D180" s="14">
         <f t="shared" si="8"/>
@@ -5058,17 +5056,17 @@
       </c>
       <c r="F180" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G180" s="37"/>
     </row>
-    <row r="181" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:7" s="22" customFormat="1">
       <c r="B181" s="22">
         <v>172</v>
       </c>
       <c r="C181" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D181" s="14">
         <f t="shared" si="8"/>
@@ -5080,17 +5078,17 @@
       </c>
       <c r="F181" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G181" s="37"/>
     </row>
-    <row r="182" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:7" s="22" customFormat="1">
       <c r="B182" s="22">
         <v>173</v>
       </c>
       <c r="C182" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D182" s="14">
         <f t="shared" si="8"/>
@@ -5102,17 +5100,17 @@
       </c>
       <c r="F182" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G182" s="37"/>
     </row>
-    <row r="183" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:7" s="22" customFormat="1">
       <c r="B183" s="22">
         <v>174</v>
       </c>
       <c r="C183" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D183" s="14">
         <f t="shared" si="8"/>
@@ -5124,17 +5122,17 @@
       </c>
       <c r="F183" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G183" s="37"/>
     </row>
-    <row r="184" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:7" s="22" customFormat="1">
       <c r="B184" s="22">
         <v>175</v>
       </c>
       <c r="C184" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D184" s="14">
         <f t="shared" si="8"/>
@@ -5146,17 +5144,17 @@
       </c>
       <c r="F184" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G184" s="37"/>
     </row>
-    <row r="185" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:7" s="22" customFormat="1">
       <c r="B185" s="22">
         <v>176</v>
       </c>
       <c r="C185" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D185" s="14">
         <f t="shared" si="8"/>
@@ -5168,17 +5166,17 @@
       </c>
       <c r="F185" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G185" s="37"/>
     </row>
-    <row r="186" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:7" s="22" customFormat="1">
       <c r="B186" s="22">
         <v>177</v>
       </c>
       <c r="C186" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D186" s="14">
         <f t="shared" si="8"/>
@@ -5190,17 +5188,17 @@
       </c>
       <c r="F186" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G186" s="37"/>
     </row>
-    <row r="187" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:7" s="22" customFormat="1">
       <c r="B187" s="22">
         <v>178</v>
       </c>
       <c r="C187" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D187" s="14">
         <f t="shared" si="8"/>
@@ -5212,17 +5210,17 @@
       </c>
       <c r="F187" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G187" s="37"/>
     </row>
-    <row r="188" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:7" s="22" customFormat="1">
       <c r="B188" s="22">
         <v>179</v>
       </c>
       <c r="C188" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D188" s="14">
         <f t="shared" si="8"/>
@@ -5234,17 +5232,17 @@
       </c>
       <c r="F188" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G188" s="37"/>
     </row>
-    <row r="189" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:7" s="22" customFormat="1">
       <c r="B189" s="22">
         <v>180</v>
       </c>
       <c r="C189" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D189" s="14">
         <f t="shared" si="8"/>
@@ -5256,17 +5254,17 @@
       </c>
       <c r="F189" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G189" s="37"/>
     </row>
-    <row r="190" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:7" s="22" customFormat="1">
       <c r="B190" s="22">
         <v>181</v>
       </c>
       <c r="C190" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D190" s="14">
         <f t="shared" si="8"/>
@@ -5278,17 +5276,17 @@
       </c>
       <c r="F190" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G190" s="37"/>
     </row>
-    <row r="191" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:7" s="22" customFormat="1">
       <c r="B191" s="22">
         <v>182</v>
       </c>
       <c r="C191" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D191" s="14">
         <f t="shared" si="8"/>
@@ -5300,17 +5298,17 @@
       </c>
       <c r="F191" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G191" s="37"/>
     </row>
-    <row r="192" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:7" s="22" customFormat="1">
       <c r="B192" s="22">
         <v>183</v>
       </c>
       <c r="C192" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D192" s="14">
         <f t="shared" si="8"/>
@@ -5322,17 +5320,17 @@
       </c>
       <c r="F192" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G192" s="37"/>
     </row>
-    <row r="193" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:7" s="22" customFormat="1">
       <c r="B193" s="22">
         <v>184</v>
       </c>
       <c r="C193" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D193" s="14">
         <f t="shared" si="8"/>
@@ -5344,17 +5342,17 @@
       </c>
       <c r="F193" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G193" s="37"/>
     </row>
-    <row r="194" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:7" s="22" customFormat="1">
       <c r="B194" s="22">
         <v>185</v>
       </c>
       <c r="C194" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D194" s="14">
         <f t="shared" si="8"/>
@@ -5366,17 +5364,17 @@
       </c>
       <c r="F194" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G194" s="37"/>
     </row>
-    <row r="195" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:7" s="22" customFormat="1">
       <c r="B195" s="22">
         <v>186</v>
       </c>
       <c r="C195" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D195" s="14">
         <f t="shared" si="8"/>
@@ -5388,17 +5386,17 @@
       </c>
       <c r="F195" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G195" s="37"/>
     </row>
-    <row r="196" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:7" s="22" customFormat="1">
       <c r="B196" s="22">
         <v>187</v>
       </c>
       <c r="C196" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D196" s="14">
         <f t="shared" si="8"/>
@@ -5410,17 +5408,17 @@
       </c>
       <c r="F196" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G196" s="37"/>
     </row>
-    <row r="197" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:7" s="22" customFormat="1">
       <c r="B197" s="22">
         <v>188</v>
       </c>
       <c r="C197" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D197" s="14">
         <f t="shared" si="8"/>
@@ -5432,17 +5430,17 @@
       </c>
       <c r="F197" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G197" s="37"/>
     </row>
-    <row r="198" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:7" s="22" customFormat="1">
       <c r="B198" s="22">
         <v>189</v>
       </c>
       <c r="C198" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D198" s="14">
         <f t="shared" si="8"/>
@@ -5454,17 +5452,17 @@
       </c>
       <c r="F198" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G198" s="37"/>
     </row>
-    <row r="199" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:7" s="22" customFormat="1">
       <c r="B199" s="22">
         <v>190</v>
       </c>
       <c r="C199" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D199" s="14">
         <f t="shared" si="8"/>
@@ -5476,17 +5474,17 @@
       </c>
       <c r="F199" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G199" s="37"/>
     </row>
-    <row r="200" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:7" s="22" customFormat="1">
       <c r="B200" s="22">
         <v>191</v>
       </c>
       <c r="C200" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D200" s="14">
         <f t="shared" si="8"/>
@@ -5498,17 +5496,17 @@
       </c>
       <c r="F200" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G200" s="37"/>
     </row>
-    <row r="201" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:7" s="22" customFormat="1">
       <c r="B201" s="22">
         <v>192</v>
       </c>
       <c r="C201" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D201" s="14">
         <f t="shared" si="8"/>
@@ -5520,17 +5518,17 @@
       </c>
       <c r="F201" s="37">
         <f t="shared" si="10"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G201" s="37"/>
     </row>
-    <row r="202" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:7" s="22" customFormat="1">
       <c r="B202" s="22">
         <v>193</v>
       </c>
       <c r="C202" s="37">
         <f t="shared" si="11"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D202" s="14">
         <f t="shared" ref="D202:D259" si="12">IF(ISERROR(PPMT(($B$2/12),$B202,$B$3,-$B$4)),0,PPMT(($B$2/12),$B202,$B$3,-$B$4))</f>
@@ -5542,17 +5540,17 @@
       </c>
       <c r="F202" s="37">
         <f t="shared" ref="F202:F259" si="14">C202-D202</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G202" s="37"/>
     </row>
-    <row r="203" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:7" s="22" customFormat="1">
       <c r="B203" s="22">
         <v>194</v>
       </c>
       <c r="C203" s="37">
         <f t="shared" ref="C203:C259" si="15">C202-D202</f>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D203" s="14">
         <f t="shared" si="12"/>
@@ -5564,17 +5562,17 @@
       </c>
       <c r="F203" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G203" s="37"/>
     </row>
-    <row r="204" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:7" s="22" customFormat="1">
       <c r="B204" s="22">
         <v>195</v>
       </c>
       <c r="C204" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D204" s="14">
         <f t="shared" si="12"/>
@@ -5586,17 +5584,17 @@
       </c>
       <c r="F204" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G204" s="37"/>
     </row>
-    <row r="205" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:7" s="22" customFormat="1">
       <c r="B205" s="22">
         <v>196</v>
       </c>
       <c r="C205" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D205" s="14">
         <f t="shared" si="12"/>
@@ -5608,17 +5606,17 @@
       </c>
       <c r="F205" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G205" s="37"/>
     </row>
-    <row r="206" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:7" s="22" customFormat="1">
       <c r="B206" s="22">
         <v>197</v>
       </c>
       <c r="C206" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D206" s="14">
         <f t="shared" si="12"/>
@@ -5630,17 +5628,17 @@
       </c>
       <c r="F206" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G206" s="37"/>
     </row>
-    <row r="207" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:7" s="22" customFormat="1">
       <c r="B207" s="22">
         <v>198</v>
       </c>
       <c r="C207" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D207" s="14">
         <f t="shared" si="12"/>
@@ -5652,17 +5650,17 @@
       </c>
       <c r="F207" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G207" s="37"/>
     </row>
-    <row r="208" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:7" s="22" customFormat="1">
       <c r="B208" s="22">
         <v>199</v>
       </c>
       <c r="C208" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D208" s="14">
         <f t="shared" si="12"/>
@@ -5674,17 +5672,17 @@
       </c>
       <c r="F208" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G208" s="37"/>
     </row>
-    <row r="209" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:7" s="22" customFormat="1">
       <c r="B209" s="22">
         <v>200</v>
       </c>
       <c r="C209" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D209" s="14">
         <f t="shared" si="12"/>
@@ -5696,17 +5694,17 @@
       </c>
       <c r="F209" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G209" s="37"/>
     </row>
-    <row r="210" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:7" s="22" customFormat="1">
       <c r="B210" s="22">
         <v>201</v>
       </c>
       <c r="C210" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D210" s="14">
         <f t="shared" si="12"/>
@@ -5718,17 +5716,17 @@
       </c>
       <c r="F210" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G210" s="37"/>
     </row>
-    <row r="211" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:7" s="22" customFormat="1">
       <c r="B211" s="22">
         <v>202</v>
       </c>
       <c r="C211" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D211" s="14">
         <f t="shared" si="12"/>
@@ -5740,17 +5738,17 @@
       </c>
       <c r="F211" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G211" s="37"/>
     </row>
-    <row r="212" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:7" s="22" customFormat="1">
       <c r="B212" s="22">
         <v>203</v>
       </c>
       <c r="C212" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D212" s="14">
         <f t="shared" si="12"/>
@@ -5762,17 +5760,17 @@
       </c>
       <c r="F212" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G212" s="37"/>
     </row>
-    <row r="213" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:7" s="22" customFormat="1">
       <c r="B213" s="22">
         <v>204</v>
       </c>
       <c r="C213" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D213" s="14">
         <f t="shared" si="12"/>
@@ -5784,17 +5782,17 @@
       </c>
       <c r="F213" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G213" s="37"/>
     </row>
-    <row r="214" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:7" s="22" customFormat="1">
       <c r="B214" s="22">
         <v>205</v>
       </c>
       <c r="C214" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D214" s="14">
         <f t="shared" si="12"/>
@@ -5806,17 +5804,17 @@
       </c>
       <c r="F214" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G214" s="37"/>
     </row>
-    <row r="215" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:7" s="22" customFormat="1">
       <c r="B215" s="22">
         <v>206</v>
       </c>
       <c r="C215" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D215" s="14">
         <f t="shared" si="12"/>
@@ -5828,17 +5826,17 @@
       </c>
       <c r="F215" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G215" s="37"/>
     </row>
-    <row r="216" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:7" s="22" customFormat="1">
       <c r="B216" s="22">
         <v>207</v>
       </c>
       <c r="C216" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D216" s="14">
         <f t="shared" si="12"/>
@@ -5850,17 +5848,17 @@
       </c>
       <c r="F216" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G216" s="37"/>
     </row>
-    <row r="217" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:7" s="22" customFormat="1">
       <c r="B217" s="22">
         <v>208</v>
       </c>
       <c r="C217" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D217" s="14">
         <f t="shared" si="12"/>
@@ -5872,17 +5870,17 @@
       </c>
       <c r="F217" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G217" s="37"/>
     </row>
-    <row r="218" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:7" s="22" customFormat="1">
       <c r="B218" s="22">
         <v>209</v>
       </c>
       <c r="C218" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D218" s="14">
         <f t="shared" si="12"/>
@@ -5894,17 +5892,17 @@
       </c>
       <c r="F218" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G218" s="37"/>
     </row>
-    <row r="219" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:7" s="22" customFormat="1">
       <c r="B219" s="22">
         <v>210</v>
       </c>
       <c r="C219" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D219" s="14">
         <f t="shared" si="12"/>
@@ -5916,17 +5914,17 @@
       </c>
       <c r="F219" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G219" s="37"/>
     </row>
-    <row r="220" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:7" s="22" customFormat="1">
       <c r="B220" s="22">
         <v>211</v>
       </c>
       <c r="C220" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D220" s="14">
         <f t="shared" si="12"/>
@@ -5938,17 +5936,17 @@
       </c>
       <c r="F220" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G220" s="37"/>
     </row>
-    <row r="221" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:7" s="22" customFormat="1">
       <c r="B221" s="22">
         <v>212</v>
       </c>
       <c r="C221" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D221" s="14">
         <f t="shared" si="12"/>
@@ -5960,17 +5958,17 @@
       </c>
       <c r="F221" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G221" s="37"/>
     </row>
-    <row r="222" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:7" s="22" customFormat="1">
       <c r="B222" s="22">
         <v>213</v>
       </c>
       <c r="C222" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D222" s="14">
         <f t="shared" si="12"/>
@@ -5982,17 +5980,17 @@
       </c>
       <c r="F222" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G222" s="37"/>
     </row>
-    <row r="223" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:7" s="22" customFormat="1">
       <c r="B223" s="22">
         <v>214</v>
       </c>
       <c r="C223" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D223" s="14">
         <f t="shared" si="12"/>
@@ -6004,17 +6002,17 @@
       </c>
       <c r="F223" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G223" s="37"/>
     </row>
-    <row r="224" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:7" s="22" customFormat="1">
       <c r="B224" s="22">
         <v>215</v>
       </c>
       <c r="C224" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D224" s="14">
         <f t="shared" si="12"/>
@@ -6026,17 +6024,17 @@
       </c>
       <c r="F224" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G224" s="37"/>
     </row>
-    <row r="225" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:7" s="22" customFormat="1">
       <c r="B225" s="22">
         <v>216</v>
       </c>
       <c r="C225" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D225" s="14">
         <f t="shared" si="12"/>
@@ -6048,17 +6046,17 @@
       </c>
       <c r="F225" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G225" s="37"/>
     </row>
-    <row r="226" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:7" s="22" customFormat="1">
       <c r="B226" s="22">
         <v>217</v>
       </c>
       <c r="C226" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D226" s="14">
         <f t="shared" si="12"/>
@@ -6070,17 +6068,17 @@
       </c>
       <c r="F226" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G226" s="37"/>
     </row>
-    <row r="227" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:7" s="22" customFormat="1">
       <c r="B227" s="22">
         <v>218</v>
       </c>
       <c r="C227" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D227" s="14">
         <f t="shared" si="12"/>
@@ -6092,17 +6090,17 @@
       </c>
       <c r="F227" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G227" s="37"/>
     </row>
-    <row r="228" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:7" s="22" customFormat="1">
       <c r="B228" s="22">
         <v>219</v>
       </c>
       <c r="C228" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D228" s="14">
         <f t="shared" si="12"/>
@@ -6114,17 +6112,17 @@
       </c>
       <c r="F228" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G228" s="37"/>
     </row>
-    <row r="229" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:7" s="22" customFormat="1">
       <c r="B229" s="22">
         <v>220</v>
       </c>
       <c r="C229" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D229" s="14">
         <f t="shared" si="12"/>
@@ -6136,17 +6134,17 @@
       </c>
       <c r="F229" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G229" s="37"/>
     </row>
-    <row r="230" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:7" s="22" customFormat="1">
       <c r="B230" s="22">
         <v>221</v>
       </c>
       <c r="C230" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D230" s="14">
         <f t="shared" si="12"/>
@@ -6158,17 +6156,17 @@
       </c>
       <c r="F230" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G230" s="37"/>
     </row>
-    <row r="231" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:7" s="22" customFormat="1">
       <c r="B231" s="22">
         <v>222</v>
       </c>
       <c r="C231" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D231" s="14">
         <f t="shared" si="12"/>
@@ -6180,17 +6178,17 @@
       </c>
       <c r="F231" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G231" s="37"/>
     </row>
-    <row r="232" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:7" s="22" customFormat="1">
       <c r="B232" s="22">
         <v>223</v>
       </c>
       <c r="C232" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D232" s="14">
         <f t="shared" si="12"/>
@@ -6202,17 +6200,17 @@
       </c>
       <c r="F232" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G232" s="37"/>
     </row>
-    <row r="233" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:7" s="22" customFormat="1">
       <c r="B233" s="22">
         <v>224</v>
       </c>
       <c r="C233" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D233" s="14">
         <f t="shared" si="12"/>
@@ -6224,17 +6222,17 @@
       </c>
       <c r="F233" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G233" s="37"/>
     </row>
-    <row r="234" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:7" s="22" customFormat="1">
       <c r="B234" s="22">
         <v>225</v>
       </c>
       <c r="C234" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D234" s="14">
         <f t="shared" si="12"/>
@@ -6246,17 +6244,17 @@
       </c>
       <c r="F234" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G234" s="37"/>
     </row>
-    <row r="235" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:7" s="22" customFormat="1">
       <c r="B235" s="22">
         <v>226</v>
       </c>
       <c r="C235" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D235" s="14">
         <f t="shared" si="12"/>
@@ -6268,17 +6266,17 @@
       </c>
       <c r="F235" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G235" s="37"/>
     </row>
-    <row r="236" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:7" s="22" customFormat="1">
       <c r="B236" s="22">
         <v>227</v>
       </c>
       <c r="C236" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D236" s="14">
         <f t="shared" si="12"/>
@@ -6290,17 +6288,17 @@
       </c>
       <c r="F236" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G236" s="37"/>
     </row>
-    <row r="237" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:7" s="22" customFormat="1">
       <c r="B237" s="22">
         <v>228</v>
       </c>
       <c r="C237" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D237" s="14">
         <f t="shared" si="12"/>
@@ -6312,17 +6310,17 @@
       </c>
       <c r="F237" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G237" s="37"/>
     </row>
-    <row r="238" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:7" s="22" customFormat="1">
       <c r="B238" s="22">
         <v>229</v>
       </c>
       <c r="C238" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D238" s="14">
         <f t="shared" si="12"/>
@@ -6334,17 +6332,17 @@
       </c>
       <c r="F238" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G238" s="37"/>
     </row>
-    <row r="239" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:7" s="22" customFormat="1">
       <c r="B239" s="22">
         <v>230</v>
       </c>
       <c r="C239" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D239" s="14">
         <f t="shared" si="12"/>
@@ -6356,17 +6354,17 @@
       </c>
       <c r="F239" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G239" s="37"/>
     </row>
-    <row r="240" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:7" s="22" customFormat="1">
       <c r="B240" s="22">
         <v>231</v>
       </c>
       <c r="C240" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D240" s="14">
         <f t="shared" si="12"/>
@@ -6378,17 +6376,17 @@
       </c>
       <c r="F240" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G240" s="37"/>
     </row>
-    <row r="241" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:7" s="22" customFormat="1">
       <c r="B241" s="22">
         <v>232</v>
       </c>
       <c r="C241" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D241" s="14">
         <f t="shared" si="12"/>
@@ -6400,17 +6398,17 @@
       </c>
       <c r="F241" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G241" s="37"/>
     </row>
-    <row r="242" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="2:7" s="22" customFormat="1">
       <c r="B242" s="22">
         <v>233</v>
       </c>
       <c r="C242" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D242" s="14">
         <f t="shared" si="12"/>
@@ -6422,17 +6420,17 @@
       </c>
       <c r="F242" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G242" s="37"/>
     </row>
-    <row r="243" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="2:7" s="22" customFormat="1">
       <c r="B243" s="22">
         <v>234</v>
       </c>
       <c r="C243" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D243" s="14">
         <f t="shared" si="12"/>
@@ -6444,17 +6442,17 @@
       </c>
       <c r="F243" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G243" s="37"/>
     </row>
-    <row r="244" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="2:7" s="22" customFormat="1">
       <c r="B244" s="22">
         <v>235</v>
       </c>
       <c r="C244" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D244" s="14">
         <f t="shared" si="12"/>
@@ -6466,17 +6464,17 @@
       </c>
       <c r="F244" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G244" s="37"/>
     </row>
-    <row r="245" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="2:7" s="22" customFormat="1">
       <c r="B245" s="22">
         <v>236</v>
       </c>
       <c r="C245" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D245" s="14">
         <f t="shared" si="12"/>
@@ -6488,17 +6486,17 @@
       </c>
       <c r="F245" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G245" s="37"/>
     </row>
-    <row r="246" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="2:7" s="22" customFormat="1">
       <c r="B246" s="22">
         <v>237</v>
       </c>
       <c r="C246" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D246" s="14">
         <f t="shared" si="12"/>
@@ -6510,17 +6508,17 @@
       </c>
       <c r="F246" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G246" s="37"/>
     </row>
-    <row r="247" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="2:7" s="22" customFormat="1">
       <c r="B247" s="22">
         <v>238</v>
       </c>
       <c r="C247" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D247" s="14">
         <f t="shared" si="12"/>
@@ -6532,17 +6530,17 @@
       </c>
       <c r="F247" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G247" s="37"/>
     </row>
-    <row r="248" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="2:7" s="22" customFormat="1">
       <c r="B248" s="22">
         <v>239</v>
       </c>
       <c r="C248" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D248" s="14">
         <f t="shared" si="12"/>
@@ -6554,17 +6552,17 @@
       </c>
       <c r="F248" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G248" s="37"/>
     </row>
-    <row r="249" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="2:7" s="22" customFormat="1">
       <c r="B249" s="22">
         <v>240</v>
       </c>
       <c r="C249" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D249" s="14">
         <f t="shared" si="12"/>
@@ -6576,17 +6574,17 @@
       </c>
       <c r="F249" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G249" s="37"/>
     </row>
-    <row r="250" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="2:7" s="22" customFormat="1">
       <c r="B250" s="22">
         <v>241</v>
       </c>
       <c r="C250" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D250" s="14">
         <f t="shared" si="12"/>
@@ -6598,17 +6596,17 @@
       </c>
       <c r="F250" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G250" s="37"/>
     </row>
-    <row r="251" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="2:7" s="22" customFormat="1">
       <c r="B251" s="22">
         <v>242</v>
       </c>
       <c r="C251" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D251" s="14">
         <f t="shared" si="12"/>
@@ -6620,17 +6618,17 @@
       </c>
       <c r="F251" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G251" s="37"/>
     </row>
-    <row r="252" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="2:7" s="22" customFormat="1">
       <c r="B252" s="22">
         <v>243</v>
       </c>
       <c r="C252" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D252" s="14">
         <f t="shared" si="12"/>
@@ -6642,17 +6640,17 @@
       </c>
       <c r="F252" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G252" s="37"/>
     </row>
-    <row r="253" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="2:7" s="22" customFormat="1">
       <c r="B253" s="22">
         <v>244</v>
       </c>
       <c r="C253" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D253" s="14">
         <f t="shared" si="12"/>
@@ -6664,17 +6662,17 @@
       </c>
       <c r="F253" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G253" s="37"/>
     </row>
-    <row r="254" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="2:7" s="22" customFormat="1">
       <c r="B254" s="22">
         <v>245</v>
       </c>
       <c r="C254" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D254" s="14">
         <f t="shared" si="12"/>
@@ -6686,17 +6684,17 @@
       </c>
       <c r="F254" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G254" s="37"/>
     </row>
-    <row r="255" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="2:7" s="22" customFormat="1">
       <c r="B255" s="22">
         <v>246</v>
       </c>
       <c r="C255" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D255" s="14">
         <f t="shared" si="12"/>
@@ -6708,17 +6706,17 @@
       </c>
       <c r="F255" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G255" s="37"/>
     </row>
-    <row r="256" spans="2:7" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="2:7" s="22" customFormat="1">
       <c r="B256" s="22">
         <v>247</v>
       </c>
       <c r="C256" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D256" s="14">
         <f t="shared" si="12"/>
@@ -6730,17 +6728,17 @@
       </c>
       <c r="F256" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G256" s="37"/>
     </row>
-    <row r="257" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="2:9" s="22" customFormat="1">
       <c r="B257" s="22">
         <v>248</v>
       </c>
       <c r="C257" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D257" s="14">
         <f t="shared" si="12"/>
@@ -6752,17 +6750,17 @@
       </c>
       <c r="F257" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G257" s="37"/>
     </row>
-    <row r="258" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="2:9" s="22" customFormat="1">
       <c r="B258" s="22">
         <v>249</v>
       </c>
       <c r="C258" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D258" s="14">
         <f t="shared" si="12"/>
@@ -6774,17 +6772,17 @@
       </c>
       <c r="F258" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G258" s="37"/>
     </row>
-    <row r="259" spans="2:9" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="2:9" s="22" customFormat="1">
       <c r="B259" s="22">
         <v>250</v>
       </c>
       <c r="C259" s="37">
         <f t="shared" si="15"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="D259" s="14">
         <f t="shared" si="12"/>
@@ -6796,11 +6794,11 @@
       </c>
       <c r="F259" s="37">
         <f t="shared" si="14"/>
-        <v>-5.5297277867794037E-10</v>
+        <v>-8.4764906205236912E-10</v>
       </c>
       <c r="G259" s="37"/>
     </row>
-    <row r="260" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="260" spans="2:9">
       <c r="C260" s="37"/>
       <c r="D260" s="14"/>
       <c r="E260" s="14"/>
@@ -6814,14 +6812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="17.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
@@ -6832,7 +6830,7 @@
     <col min="7" max="7" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" customHeight="1">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -6858,35 +6856,35 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="12.75" customHeight="1">
       <c r="A2" s="47"/>
       <c r="B2" s="47" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="53">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" s="51">
         <f>C5</f>
-        <v>1000000.00000001</v>
+        <v>1000000</v>
       </c>
       <c r="G2" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" ref="G2:G25" si="0">(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
+        <v>14059.544397898037</v>
       </c>
       <c r="H2" s="41">
-        <f t="shared" ref="H2:H25" si="0">G2-I2</f>
-        <v>37256.981965346415</v>
+        <f t="shared" ref="H2:H25" si="1">G2-I2</f>
+        <v>4476.2110645647026</v>
       </c>
       <c r="I2" s="41">
-        <f>F2*$C$7</f>
-        <v>9583.3333333334303</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" ref="I2:I25" si="2">F2*$C$7</f>
+        <v>9583.3333333333339</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="12.75" customHeight="1">
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -6897,23 +6895,23 @@
         <v>2</v>
       </c>
       <c r="F3" s="41">
-        <f t="shared" ref="F3:F25" si="1">F2-H2</f>
-        <v>962743.01803466363</v>
+        <f t="shared" ref="F3:F25" si="3">F2-H2</f>
+        <v>995523.78893543535</v>
       </c>
       <c r="G3" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H3" s="41">
-        <f t="shared" si="0"/>
-        <v>37614.028042514314</v>
+        <f t="shared" si="1"/>
+        <v>4519.1080872667808</v>
       </c>
       <c r="I3" s="41">
-        <f>F3*$C$7</f>
-        <v>9226.2872561655277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9540.4363106312558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="12.75" customHeight="1">
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -6924,51 +6922,51 @@
         <v>3</v>
       </c>
       <c r="F4" s="41">
-        <f t="shared" si="1"/>
-        <v>925128.98999214929</v>
+        <f t="shared" si="3"/>
+        <v>991004.68084816856</v>
       </c>
       <c r="G4" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H4" s="41">
-        <f t="shared" si="0"/>
-        <v>37974.495811255081</v>
+        <f t="shared" si="1"/>
+        <v>4562.4162064364209</v>
       </c>
       <c r="I4" s="41">
-        <f>F4*$C$7</f>
-        <v>8865.8194874247656</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9497.1281914616156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="12.75" customHeight="1">
       <c r="A5" s="49"/>
       <c r="B5" s="49" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="50">
-        <v>1000000.00000001</v>
+        <v>1000000</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
       <c r="F5" s="41">
-        <f t="shared" si="1"/>
-        <v>887154.49418089422</v>
+        <f t="shared" si="3"/>
+        <v>986442.26464173209</v>
       </c>
       <c r="G5" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H5" s="41">
-        <f t="shared" si="0"/>
-        <v>38338.418062779609</v>
+        <f t="shared" si="1"/>
+        <v>4606.1393617481026</v>
       </c>
       <c r="I5" s="41">
-        <f>F5*$C$7</f>
-        <v>8501.8972359002364</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9453.4050361499339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="12.75" customHeight="1">
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -6979,23 +6977,23 @@
         <v>5</v>
       </c>
       <c r="F6" s="41">
-        <f t="shared" si="1"/>
-        <v>848816.07611811464</v>
+        <f t="shared" si="3"/>
+        <v>981836.12527998397</v>
       </c>
       <c r="G6" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H6" s="41">
-        <f t="shared" si="0"/>
-        <v>38705.827902547913</v>
+        <f t="shared" si="1"/>
+        <v>4650.2815306315224</v>
       </c>
       <c r="I6" s="41">
-        <f>F6*$C$7</f>
-        <v>8134.4873961319327</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9409.2628672665141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="12.75" customHeight="1">
       <c r="A7" s="46" t="s">
         <v>18</v>
       </c>
@@ -7008,109 +7006,109 @@
         <v>6</v>
       </c>
       <c r="F7" s="41">
-        <f t="shared" si="1"/>
-        <v>810110.24821556674</v>
+        <f t="shared" si="3"/>
+        <v>977185.8437493525</v>
       </c>
       <c r="G7" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H7" s="41">
-        <f t="shared" si="0"/>
-        <v>39076.758753280665</v>
+        <f t="shared" si="1"/>
+        <v>4694.8467286334071</v>
       </c>
       <c r="I7" s="41">
-        <f>F7*$C$7</f>
-        <v>7763.5565453991821</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9364.6976692646294</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12.75" customHeight="1">
       <c r="E8">
         <v>7</v>
       </c>
       <c r="F8" s="41">
-        <f t="shared" si="1"/>
-        <v>771033.48946228612</v>
+        <f t="shared" si="3"/>
+        <v>972490.99702071911</v>
       </c>
       <c r="G8" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H8" s="41">
-        <f t="shared" si="0"/>
-        <v>39451.244357999603</v>
+        <f t="shared" si="1"/>
+        <v>4739.8390097828105</v>
       </c>
       <c r="I8" s="41">
-        <f>F8*$C$7</f>
-        <v>7389.0709406802425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9319.705388115226</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="12.75" customHeight="1">
       <c r="E9">
         <v>8</v>
       </c>
       <c r="F9" s="41">
-        <f t="shared" si="1"/>
-        <v>731582.24510428647</v>
+        <f t="shared" si="3"/>
+        <v>967751.15801093634</v>
       </c>
       <c r="G9" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H9" s="41">
-        <f t="shared" si="0"/>
-        <v>39829.3187830971</v>
+        <f t="shared" si="1"/>
+        <v>4785.2624669598954</v>
       </c>
       <c r="I9" s="41">
-        <f>F9*$C$7</f>
-        <v>7010.9965155827458</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9274.2819309381412</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="12.75" customHeight="1">
       <c r="C10" s="15"/>
       <c r="E10">
         <v>9</v>
       </c>
       <c r="F10" s="41">
-        <f t="shared" si="1"/>
-        <v>691752.92632118938</v>
+        <f t="shared" si="3"/>
+        <v>962965.89554397645</v>
       </c>
       <c r="G10" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H10" s="41">
-        <f t="shared" si="0"/>
-        <v>40211.01642143511</v>
+        <f t="shared" si="1"/>
+        <v>4831.1212322682604</v>
       </c>
       <c r="I10" s="41">
-        <f>F10*$C$7</f>
-        <v>6629.2988772447325</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9228.4231656297761</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="C11" s="40"/>
       <c r="E11">
         <v>10</v>
       </c>
       <c r="F11" s="41">
-        <f t="shared" si="1"/>
-        <v>651541.90989975422</v>
+        <f t="shared" si="3"/>
+        <v>958134.77431170817</v>
       </c>
       <c r="G11" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H11" s="41">
-        <f t="shared" si="0"/>
-        <v>40596.371995473863</v>
+        <f t="shared" si="1"/>
+        <v>4877.4194774108328</v>
       </c>
       <c r="I11" s="41">
-        <f>F11*$C$7</f>
-        <v>6243.9433032059787</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9182.1249204872038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="12.75" customHeight="1">
       <c r="A12" s="54" t="s">
         <v>28</v>
       </c>
@@ -7120,23 +7118,23 @@
         <v>11</v>
       </c>
       <c r="F12" s="41">
-        <f t="shared" si="1"/>
-        <v>610945.53790428035</v>
+        <f t="shared" si="3"/>
+        <v>953257.35483429732</v>
       </c>
       <c r="G12" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H12" s="41">
-        <f t="shared" si="0"/>
-        <v>40985.420560430488</v>
+        <f t="shared" si="1"/>
+        <v>4924.1614140693528</v>
       </c>
       <c r="I12" s="41">
-        <f>F12*$C$7</f>
-        <v>5854.8947382493543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9135.3829838286838</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="12.75" customHeight="1">
       <c r="A13" s="54" t="s">
         <v>27</v>
       </c>
@@ -7146,23 +7144,23 @@
         <v>12</v>
       </c>
       <c r="F13" s="41">
-        <f t="shared" si="1"/>
-        <v>569960.11734384985</v>
+        <f t="shared" si="3"/>
+        <v>948333.19342022797</v>
       </c>
       <c r="G13" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H13" s="41">
-        <f t="shared" si="0"/>
-        <v>41378.19750746795</v>
+        <f t="shared" si="1"/>
+        <v>4971.3512942875168</v>
       </c>
       <c r="I13" s="41">
-        <f>F13*$C$7</f>
-        <v>5462.1177912118947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9088.1931036105198</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" customHeight="1">
       <c r="A14" s="54" t="s">
         <v>29</v>
       </c>
@@ -7172,499 +7170,499 @@
         <v>13</v>
       </c>
       <c r="F14" s="41">
-        <f t="shared" si="1"/>
-        <v>528581.91983638192</v>
+        <f t="shared" si="3"/>
+        <v>943361.84212594049</v>
       </c>
       <c r="G14" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H14" s="41">
-        <f t="shared" si="0"/>
-        <v>41774.738566914515</v>
+        <f t="shared" si="1"/>
+        <v>5018.9934108577727</v>
       </c>
       <c r="I14" s="41">
-        <f>F14*$C$7</f>
-        <v>5065.5767317653272</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>9040.5509870402639</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="C15" s="15"/>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15" s="41">
-        <f t="shared" si="1"/>
-        <v>486807.1812694674</v>
+        <f t="shared" si="3"/>
+        <v>938342.84871508274</v>
       </c>
       <c r="G15" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H15" s="41">
-        <f t="shared" si="0"/>
-        <v>42175.079811514115</v>
+        <f t="shared" si="1"/>
+        <v>5067.0920977118258</v>
       </c>
       <c r="I15" s="41">
-        <f>F15*$C$7</f>
-        <v>4665.2354871657299</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8992.4523001862108</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="C16" s="15"/>
       <c r="E16">
         <v>15</v>
       </c>
       <c r="F16" s="41">
-        <f t="shared" si="1"/>
-        <v>444632.10145795328</v>
+        <f t="shared" si="3"/>
+        <v>933275.75661737088</v>
       </c>
       <c r="G16" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H16" s="41">
-        <f t="shared" si="0"/>
-        <v>42579.257659707793</v>
+        <f t="shared" si="1"/>
+        <v>5115.6517303148976</v>
       </c>
       <c r="I16" s="41">
-        <f>F16*$C$7</f>
-        <v>4261.0576389720527</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8943.892667583139</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
       <c r="C17" s="15"/>
       <c r="E17">
         <v>16</v>
       </c>
       <c r="F17" s="41">
-        <f t="shared" si="1"/>
-        <v>402052.84379824548</v>
+        <f t="shared" si="3"/>
+        <v>928160.10488705593</v>
       </c>
       <c r="G17" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H17" s="41">
-        <f t="shared" si="0"/>
-        <v>42987.308878946656</v>
+        <f t="shared" si="1"/>
+        <v>5164.6767260637498</v>
       </c>
       <c r="I17" s="41">
-        <f>F17*$C$7</f>
-        <v>3853.0064197331862</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8894.8676718342867</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
       <c r="C18" s="15"/>
       <c r="E18">
         <v>17</v>
       </c>
       <c r="F18" s="41">
-        <f t="shared" si="1"/>
-        <v>359065.53491929884</v>
+        <f t="shared" si="3"/>
+        <v>922995.42816099222</v>
       </c>
       <c r="G18" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H18" s="41">
-        <f t="shared" si="0"/>
-        <v>43399.270589036561</v>
+        <f t="shared" si="1"/>
+        <v>5214.1715446885264</v>
       </c>
       <c r="I18" s="41">
-        <f>F18*$C$7</f>
-        <v>3441.0447096432808</v>
-      </c>
-    </row>
-    <row r="19" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8845.3728532095101</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
       <c r="C19" s="15"/>
       <c r="E19">
         <v>18</v>
       </c>
       <c r="F19" s="41">
-        <f t="shared" si="1"/>
-        <v>315666.26433026226</v>
+        <f t="shared" si="3"/>
+        <v>917781.2566163037</v>
       </c>
       <c r="G19" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H19" s="41">
-        <f t="shared" si="0"/>
-        <v>43815.180265514835</v>
+        <f t="shared" si="1"/>
+        <v>5264.1406886584591</v>
       </c>
       <c r="I19" s="41">
-        <f>F19*$C$7</f>
-        <v>3025.1350331650137</v>
-      </c>
-    </row>
-    <row r="20" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8795.4037092395774</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" s="15"/>
       <c r="E20">
         <v>19</v>
       </c>
       <c r="F20" s="41">
-        <f t="shared" si="1"/>
-        <v>271851.08406474744</v>
+        <f t="shared" si="3"/>
+        <v>912517.11592764524</v>
       </c>
       <c r="G20" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H20" s="41">
-        <f t="shared" si="0"/>
-        <v>44235.075743059351</v>
+        <f t="shared" si="1"/>
+        <v>5314.5887035914348</v>
       </c>
       <c r="I20" s="41">
-        <f>F20*$C$7</f>
-        <v>2605.2395556204965</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8744.9556943066018</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
       <c r="C21" s="15"/>
       <c r="E21">
         <v>20</v>
       </c>
       <c r="F21" s="41">
-        <f t="shared" si="1"/>
-        <v>227616.0083216881</v>
+        <f t="shared" si="3"/>
+        <v>907202.52722405386</v>
       </c>
       <c r="G21" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H21" s="41">
-        <f t="shared" si="0"/>
-        <v>44658.995218930337</v>
+        <f t="shared" si="1"/>
+        <v>5365.5201786675188</v>
       </c>
       <c r="I21" s="41">
-        <f>F21*$C$7</f>
-        <v>2181.320079749511</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8694.0242192305177</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
       <c r="C22" s="15"/>
       <c r="E22">
         <v>21</v>
       </c>
       <c r="F22" s="41">
-        <f t="shared" si="1"/>
-        <v>182957.01310275777</v>
+        <f t="shared" si="3"/>
+        <v>901837.00704538636</v>
       </c>
       <c r="G22" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H22" s="41">
-        <f t="shared" si="0"/>
-        <v>45086.977256445083</v>
+        <f t="shared" si="1"/>
+        <v>5416.9397470464155</v>
       </c>
       <c r="I22" s="41">
-        <f>F22*$C$7</f>
-        <v>1753.3380422347623</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8642.604650851621</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
       <c r="C23" s="15"/>
       <c r="E23">
         <v>22</v>
       </c>
       <c r="F23" s="41">
-        <f t="shared" si="1"/>
-        <v>137870.0358463127</v>
+        <f t="shared" si="3"/>
+        <v>896420.06729833991</v>
       </c>
       <c r="G23" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H23" s="41">
-        <f t="shared" si="0"/>
-        <v>45519.060788486015</v>
+        <f t="shared" si="1"/>
+        <v>5468.8520862889454</v>
       </c>
       <c r="I23" s="41">
-        <f>F23*$C$7</f>
-        <v>1321.2545101938301</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8590.6923116090911</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
       <c r="C24" s="15"/>
       <c r="E24">
         <v>23</v>
       </c>
       <c r="F24" s="41">
-        <f t="shared" si="1"/>
-        <v>92350.975057826698</v>
+        <f t="shared" si="3"/>
+        <v>890951.21521205094</v>
       </c>
       <c r="G24" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H24" s="41">
-        <f t="shared" si="0"/>
-        <v>45955.28512104234</v>
+        <f t="shared" si="1"/>
+        <v>5521.2619187825476</v>
       </c>
       <c r="I24" s="41">
-        <f>F24*$C$7</f>
-        <v>885.03017763750597</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8538.282479115489</v>
+      </c>
+    </row>
+    <row r="25" spans="3:9">
       <c r="C25" s="15"/>
       <c r="E25">
         <v>24</v>
       </c>
       <c r="F25" s="41">
-        <f t="shared" si="1"/>
-        <v>46395.689936784358</v>
+        <f t="shared" si="3"/>
+        <v>885429.95329326834</v>
       </c>
       <c r="G25" s="41">
-        <f>(($C$7*$C$5)*POWER((1+$C$7),$C$2))/(POWER((1+$C$7),$C$2) - 1)</f>
-        <v>46840.315298679845</v>
+        <f t="shared" si="0"/>
+        <v>14059.544397898037</v>
       </c>
       <c r="H25" s="41">
-        <f t="shared" si="0"/>
-        <v>46395.68993678566</v>
+        <f t="shared" si="1"/>
+        <v>5574.1740121708808</v>
       </c>
       <c r="I25" s="41">
-        <f>F25*$C$7</f>
-        <v>444.62536189418347</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="2"/>
+        <v>8485.3703857271557</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
       <c r="C26" s="15"/>
       <c r="F26" s="41"/>
       <c r="G26" s="41"/>
       <c r="H26" s="41"/>
       <c r="I26" s="41"/>
     </row>
-    <row r="27" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:9">
       <c r="C27" s="15"/>
       <c r="F27" s="41"/>
       <c r="G27" s="41"/>
       <c r="H27" s="41"/>
       <c r="I27" s="41"/>
     </row>
-    <row r="28" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:9">
       <c r="C28" s="15"/>
       <c r="F28" s="41"/>
       <c r="G28" s="41"/>
       <c r="H28" s="41"/>
       <c r="I28" s="41"/>
     </row>
-    <row r="29" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:9">
       <c r="C29" s="15"/>
     </row>
-    <row r="30" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:9">
       <c r="C30" s="15"/>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:9">
       <c r="C31" s="15"/>
     </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:9">
       <c r="C32" s="15"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="3:3">
       <c r="C33" s="15"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="3:3">
       <c r="C34" s="15"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="3:3">
       <c r="C35" s="15"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="3:3">
       <c r="C36" s="15"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="3:3">
       <c r="C37" s="15"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="3:3">
       <c r="C38" s="15"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="3:3">
       <c r="C39" s="15"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="3:3">
       <c r="C40" s="15"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="3:3">
       <c r="C41" s="15"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="3:3">
       <c r="C42" s="15"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="3:3">
       <c r="C43" s="15"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="3:3">
       <c r="C44" s="15"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="3:3">
       <c r="C45" s="15"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="3:3">
       <c r="C46" s="15"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="3:3">
       <c r="C47" s="15"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="3:3">
       <c r="C48" s="15"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:3">
       <c r="C49" s="15"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:3">
       <c r="C50" s="15"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:3">
       <c r="C51" s="15"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:3">
       <c r="C52" s="15"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:3">
       <c r="C53" s="15"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:3">
       <c r="C54" s="15"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:3">
       <c r="C55" s="15"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:3">
       <c r="C56" s="15"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:3">
       <c r="C57" s="15"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:3">
       <c r="C58" s="15"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:3">
       <c r="C59" s="15"/>
     </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:3">
       <c r="C60" s="15"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:3">
       <c r="C61" s="15"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:3">
       <c r="C62" s="15"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:3">
       <c r="C63" s="15"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:3">
       <c r="C64" s="15"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="3:3">
       <c r="C65" s="15"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="3:3">
       <c r="C66" s="15"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="3:3">
       <c r="C67" s="15"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="3:3">
       <c r="C68" s="15"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="3:3">
       <c r="C69" s="15"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="3:3">
       <c r="C70" s="15"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="3:3">
       <c r="C71" s="15"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="3:3">
       <c r="C72" s="15"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="3:3">
       <c r="C73" s="15"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="3:3">
       <c r="C74" s="15"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="3:3">
       <c r="C75" s="15"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="3:3">
       <c r="C76" s="15"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="3:3">
       <c r="C77" s="15"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="3:3">
       <c r="C78" s="15"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="3:3">
       <c r="C79" s="15"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="3:3">
       <c r="C80" s="15"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:3">
       <c r="C81" s="15"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:3">
       <c r="C82" s="15"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:3">
       <c r="C83" s="15"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:3">
       <c r="C84" s="15"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:3">
       <c r="C85" s="15"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:3">
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:3">
       <c r="C87" s="15"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:3">
       <c r="C88" s="15"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:3">
       <c r="C89" s="15"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:3">
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:3">
       <c r="C91" s="15"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:3">
       <c r="C92" s="15"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:3">
       <c r="C93" s="15"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:3">
       <c r="C94" s="15"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:3">
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:3">
       <c r="C96" s="15"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:3">
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:3">
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:3">
       <c r="C99" s="15"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:3">
       <c r="C100" s="15"/>
     </row>
   </sheetData>
@@ -7679,25 +7677,27 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
     <col min="3" max="3" width="37" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="12.75" customHeight="1">
       <c r="B1" s="20"/>
       <c r="C1" s="39"/>
       <c r="D1" s="34"/>
       <c r="E1" s="34"/>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" ht="12.75" customHeight="1">
       <c r="A2" s="43" t="s">
         <v>19</v>
       </c>
@@ -7707,27 +7707,26 @@
       <c r="E2" s="16"/>
       <c r="F2" s="36"/>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="12.75" customHeight="1">
       <c r="A3" s="18"/>
       <c r="B3" s="17"/>
       <c r="C3" s="26" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="19">
-        <v>0.11749999999999999</v>
+        <v>0.115</v>
       </c>
       <c r="E3" s="31"/>
       <c r="F3" s="36"/>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="12.75" customHeight="1">
       <c r="A4" s="7"/>
       <c r="B4" s="17"/>
       <c r="C4" s="28" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="4">
-        <f>20*12</f>
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="36"/>
@@ -7737,19 +7736,19 @@
       </c>
       <c r="K4" s="37"/>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="12.75" customHeight="1">
       <c r="A5" s="7"/>
       <c r="B5" s="17"/>
       <c r="C5" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="23">
-        <v>10000000</v>
+        <v>948333</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="36"/>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="12.75" customHeight="1">
       <c r="A6" s="7"/>
       <c r="B6" s="17"/>
       <c r="C6" s="28" t="s">
@@ -7759,7 +7758,7 @@
       <c r="E6" s="31"/>
       <c r="F6" s="36"/>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="12.75" customHeight="1">
       <c r="A7" s="7"/>
       <c r="B7" s="17"/>
       <c r="C7" s="28"/>
@@ -7767,7 +7766,7 @@
       <c r="E7" s="31"/>
       <c r="F7" s="36"/>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="12.75" customHeight="1">
       <c r="A8" s="7"/>
       <c r="B8" s="17"/>
       <c r="C8" s="28"/>
@@ -7775,7 +7774,7 @@
       <c r="E8" s="31"/>
       <c r="F8" s="36"/>
     </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="12.75" customHeight="1">
       <c r="A9" s="7"/>
       <c r="B9" s="21"/>
       <c r="C9" s="25"/>
@@ -7783,13 +7782,13 @@
       <c r="E9" s="35"/>
       <c r="F9" s="36"/>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="12.75" customHeight="1">
       <c r="B10" s="13"/>
       <c r="C10" s="38"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="25.5">
       <c r="A11" s="11" t="s">
         <v>24</v>
       </c>
@@ -7799,362 +7798,362 @@
       </c>
       <c r="D11" s="10">
         <f>'Test-ExcelFormula'!G2</f>
-        <v>97389.687442680457</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14059.541530340197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="B12" s="22"/>
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="B13" s="22"/>
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="B14" s="22"/>
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="B15" s="22"/>
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="B16" s="22"/>
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3">
       <c r="B17" s="22"/>
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3">
       <c r="B18" s="22"/>
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3">
       <c r="B19" s="22"/>
       <c r="C19" s="30"/>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3">
       <c r="B20" s="22"/>
       <c r="C20" s="30"/>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3">
       <c r="B21" s="22"/>
       <c r="C21" s="30"/>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3">
       <c r="B22" s="22"/>
       <c r="C22" s="30"/>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3">
       <c r="B23" s="22"/>
       <c r="C23" s="30"/>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:3">
       <c r="B24" s="22"/>
       <c r="C24" s="30"/>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:3">
       <c r="B25" s="22"/>
       <c r="C25" s="30"/>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:3">
       <c r="B26" s="22"/>
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:3">
       <c r="B27" s="22"/>
       <c r="C27" s="30"/>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:3">
       <c r="B28" s="22"/>
       <c r="C28" s="30"/>
     </row>
-    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:3">
       <c r="B29" s="22"/>
       <c r="C29" s="30"/>
     </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:3">
       <c r="B30" s="22"/>
       <c r="C30" s="30"/>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:3">
       <c r="B31" s="22"/>
       <c r="C31" s="30"/>
     </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:3">
       <c r="B32" s="22"/>
       <c r="C32" s="30"/>
     </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:3">
       <c r="B33" s="22"/>
       <c r="C33" s="30"/>
     </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:3">
       <c r="B34" s="22"/>
       <c r="C34" s="30"/>
     </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:3">
       <c r="B35" s="22"/>
       <c r="C35" s="30"/>
     </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:3">
       <c r="B36" s="22"/>
       <c r="C36" s="30"/>
     </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:3">
       <c r="B37" s="22"/>
       <c r="C37" s="30"/>
     </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:3">
       <c r="B38" s="22"/>
       <c r="C38" s="30"/>
     </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:3">
       <c r="B39" s="22"/>
       <c r="C39" s="30"/>
     </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:3">
       <c r="B40" s="22"/>
       <c r="C40" s="30"/>
     </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:3">
       <c r="B41" s="22"/>
       <c r="C41" s="30"/>
     </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:3">
       <c r="B42" s="22"/>
       <c r="C42" s="30"/>
     </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:3">
       <c r="B43" s="22"/>
       <c r="C43" s="30"/>
     </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:3">
       <c r="B44" s="22"/>
       <c r="C44" s="30"/>
     </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:3">
       <c r="B45" s="22"/>
       <c r="C45" s="30"/>
     </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:3">
       <c r="B46" s="22"/>
       <c r="C46" s="30"/>
     </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:3">
       <c r="B47" s="22"/>
       <c r="C47" s="30"/>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:3">
       <c r="B48" s="22"/>
       <c r="C48" s="30"/>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:3">
       <c r="B49" s="22"/>
       <c r="C49" s="30"/>
     </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:3">
       <c r="B50" s="22"/>
       <c r="C50" s="30"/>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:3">
       <c r="B51" s="22"/>
       <c r="C51" s="30"/>
     </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:3">
       <c r="B52" s="22"/>
       <c r="C52" s="30"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:3">
       <c r="B53" s="22"/>
       <c r="C53" s="30"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:3">
       <c r="B54" s="22"/>
       <c r="C54" s="30"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:3">
       <c r="B55" s="22"/>
       <c r="C55" s="30"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:3">
       <c r="B56" s="22"/>
       <c r="C56" s="30"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:3">
       <c r="B57" s="22"/>
       <c r="C57" s="30"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:3">
       <c r="B58" s="22"/>
       <c r="C58" s="30"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:3">
       <c r="B59" s="22"/>
       <c r="C59" s="30"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:3">
       <c r="B60" s="22"/>
       <c r="C60" s="30"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:3">
       <c r="B61" s="22"/>
       <c r="C61" s="30"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:3">
       <c r="B62" s="22"/>
       <c r="C62" s="30"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:3">
       <c r="B63" s="22"/>
       <c r="C63" s="30"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:3">
       <c r="B64" s="22"/>
       <c r="C64" s="30"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="22"/>
       <c r="C65" s="30"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:3">
       <c r="B66" s="22"/>
       <c r="C66" s="30"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="22"/>
       <c r="C67" s="30"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="22"/>
       <c r="C68" s="30"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="22"/>
       <c r="C69" s="30"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="22"/>
       <c r="C70" s="30"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="22"/>
       <c r="C71" s="30"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="22"/>
       <c r="C72" s="30"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="22"/>
       <c r="C73" s="30"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="22"/>
       <c r="C74" s="30"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="22"/>
       <c r="C75" s="30"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="22"/>
       <c r="C76" s="30"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="22"/>
       <c r="C77" s="30"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="22"/>
       <c r="C78" s="30"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="22"/>
       <c r="C79" s="30"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="22"/>
       <c r="C80" s="30"/>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:3">
       <c r="B81" s="22"/>
       <c r="C81" s="30"/>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:3">
       <c r="B82" s="22"/>
       <c r="C82" s="30"/>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:3">
       <c r="B83" s="22"/>
       <c r="C83" s="30"/>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:3">
       <c r="B84" s="22"/>
       <c r="C84" s="30"/>
     </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:3">
       <c r="B85" s="22"/>
       <c r="C85" s="30"/>
     </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:3">
       <c r="B86" s="22"/>
       <c r="C86" s="30"/>
     </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:3">
       <c r="B87" s="22"/>
       <c r="C87" s="30"/>
     </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:3">
       <c r="B88" s="22"/>
       <c r="C88" s="30"/>
     </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:3">
       <c r="B89" s="22"/>
       <c r="C89" s="30"/>
     </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:3">
       <c r="B90" s="22"/>
       <c r="C90" s="30"/>
     </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:3">
       <c r="B91" s="22"/>
       <c r="C91" s="30"/>
     </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:3">
       <c r="B92" s="22"/>
       <c r="C92" s="30"/>
     </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:3">
       <c r="B93" s="22"/>
       <c r="C93" s="30"/>
     </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:3">
       <c r="B94" s="22"/>
       <c r="C94" s="30"/>
     </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:3">
       <c r="B95" s="22"/>
       <c r="C95" s="30"/>
     </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:3">
       <c r="B96" s="22"/>
       <c r="C96" s="30"/>
     </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:3">
       <c r="B97" s="22"/>
       <c r="C97" s="30"/>
     </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:3">
       <c r="B98" s="22"/>
       <c r="C98" s="30"/>
     </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:3">
       <c r="B99" s="22"/>
       <c r="C99" s="30"/>
     </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:3">
       <c r="B100" s="22"/>
       <c r="C100" s="30"/>
     </row>

--- a/EMIExpert/Home+Loan+EMI+Calculations+Personal.xlsx
+++ b/EMIExpert/Home+Loan+EMI+Calculations+Personal.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="13110" windowHeight="8625"/>
+    <workbookView visibility="veryHidden" xWindow="0" yWindow="0" windowWidth="10635" windowHeight="8625"/>
   </bookViews>
   <sheets>
     <sheet name="Test-ExcelFormula" sheetId="2" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Inputs" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1:G23"/>
+  <oleSize ref="A1:F23"/>
 </workbook>
 </file>
 
@@ -638,7 +638,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -768,6 +768,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1070,9 +1071,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="9" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="9" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -1094,7 +1095,7 @@
       </c>
       <c r="B1" s="37">
         <f>B7+B6</f>
-        <v>1532490.026807081</v>
+        <v>1687145.3277477634</v>
       </c>
       <c r="C1" s="37"/>
       <c r="D1" s="1"/>
@@ -1117,7 +1118,7 @@
       </c>
       <c r="G2" s="6">
         <f>B5</f>
-        <v>14059.541530340197</v>
+        <v>14059.544397898038</v>
       </c>
       <c r="H2" s="12"/>
     </row>
@@ -1126,7 +1127,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="22">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C3" s="37"/>
       <c r="D3" s="1"/>
@@ -1140,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="B4" s="37">
-        <v>948333</v>
+        <v>1000000</v>
       </c>
       <c r="C4" s="37"/>
       <c r="D4" s="1"/>
@@ -1154,7 +1155,7 @@
       </c>
       <c r="B5" s="40">
         <f>D10+E10</f>
-        <v>14059.541530340197</v>
+        <v>14059.544397898038</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="1"/>
@@ -1168,8 +1169,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="37">
-        <f>SUM(D9:D259)</f>
-        <v>948333.00000000035</v>
+        <v>1000000</v>
       </c>
       <c r="C6" s="37"/>
       <c r="D6" s="1"/>
@@ -1184,7 +1184,7 @@
       </c>
       <c r="B7" s="37">
         <f>SUM(E10:E260)</f>
-        <v>584157.02680708061</v>
+        <v>687145.32774776337</v>
       </c>
       <c r="C7" s="37"/>
       <c r="D7" s="1"/>
@@ -1197,10 +1197,7 @@
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="37">
-        <f>75000*4</f>
-        <v>300000</v>
-      </c>
+      <c r="B8" s="55"/>
       <c r="C8" s="37"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -1233,19 +1230,19 @@
       </c>
       <c r="C10" s="37">
         <f>B4</f>
-        <v>948333</v>
+        <v>1000000</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" ref="D10:D73" si="0">IF(ISERROR(PPMT(($B$2/12),$B10,$B$3,-$B$4)),0,PPMT(($B$2/12),$B10,$B$3,-$B$4))</f>
-        <v>4971.3502803401952</v>
+        <v>4476.2110645647044</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" ref="E10:E73" si="1">IF(ISERROR(IPMT(($B$2/12),$B10,$B$3,-$B$4)),0,IPMT(($B$2/12),$B10,$B$3,-$B$4))</f>
-        <v>9088.1912500000017</v>
+        <v>9583.3333333333339</v>
       </c>
       <c r="F10" s="37">
         <f t="shared" ref="F10:F73" si="2">C10-D10</f>
-        <v>943361.64971965982</v>
+        <v>995523.78893543524</v>
       </c>
       <c r="G10" s="37"/>
       <c r="H10" s="9"/>
@@ -1256,19 +1253,19 @@
       </c>
       <c r="C11" s="37">
         <f t="shared" ref="C11:C74" si="3">C10-D10</f>
-        <v>943361.64971965982</v>
+        <v>995523.78893543524</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" si="0"/>
-        <v>5018.9923871934552</v>
+        <v>4519.1080872667826</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" si="1"/>
-        <v>9040.5491431467417</v>
+        <v>9540.4363106312558</v>
       </c>
       <c r="F11" s="37">
         <f t="shared" si="2"/>
-        <v>938342.65733246633</v>
+        <v>991004.68084816844</v>
       </c>
       <c r="G11" s="37"/>
       <c r="H11" s="9"/>
@@ -1279,19 +1276,19 @@
       </c>
       <c r="C12" s="37">
         <f t="shared" si="3"/>
-        <v>938342.65733246633</v>
+        <v>991004.68084816844</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" si="0"/>
-        <v>5067.0910642373929</v>
+        <v>4562.4162064364227</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="1"/>
-        <v>8992.4504661028041</v>
+        <v>9497.1281914616156</v>
       </c>
       <c r="F12" s="37">
         <f t="shared" si="2"/>
-        <v>933275.56626822893</v>
+        <v>986442.26464173198</v>
       </c>
       <c r="G12" s="37"/>
       <c r="H12" s="9"/>
@@ -1302,19 +1299,19 @@
       </c>
       <c r="C13" s="37">
         <f t="shared" si="3"/>
-        <v>933275.56626822893</v>
+        <v>986442.26464173198</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" si="0"/>
-        <v>5115.6506869363348</v>
+        <v>4606.1393617481044</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="1"/>
-        <v>8943.8908434038622</v>
+        <v>9453.4050361499339</v>
       </c>
       <c r="F13" s="37">
         <f t="shared" si="2"/>
-        <v>928159.91558129259</v>
+        <v>981836.12527998385</v>
       </c>
       <c r="G13" s="37"/>
       <c r="H13" s="9"/>
@@ -1325,19 +1322,19 @@
       </c>
       <c r="C14" s="37">
         <f t="shared" si="3"/>
-        <v>928159.91558129259</v>
+        <v>981836.12527998385</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" si="0"/>
-        <v>5164.6756726861404</v>
+        <v>4650.2815306315242</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="1"/>
-        <v>8894.8658576540565</v>
+        <v>9409.2628672665141</v>
       </c>
       <c r="F14" s="37">
         <f t="shared" si="2"/>
-        <v>922995.2399086064</v>
+        <v>977185.84374935238</v>
       </c>
       <c r="G14" s="37"/>
       <c r="H14" s="9"/>
@@ -1348,19 +1345,19 @@
       </c>
       <c r="C15" s="37">
         <f t="shared" si="3"/>
-        <v>922995.2399086064</v>
+        <v>977185.84374935238</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" si="0"/>
-        <v>5214.1704812160497</v>
+        <v>4694.8467286334107</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="1"/>
-        <v>8845.3710491241472</v>
+        <v>9364.6976692646276</v>
       </c>
       <c r="F15" s="37">
         <f t="shared" si="2"/>
-        <v>917781.06942739035</v>
+        <v>972490.99702071899</v>
       </c>
       <c r="G15" s="37"/>
       <c r="H15" s="9"/>
@@ -1371,19 +1368,19 @@
       </c>
       <c r="C16" s="37">
         <f t="shared" si="3"/>
-        <v>917781.06942739035</v>
+        <v>972490.99702071899</v>
       </c>
       <c r="D16" s="14">
         <f t="shared" si="0"/>
-        <v>5264.1396149943703</v>
+        <v>4739.8390097828142</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="1"/>
-        <v>8795.4019153458266</v>
+        <v>9319.7053881152242</v>
       </c>
       <c r="F16" s="37">
         <f t="shared" si="2"/>
-        <v>912516.92981239595</v>
+        <v>967751.15801093623</v>
       </c>
       <c r="G16" s="37"/>
       <c r="H16" s="9"/>
@@ -1394,19 +1391,19 @@
       </c>
       <c r="C17" s="37">
         <f t="shared" si="3"/>
-        <v>912516.92981239595</v>
+        <v>967751.15801093623</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" si="0"/>
-        <v>5314.5876196380668</v>
+        <v>4785.262466959899</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="1"/>
-        <v>8744.9539107021301</v>
+        <v>9274.2819309381393</v>
       </c>
       <c r="F17" s="37">
         <f t="shared" si="2"/>
-        <v>907202.34219275787</v>
+        <v>962965.89554397634</v>
       </c>
       <c r="G17" s="37"/>
       <c r="H17" s="9"/>
@@ -1417,19 +1414,19 @@
       </c>
       <c r="C18" s="37">
         <f t="shared" si="3"/>
-        <v>907202.34219275787</v>
+        <v>962965.89554397634</v>
       </c>
       <c r="D18" s="14">
         <f t="shared" si="0"/>
-        <v>5365.5190843262644</v>
+        <v>4831.1212322682622</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="1"/>
-        <v>8694.0224460139325</v>
+        <v>9228.4231656297761</v>
       </c>
       <c r="F18" s="37">
         <f t="shared" si="2"/>
-        <v>901836.82310843165</v>
+        <v>958134.77431170805</v>
       </c>
       <c r="G18" s="37"/>
       <c r="H18" s="9"/>
@@ -1440,19 +1437,19 @@
       </c>
       <c r="C19" s="37">
         <f t="shared" si="3"/>
-        <v>901836.82310843165</v>
+        <v>958134.77431170805</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" si="0"/>
-        <v>5416.9386422177249</v>
+        <v>4877.4194774108328</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="1"/>
-        <v>8642.602888122472</v>
+        <v>9182.1249204872056</v>
       </c>
       <c r="F19" s="37">
         <f t="shared" si="2"/>
-        <v>896419.88446621387</v>
+        <v>953257.35483429721</v>
       </c>
       <c r="G19" s="37"/>
       <c r="H19" s="9"/>
@@ -1463,19 +1460,19 @@
       </c>
       <c r="C20" s="37">
         <f t="shared" si="3"/>
-        <v>896419.88446621387</v>
+        <v>953257.35483429721</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" si="0"/>
-        <v>5468.8509708723104</v>
+        <v>4924.1614140693564</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" si="1"/>
-        <v>8590.6905594678865</v>
+        <v>9135.382983828682</v>
       </c>
       <c r="F20" s="37">
         <f t="shared" si="2"/>
-        <v>890951.03349534154</v>
+        <v>948333.19342022785</v>
       </c>
       <c r="G20" s="37"/>
       <c r="H20" s="9"/>
@@ -1486,19 +1483,19 @@
       </c>
       <c r="C21" s="37">
         <f t="shared" si="3"/>
-        <v>890951.03349534154</v>
+        <v>948333.19342022785</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" si="0"/>
-        <v>5521.2607926765049</v>
+        <v>4971.3512942875186</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" si="1"/>
-        <v>8538.280737663692</v>
+        <v>9088.1931036105198</v>
       </c>
       <c r="F21" s="37">
         <f t="shared" si="2"/>
-        <v>885429.77270266507</v>
+        <v>943361.84212594037</v>
       </c>
       <c r="G21" s="37"/>
       <c r="H21" s="9"/>
@@ -1509,19 +1506,19 @@
       </c>
       <c r="C22" s="37">
         <f t="shared" si="3"/>
-        <v>885429.77270266507</v>
+        <v>943361.84212594037</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" si="0"/>
-        <v>5574.1728752729869</v>
+        <v>5018.9934108577745</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" si="1"/>
-        <v>8485.3686550672101</v>
+        <v>9040.5509870402639</v>
       </c>
       <c r="F22" s="37">
         <f t="shared" si="2"/>
-        <v>879855.59982739203</v>
+        <v>938342.84871508263</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="9"/>
@@ -1532,19 +1529,19 @@
       </c>
       <c r="C23" s="37">
         <f t="shared" si="3"/>
-        <v>879855.59982739203</v>
+        <v>938342.84871508263</v>
       </c>
       <c r="D23" s="14">
         <f t="shared" si="0"/>
-        <v>5627.5920319943543</v>
+        <v>5067.0920977118276</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" si="1"/>
-        <v>8431.9494983458426</v>
+        <v>8992.4523001862108</v>
       </c>
       <c r="F23" s="37">
         <f t="shared" si="2"/>
-        <v>874228.00779539766</v>
+        <v>933275.75661737076</v>
       </c>
       <c r="G23" s="37"/>
       <c r="H23" s="9"/>
@@ -1555,19 +1552,19 @@
       </c>
       <c r="C24" s="37">
         <f t="shared" si="3"/>
-        <v>874228.00779539766</v>
+        <v>933275.75661737076</v>
       </c>
       <c r="D24" s="14">
         <f t="shared" si="0"/>
-        <v>5681.523122300965</v>
+        <v>5115.6517303148994</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" si="1"/>
-        <v>8378.0184080392319</v>
+        <v>8943.892667583139</v>
       </c>
       <c r="F24" s="37">
         <f t="shared" si="2"/>
-        <v>868546.48467309668</v>
+        <v>928160.10488705582</v>
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="9"/>
@@ -1578,19 +1575,19 @@
       </c>
       <c r="C25" s="37">
         <f t="shared" si="3"/>
-        <v>868546.48467309668</v>
+        <v>928160.10488705582</v>
       </c>
       <c r="D25" s="14">
         <f t="shared" si="0"/>
-        <v>5735.971052223018</v>
+        <v>5164.6767260637516</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" si="1"/>
-        <v>8323.5704781171789</v>
+        <v>8894.8676718342867</v>
       </c>
       <c r="F25" s="37">
         <f t="shared" si="2"/>
-        <v>862810.51362087368</v>
+        <v>922995.4281609921</v>
       </c>
       <c r="G25" s="37"/>
       <c r="H25" s="9"/>
@@ -1601,19 +1598,19 @@
       </c>
       <c r="C26" s="37">
         <f t="shared" si="3"/>
-        <v>862810.51362087368</v>
+        <v>922995.4281609921</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" si="0"/>
-        <v>5790.9407748068224</v>
+        <v>5214.17154468853</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" si="1"/>
-        <v>8268.6007555333745</v>
+        <v>8845.3728532095083</v>
       </c>
       <c r="F26" s="37">
         <f t="shared" si="2"/>
-        <v>857019.57284606691</v>
+        <v>917781.25661630358</v>
       </c>
       <c r="G26" s="37"/>
       <c r="H26" s="9"/>
@@ -1624,19 +1621,19 @@
       </c>
       <c r="C27" s="37">
         <f t="shared" si="3"/>
-        <v>857019.57284606691</v>
+        <v>917781.25661630358</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" si="0"/>
-        <v>5846.4372905653854</v>
+        <v>5264.1406886584609</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" si="1"/>
-        <v>8213.1042397748115</v>
+        <v>8795.4037092395774</v>
       </c>
       <c r="F27" s="37">
         <f t="shared" si="2"/>
-        <v>851173.13555550156</v>
+        <v>912517.11592764512</v>
       </c>
       <c r="G27" s="37"/>
       <c r="H27" s="9"/>
@@ -1647,19 +1644,19 @@
       </c>
       <c r="C28" s="37">
         <f t="shared" si="3"/>
-        <v>851173.13555550156</v>
+        <v>912517.11592764512</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" si="0"/>
-        <v>5902.4656479333034</v>
+        <v>5314.5887035914402</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" si="1"/>
-        <v>8157.0758824068935</v>
+        <v>8744.9556943065982</v>
       </c>
       <c r="F28" s="37">
         <f t="shared" si="2"/>
-        <v>845270.66990756826</v>
+        <v>907202.52722405363</v>
       </c>
       <c r="G28" s="37"/>
       <c r="H28" s="9"/>
@@ -1670,19 +1667,19 @@
       </c>
       <c r="C29" s="37">
         <f t="shared" si="3"/>
-        <v>845270.66990756826</v>
+        <v>907202.52722405363</v>
       </c>
       <c r="D29" s="14">
         <f t="shared" si="0"/>
-        <v>5959.0309437259984</v>
+        <v>5365.5201786675207</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" si="1"/>
-        <v>8100.5105866141985</v>
+        <v>8694.0242192305177</v>
       </c>
       <c r="F29" s="37">
         <f t="shared" si="2"/>
-        <v>839311.6389638423</v>
+        <v>901837.00704538613</v>
       </c>
       <c r="G29" s="37"/>
       <c r="H29" s="9"/>
@@ -1693,19 +1690,19 @@
       </c>
       <c r="C30" s="37">
         <f t="shared" si="3"/>
-        <v>839311.6389638423</v>
+        <v>901837.00704538613</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" si="0"/>
-        <v>6016.1383236033716</v>
+        <v>5416.939747046421</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" si="1"/>
-        <v>8043.4032067368253</v>
+        <v>8642.6046508516174</v>
       </c>
       <c r="F30" s="37">
         <f t="shared" si="2"/>
-        <v>833295.50064023898</v>
+        <v>896420.06729833968</v>
       </c>
       <c r="G30" s="37"/>
       <c r="H30" s="9"/>
@@ -1716,19 +1713,19 @@
       </c>
       <c r="C31" s="37">
         <f t="shared" si="3"/>
-        <v>833295.50064023898</v>
+        <v>896420.06729833968</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" si="0"/>
-        <v>6073.7929825379051</v>
+        <v>5468.8520862889472</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" si="1"/>
-        <v>7985.7485478022918</v>
+        <v>8590.6923116090911</v>
       </c>
       <c r="F31" s="37">
         <f t="shared" si="2"/>
-        <v>827221.7076577011</v>
+        <v>890951.21521205071</v>
       </c>
       <c r="G31" s="37"/>
       <c r="H31" s="9"/>
@@ -1739,19 +1736,19 @@
       </c>
       <c r="C32" s="37">
         <f t="shared" si="3"/>
-        <v>827221.7076577011</v>
+        <v>890951.21521205071</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" si="0"/>
-        <v>6132.000165287227</v>
+        <v>5521.2619187825476</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" si="1"/>
-        <v>7927.5413650529699</v>
+        <v>8538.2824791154908</v>
       </c>
       <c r="F32" s="37">
         <f t="shared" si="2"/>
-        <v>821089.70749241393</v>
+        <v>885429.9532932681</v>
       </c>
       <c r="G32" s="37"/>
       <c r="H32" s="9"/>
@@ -1762,19 +1759,19 @@
       </c>
       <c r="C33" s="37">
         <f t="shared" si="3"/>
-        <v>821089.70749241393</v>
+        <v>885429.9532932681</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" si="0"/>
-        <v>6190.7651668712297</v>
+        <v>5574.1740121708826</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" si="1"/>
-        <v>7868.7763634689672</v>
+        <v>8485.3703857271557</v>
       </c>
       <c r="F33" s="37">
         <f t="shared" si="2"/>
-        <v>814898.94232554268</v>
+        <v>879855.77928109723</v>
       </c>
       <c r="G33" s="37"/>
       <c r="H33" s="9"/>
@@ -1785,19 +1782,19 @@
       </c>
       <c r="C34" s="37">
         <f t="shared" si="3"/>
-        <v>814898.94232554268</v>
+        <v>879855.77928109723</v>
       </c>
       <c r="D34" s="14">
         <f t="shared" si="0"/>
-        <v>6250.0933330537455</v>
+        <v>5627.5931797875182</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" si="1"/>
-        <v>7809.4481972864514</v>
+        <v>8431.9512181105201</v>
       </c>
       <c r="F34" s="37">
         <f t="shared" si="2"/>
-        <v>808648.84899248893</v>
+        <v>874228.18610130972</v>
       </c>
       <c r="G34" s="37"/>
       <c r="H34" s="9"/>
@@ -1808,19 +1805,19 @@
       </c>
       <c r="C35" s="37">
         <f t="shared" si="3"/>
-        <v>808648.84899248893</v>
+        <v>874228.18610130972</v>
       </c>
       <c r="D35" s="14">
         <f t="shared" si="0"/>
-        <v>6309.9900608288426</v>
+        <v>5681.524281093818</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" si="1"/>
-        <v>7749.5514695113543</v>
+        <v>8378.0201168042204</v>
       </c>
       <c r="F35" s="37">
         <f t="shared" si="2"/>
-        <v>802338.85893166007</v>
+        <v>868546.66182021587</v>
       </c>
       <c r="G35" s="37"/>
       <c r="H35" s="9"/>
@@ -1831,19 +1828,19 @@
       </c>
       <c r="C36" s="37">
         <f t="shared" si="3"/>
-        <v>802338.85893166007</v>
+        <v>868546.66182021587</v>
       </c>
       <c r="D36" s="14">
         <f t="shared" si="0"/>
-        <v>6370.4607989117867</v>
+        <v>5735.9722221209668</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" si="1"/>
-        <v>7689.0807314284102</v>
+        <v>8323.5721757770716</v>
       </c>
       <c r="F36" s="37">
         <f t="shared" si="2"/>
-        <v>795968.39813274832</v>
+        <v>862810.6895980949</v>
       </c>
       <c r="G36" s="37"/>
       <c r="H36" s="9"/>
@@ -1854,19 +1851,19 @@
       </c>
       <c r="C37" s="37">
         <f t="shared" si="3"/>
-        <v>795968.39813274832</v>
+        <v>862810.6895980949</v>
       </c>
       <c r="D37" s="14">
         <f t="shared" si="0"/>
-        <v>6431.5110482346918</v>
+        <v>5790.9419559162907</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" si="1"/>
-        <v>7628.0304821055051</v>
+        <v>8268.6024419817477</v>
       </c>
       <c r="F37" s="37">
         <f t="shared" si="2"/>
-        <v>789536.88708451367</v>
+        <v>857019.74764217867</v>
       </c>
       <c r="G37" s="37"/>
       <c r="H37" s="9"/>
@@ -1877,19 +1874,19 @@
       </c>
       <c r="C38" s="37">
         <f t="shared" si="3"/>
-        <v>789536.88708451367</v>
+        <v>857019.74764217867</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" si="0"/>
-        <v>6493.1463624469388</v>
+        <v>5846.4384829938226</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" si="1"/>
-        <v>7566.3951678932581</v>
+        <v>8213.1059149042158</v>
       </c>
       <c r="F38" s="37">
         <f t="shared" si="2"/>
-        <v>783043.74072206672</v>
+        <v>851173.30915918481</v>
       </c>
       <c r="G38" s="37"/>
       <c r="H38" s="9"/>
@@ -1900,19 +1897,19 @@
       </c>
       <c r="C39" s="37">
         <f t="shared" si="3"/>
-        <v>783043.74072206672</v>
+        <v>851173.30915918481</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" si="0"/>
-        <v>6555.3723484203892</v>
+        <v>5902.4668517891805</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" si="1"/>
-        <v>7504.1691819198077</v>
+        <v>8157.0775461088579</v>
       </c>
       <c r="F39" s="37">
         <f t="shared" si="2"/>
-        <v>776488.36837364628</v>
+        <v>845270.84230739565</v>
       </c>
       <c r="G39" s="37"/>
       <c r="H39" s="9"/>
@@ -1923,19 +1920,19 @@
       </c>
       <c r="C40" s="37">
         <f t="shared" si="3"/>
-        <v>776488.36837364628</v>
+        <v>845270.84230739565</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" si="0"/>
-        <v>6618.1946667594184</v>
+        <v>5959.0321591188258</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" si="1"/>
-        <v>7441.3468635807785</v>
+        <v>8100.5122387792126</v>
       </c>
       <c r="F40" s="37">
         <f t="shared" si="2"/>
-        <v>769870.17370688682</v>
+        <v>839311.81014827685</v>
       </c>
       <c r="G40" s="37"/>
       <c r="H40" s="9"/>
@@ -1946,19 +1943,19 @@
       </c>
       <c r="C41" s="37">
         <f t="shared" si="3"/>
-        <v>769870.17370688682</v>
+        <v>839311.81014827685</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" si="0"/>
-        <v>6681.6190323158617</v>
+        <v>6016.1395506437148</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" si="1"/>
-        <v>7377.9224980243353</v>
+        <v>8043.4048472543236</v>
       </c>
       <c r="F41" s="37">
         <f t="shared" si="2"/>
-        <v>763188.55467457091</v>
+        <v>833295.67059763311</v>
       </c>
       <c r="G41" s="37"/>
       <c r="H41" s="9"/>
@@ -1969,19 +1966,19 @@
       </c>
       <c r="C42" s="37">
         <f t="shared" si="3"/>
-        <v>763188.55467457091</v>
+        <v>833295.67059763311</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" si="0"/>
-        <v>6745.6512147088897</v>
+        <v>6073.7942213373844</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" si="1"/>
-        <v>7313.8903156313072</v>
+        <v>7985.7501765606539</v>
       </c>
       <c r="F42" s="37">
         <f t="shared" si="2"/>
-        <v>756442.90345986199</v>
+        <v>827221.8763762957</v>
       </c>
       <c r="G42" s="37"/>
       <c r="H42" s="9"/>
@@ -1992,19 +1989,19 @@
       </c>
       <c r="C43" s="37">
         <f t="shared" si="3"/>
-        <v>756442.90345986199</v>
+        <v>827221.8763762957</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" si="0"/>
-        <v>6810.2970388498497</v>
+        <v>6132.0014159585335</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" si="1"/>
-        <v>7249.2444914903472</v>
+        <v>7927.5429819395049</v>
       </c>
       <c r="F43" s="37">
         <f t="shared" si="2"/>
-        <v>749632.6064210122</v>
+        <v>821089.87496033718</v>
       </c>
       <c r="G43" s="37"/>
       <c r="H43" s="9"/>
@@ -2015,19 +2012,19 @@
       </c>
       <c r="C44" s="37">
         <f t="shared" si="3"/>
-        <v>749632.6064210122</v>
+        <v>821089.87496033718</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" si="0"/>
-        <v>6875.5623854721616</v>
+        <v>6190.7664295281375</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" si="1"/>
-        <v>7183.9791448680353</v>
+        <v>7868.7779683699009</v>
       </c>
       <c r="F44" s="37">
         <f t="shared" si="2"/>
-        <v>742757.04403554008</v>
+        <v>814899.10853080906</v>
       </c>
       <c r="G44" s="37"/>
       <c r="H44" s="9"/>
@@ -2038,19 +2035,19 @@
       </c>
       <c r="C45" s="37">
         <f t="shared" si="3"/>
-        <v>742757.04403554008</v>
+        <v>814899.10853080906</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" si="0"/>
-        <v>6941.4531916662681</v>
+        <v>6250.0946078111156</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" si="1"/>
-        <v>7118.0883386739288</v>
+        <v>7809.4497900869228</v>
       </c>
       <c r="F45" s="37">
         <f t="shared" si="2"/>
-        <v>735815.5908438738</v>
+        <v>808649.01392299798</v>
       </c>
       <c r="G45" s="37"/>
       <c r="H45" s="9"/>
@@ -2061,19 +2058,19 @@
       </c>
       <c r="C46" s="37">
         <f t="shared" si="3"/>
-        <v>735815.5908438738</v>
+        <v>808649.01392299798</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" si="0"/>
-        <v>7007.9754514197366</v>
+        <v>6309.9913478026383</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" si="1"/>
-        <v>7051.5660789204603</v>
+        <v>7749.5530500954001</v>
       </c>
       <c r="F46" s="37">
         <f t="shared" si="2"/>
-        <v>728807.61539245408</v>
+        <v>802339.0225751953</v>
       </c>
       <c r="G46" s="37"/>
       <c r="H46" s="9"/>
@@ -2084,19 +2081,19 @@
       </c>
       <c r="C47" s="37">
         <f t="shared" si="3"/>
-        <v>728807.61539245408</v>
+        <v>802339.0225751953</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" si="0"/>
-        <v>7075.1352161625091</v>
+        <v>6370.4620982190781</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" si="1"/>
-        <v>6984.4063141776878</v>
+        <v>7689.0822996789602</v>
       </c>
       <c r="F47" s="37">
         <f t="shared" si="2"/>
-        <v>721732.48017629154</v>
+        <v>795968.56047697621</v>
       </c>
       <c r="G47" s="37"/>
       <c r="H47" s="9"/>
@@ -2107,19 +2104,19 @@
       </c>
       <c r="C48" s="37">
         <f t="shared" si="3"/>
-        <v>721732.48017629154</v>
+        <v>795968.56047697621</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" si="0"/>
-        <v>7142.9385953173996</v>
+        <v>6431.5123599936815</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" si="1"/>
-        <v>6916.6029350227973</v>
+        <v>7628.0320379043569</v>
       </c>
       <c r="F48" s="37">
         <f t="shared" si="2"/>
-        <v>714589.54158097412</v>
+        <v>789537.04811698257</v>
       </c>
       <c r="G48" s="37"/>
       <c r="H48" s="9"/>
@@ -2130,19 +2127,19 @@
       </c>
       <c r="C49" s="37">
         <f t="shared" si="3"/>
-        <v>714589.54158097412</v>
+        <v>789537.04811698257</v>
       </c>
       <c r="D49" s="14">
         <f t="shared" si="0"/>
-        <v>7211.3917568558591</v>
+        <v>6493.1476867769534</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" si="1"/>
-        <v>6848.1497734843379</v>
+        <v>7566.396711121085</v>
       </c>
       <c r="F49" s="37">
         <f t="shared" si="2"/>
-        <v>707378.14982411824</v>
+        <v>783043.90043020563</v>
       </c>
       <c r="G49" s="37"/>
       <c r="H49" s="9"/>
@@ -2153,19 +2150,19 @@
       </c>
       <c r="C50" s="37">
         <f t="shared" si="3"/>
-        <v>707378.14982411824</v>
+        <v>783043.90043020563</v>
       </c>
       <c r="D50" s="14">
         <f t="shared" si="0"/>
-        <v>7280.5009278590605</v>
+        <v>6555.3736854418985</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="1"/>
-        <v>6779.0406024811364</v>
+        <v>7504.1707124561399</v>
       </c>
       <c r="F50" s="37">
         <f t="shared" si="2"/>
-        <v>700097.64889625914</v>
+        <v>776488.52674476372</v>
       </c>
       <c r="G50" s="37"/>
       <c r="H50" s="9"/>
@@ -2176,19 +2173,19 @@
       </c>
       <c r="C51" s="37">
         <f t="shared" si="3"/>
-        <v>700097.64889625914</v>
+        <v>776488.52674476372</v>
       </c>
       <c r="D51" s="14">
         <f t="shared" si="0"/>
-        <v>7350.2723950843774</v>
+        <v>6618.1960165940473</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="1"/>
-        <v>6709.2691352558195</v>
+        <v>7441.3483813039911</v>
       </c>
       <c r="F51" s="37">
         <f t="shared" si="2"/>
-        <v>692747.37650117476</v>
+        <v>769870.33072816965</v>
       </c>
       <c r="G51" s="37"/>
       <c r="H51" s="9"/>
@@ -2199,19 +2196,19 @@
       </c>
       <c r="C52" s="37">
         <f t="shared" si="3"/>
-        <v>692747.37650117476</v>
+        <v>769870.33072816965</v>
       </c>
       <c r="D52" s="14">
         <f t="shared" si="0"/>
-        <v>7420.712505537269</v>
+        <v>6681.6203950864092</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="1"/>
-        <v>6638.829024802928</v>
+        <v>7377.9240028116292</v>
       </c>
       <c r="F52" s="37">
         <f t="shared" si="2"/>
-        <v>685326.66399563744</v>
+        <v>763188.71033308329</v>
       </c>
       <c r="G52" s="37"/>
       <c r="H52" s="9"/>
@@ -2222,19 +2219,19 @@
       </c>
       <c r="C53" s="37">
         <f t="shared" si="3"/>
-        <v>685326.66399563744</v>
+        <v>763188.71033308329</v>
       </c>
       <c r="D53" s="14">
         <f t="shared" si="0"/>
-        <v>7491.8276670486684</v>
+        <v>6745.652590539321</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="1"/>
-        <v>6567.7138632915285</v>
+        <v>7313.8918073587174</v>
       </c>
       <c r="F53" s="37">
         <f t="shared" si="2"/>
-        <v>677834.83632858878</v>
+        <v>756443.05774254398</v>
       </c>
       <c r="G53" s="37"/>
       <c r="H53" s="9"/>
@@ -2245,19 +2242,19 @@
       </c>
       <c r="C54" s="37">
         <f t="shared" si="3"/>
-        <v>677834.83632858878</v>
+        <v>756443.05774254398</v>
       </c>
       <c r="D54" s="14">
         <f t="shared" si="0"/>
-        <v>7563.624348857883</v>
+        <v>6810.2984278653221</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="1"/>
-        <v>6495.9171814823139</v>
+        <v>7249.2459700327163</v>
       </c>
       <c r="F54" s="37">
         <f t="shared" si="2"/>
-        <v>670271.21197973087</v>
+        <v>749632.75931467861</v>
       </c>
       <c r="G54" s="37"/>
       <c r="H54" s="9"/>
@@ -2268,19 +2265,19 @@
       </c>
       <c r="C55" s="37">
         <f t="shared" si="3"/>
-        <v>670271.21197973087</v>
+        <v>749632.75931467861</v>
       </c>
       <c r="D55" s="14">
         <f t="shared" si="0"/>
-        <v>7636.1090822011056</v>
+        <v>6875.5637877990312</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="1"/>
-        <v>6423.4324481390913</v>
+        <v>7183.9806100990072</v>
       </c>
       <c r="F55" s="37">
         <f t="shared" si="2"/>
-        <v>662635.10289752972</v>
+        <v>742757.19552687963</v>
       </c>
       <c r="G55" s="37"/>
       <c r="H55" s="9"/>
@@ -2291,19 +2288,19 @@
       </c>
       <c r="C56" s="37">
         <f t="shared" si="3"/>
-        <v>662635.10289752972</v>
+        <v>742757.19552687963</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" si="0"/>
-        <v>7709.2884609055318</v>
+        <v>6941.4546074321061</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="1"/>
-        <v>6350.2530694346651</v>
+        <v>7118.0897904659323</v>
       </c>
       <c r="F56" s="37">
         <f t="shared" si="2"/>
-        <v>654925.81443662418</v>
+        <v>735815.7409194475</v>
       </c>
       <c r="G56" s="37"/>
       <c r="H56" s="9"/>
@@ -2314,19 +2311,19 @@
       </c>
       <c r="C57" s="37">
         <f t="shared" si="3"/>
-        <v>654925.81443662418</v>
+        <v>735815.7409194475</v>
       </c>
       <c r="D57" s="14">
         <f t="shared" si="0"/>
-        <v>7783.1691419892104</v>
+        <v>7007.9768807533292</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="1"/>
-        <v>6276.3723883509865</v>
+        <v>7051.5675171447092</v>
       </c>
       <c r="F57" s="37">
         <f t="shared" si="2"/>
-        <v>647142.64529463497</v>
+        <v>728807.76403869421</v>
       </c>
       <c r="G57" s="37"/>
       <c r="H57" s="9"/>
@@ -2337,19 +2334,19 @@
       </c>
       <c r="C58" s="37">
         <f t="shared" si="3"/>
-        <v>647142.64529463497</v>
+        <v>728807.76403869421</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="0"/>
-        <v>7857.7578462666052</v>
+        <v>7075.1366591938822</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="1"/>
-        <v>6201.7836840735918</v>
+        <v>6984.4077387041561</v>
       </c>
       <c r="F58" s="37">
         <f t="shared" si="2"/>
-        <v>639284.88744836836</v>
+        <v>721732.62737950031</v>
       </c>
       <c r="G58" s="37"/>
       <c r="H58" s="9"/>
@@ -2360,19 +2357,19 @@
       </c>
       <c r="C59" s="37">
         <f t="shared" si="3"/>
-        <v>639284.88744836836</v>
+        <v>721732.62737950031</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" si="0"/>
-        <v>7933.0613589599961</v>
+        <v>7142.9400521778243</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="1"/>
-        <v>6126.4801713802008</v>
+        <v>6916.604345720214</v>
       </c>
       <c r="F59" s="37">
         <f t="shared" si="2"/>
-        <v>631351.82608940837</v>
+        <v>714589.68732732243</v>
       </c>
       <c r="G59" s="37"/>
       <c r="H59" s="9"/>
@@ -2383,19 +2380,19 @@
       </c>
       <c r="C60" s="37">
         <f t="shared" si="3"/>
-        <v>631351.82608940837</v>
+        <v>714589.68732732243</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" si="0"/>
-        <v>8009.0865303166966</v>
+        <v>7211.3932276778614</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="1"/>
-        <v>6050.4550000235004</v>
+        <v>6848.1511702201769</v>
       </c>
       <c r="F60" s="37">
         <f t="shared" si="2"/>
-        <v>623342.73955909163</v>
+        <v>707378.29409964452</v>
       </c>
       <c r="G60" s="37"/>
       <c r="H60" s="9"/>
@@ -2406,19 +2403,19 @@
       </c>
       <c r="C61" s="37">
         <f t="shared" si="3"/>
-        <v>623342.73955909163</v>
+        <v>707378.29409964452</v>
       </c>
       <c r="D61" s="14">
         <f t="shared" si="0"/>
-        <v>8085.8402762322303</v>
+        <v>7280.50241277644</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="1"/>
-        <v>5973.7012541079666</v>
+        <v>6779.0419851215984</v>
       </c>
       <c r="F61" s="37">
         <f t="shared" si="2"/>
-        <v>615256.89928285941</v>
+        <v>700097.79168686806</v>
       </c>
       <c r="G61" s="37"/>
       <c r="H61" s="9"/>
@@ -2429,19 +2426,19 @@
       </c>
       <c r="C62" s="37">
         <f t="shared" si="3"/>
-        <v>615256.89928285941</v>
+        <v>700097.79168686806</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" si="0"/>
-        <v>8163.3295788794549</v>
+        <v>7350.2738942322139</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="1"/>
-        <v>5896.2119514607421</v>
+        <v>6709.2705036658244</v>
       </c>
       <c r="F62" s="37">
         <f t="shared" si="2"/>
-        <v>607093.56970398</v>
+        <v>692747.51779263583</v>
       </c>
       <c r="G62" s="37"/>
       <c r="H62" s="9"/>
@@ -2452,19 +2449,19 @@
       </c>
       <c r="C63" s="37">
         <f t="shared" si="3"/>
-        <v>607093.56970398</v>
+        <v>692747.51779263583</v>
       </c>
       <c r="D63" s="14">
         <f t="shared" si="0"/>
-        <v>8241.5614873437171</v>
+        <v>7420.7140190519394</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="1"/>
-        <v>5817.9800429964798</v>
+        <v>6638.8303788460989</v>
       </c>
       <c r="F63" s="37">
         <f t="shared" si="2"/>
-        <v>598852.00821663626</v>
+        <v>685326.80377358384</v>
       </c>
       <c r="G63" s="37"/>
       <c r="H63" s="9"/>
@@ -2475,19 +2472,19 @@
       </c>
       <c r="C64" s="37">
         <f t="shared" si="3"/>
-        <v>598852.00821663626</v>
+        <v>685326.80377358384</v>
       </c>
       <c r="D64" s="14">
         <f t="shared" si="0"/>
-        <v>8320.5431182640932</v>
+        <v>7491.829195067854</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="1"/>
-        <v>5738.9984120761028</v>
+        <v>6567.7152028301844</v>
       </c>
       <c r="F64" s="37">
         <f t="shared" si="2"/>
-        <v>590531.46509837219</v>
+        <v>677834.97457851598</v>
       </c>
       <c r="G64" s="37"/>
       <c r="H64" s="9"/>
@@ -2498,19 +2495,19 @@
       </c>
       <c r="C65" s="37">
         <f t="shared" si="3"/>
-        <v>590531.46509837219</v>
+        <v>677834.97457851598</v>
       </c>
       <c r="D65" s="14">
         <f t="shared" si="0"/>
-        <v>8400.2816564807908</v>
+        <v>7563.6258915205872</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="1"/>
-        <v>5659.2598738594061</v>
+        <v>6495.9185063774512</v>
       </c>
       <c r="F65" s="37">
         <f t="shared" si="2"/>
-        <v>582131.18344189145</v>
+        <v>670271.34868699533</v>
       </c>
       <c r="G65" s="37"/>
       <c r="H65" s="9"/>
@@ -2521,19 +2518,19 @@
       </c>
       <c r="C66" s="37">
         <f t="shared" si="3"/>
-        <v>582131.18344189145</v>
+        <v>670271.34868699533</v>
       </c>
       <c r="D66" s="14">
         <f t="shared" si="0"/>
-        <v>8480.7843556887328</v>
+        <v>7636.1106396476598</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="1"/>
-        <v>5578.7571746514641</v>
+        <v>6423.4337582503786</v>
       </c>
       <c r="F66" s="37">
         <f t="shared" si="2"/>
-        <v>573650.39908620273</v>
+        <v>662635.23804734764</v>
       </c>
       <c r="G66" s="37"/>
       <c r="H66" s="9"/>
@@ -2544,19 +2541,19 @@
       </c>
       <c r="C67" s="37">
         <f t="shared" si="3"/>
-        <v>573650.39908620273</v>
+        <v>662635.23804734764</v>
       </c>
       <c r="D67" s="14">
         <f t="shared" si="0"/>
-        <v>8562.0585390974193</v>
+        <v>7709.290033277618</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" si="1"/>
-        <v>5497.4829912427786</v>
+        <v>6350.2543646204203</v>
       </c>
       <c r="F67" s="37">
         <f t="shared" si="2"/>
-        <v>565088.3405471053</v>
+        <v>654925.94801407005</v>
       </c>
       <c r="G67" s="37"/>
       <c r="H67" s="9"/>
@@ -2567,19 +2564,19 @@
       </c>
       <c r="C68" s="37">
         <f t="shared" si="3"/>
-        <v>565088.3405471053</v>
+        <v>654925.94801407005</v>
       </c>
       <c r="D68" s="14">
         <f t="shared" si="0"/>
-        <v>8644.1116000971015</v>
+        <v>7783.1707294298621</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" si="1"/>
-        <v>5415.4299302430954</v>
+        <v>6276.3736684681762</v>
       </c>
       <c r="F68" s="37">
         <f t="shared" si="2"/>
-        <v>556444.22894700815</v>
+        <v>647142.77728464024</v>
       </c>
       <c r="G68" s="37"/>
       <c r="H68" s="9"/>
@@ -2590,19 +2587,19 @@
       </c>
       <c r="C69" s="37">
         <f t="shared" si="3"/>
-        <v>556444.22894700815</v>
+        <v>647142.77728464024</v>
       </c>
       <c r="D69" s="14">
         <f t="shared" si="0"/>
-        <v>8726.9510029313642</v>
+        <v>7857.7594489202302</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" si="1"/>
-        <v>5332.5905274088318</v>
+        <v>6201.7849489778082</v>
       </c>
       <c r="F69" s="37">
         <f t="shared" si="2"/>
-        <v>547717.27794407681</v>
+        <v>639285.01783571998</v>
       </c>
       <c r="G69" s="37"/>
       <c r="H69" s="9"/>
@@ -2613,19 +2610,19 @@
       </c>
       <c r="C70" s="37">
         <f t="shared" si="3"/>
-        <v>547717.27794407681</v>
+        <v>639285.01783571998</v>
       </c>
       <c r="D70" s="14">
         <f t="shared" si="0"/>
-        <v>8810.5842833761235</v>
+        <v>7933.0629769723837</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" si="1"/>
-        <v>5248.9572469640743</v>
+        <v>6126.4814209256547</v>
       </c>
       <c r="F70" s="37">
         <f t="shared" si="2"/>
-        <v>538906.69366070069</v>
+        <v>631351.95485874754</v>
       </c>
       <c r="G70" s="37"/>
       <c r="H70" s="9"/>
@@ -2636,19 +2633,19 @@
       </c>
       <c r="C71" s="37">
         <f t="shared" si="3"/>
-        <v>538906.69366070069</v>
+        <v>631351.95485874754</v>
       </c>
       <c r="D71" s="14">
         <f t="shared" si="0"/>
-        <v>8895.0190494251437</v>
+        <v>8009.0881638350338</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" si="1"/>
-        <v>5164.5224809150532</v>
+        <v>6050.4562340630046</v>
       </c>
       <c r="F71" s="37">
         <f t="shared" si="2"/>
-        <v>530011.67461127555</v>
+        <v>623342.86669491255</v>
       </c>
       <c r="G71" s="37"/>
       <c r="H71" s="9"/>
@@ -2659,19 +2656,19 @@
       </c>
       <c r="C72" s="37">
         <f t="shared" si="3"/>
-        <v>530011.67461127555</v>
+        <v>623342.86669491255</v>
       </c>
       <c r="D72" s="14">
         <f t="shared" si="0"/>
-        <v>8980.2629819821341</v>
+        <v>8085.8419254051196</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" si="1"/>
-        <v>5079.2785483580619</v>
+        <v>5973.7024724929188</v>
       </c>
       <c r="F72" s="37">
         <f t="shared" si="2"/>
-        <v>521031.4116292934</v>
+        <v>615257.02476950746</v>
       </c>
       <c r="G72" s="37"/>
       <c r="H72" s="9"/>
@@ -2682,19 +2679,19 @@
       </c>
       <c r="C73" s="37">
         <f t="shared" si="3"/>
-        <v>521031.4116292934</v>
+        <v>615257.02476950746</v>
       </c>
       <c r="D73" s="14">
         <f t="shared" si="0"/>
-        <v>9066.323835559464</v>
+        <v>8163.3312438569192</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" si="1"/>
-        <v>4993.2176947807329</v>
+        <v>5896.2131540411192</v>
       </c>
       <c r="F73" s="37">
         <f t="shared" si="2"/>
-        <v>511965.08779373392</v>
+        <v>607093.69352565054</v>
       </c>
       <c r="G73" s="37"/>
       <c r="H73" s="9"/>
@@ -2705,19 +2702,19 @@
       </c>
       <c r="C74" s="37">
         <f t="shared" si="3"/>
-        <v>511965.08779373392</v>
+        <v>607093.69352565054</v>
       </c>
       <c r="D74" s="14">
         <f t="shared" ref="D74:D137" si="4">IF(ISERROR(PPMT(($B$2/12),$B74,$B$3,-$B$4)),0,PPMT(($B$2/12),$B74,$B$3,-$B$4))</f>
-        <v>9153.2094389835729</v>
+        <v>8241.5631682772146</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" ref="E74:E137" si="5">IF(ISERROR(IPMT(($B$2/12),$B74,$B$3,-$B$4)),0,IPMT(($B$2/12),$B74,$B$3,-$B$4))</f>
-        <v>4906.332091356624</v>
+        <v>5817.9812296208247</v>
       </c>
       <c r="F74" s="37">
         <f t="shared" ref="F74:F137" si="6">C74-D74</f>
-        <v>502811.87835475034</v>
+        <v>598852.13035737327</v>
       </c>
       <c r="G74" s="37"/>
       <c r="H74" s="9"/>
@@ -2728,19 +2725,19 @@
       </c>
       <c r="C75" s="37">
         <f t="shared" ref="C75:C138" si="7">C74-D74</f>
-        <v>502811.87835475034</v>
+        <v>598852.13035737327</v>
       </c>
       <c r="D75" s="14">
         <f t="shared" si="4"/>
-        <v>9240.9276961071682</v>
+        <v>8320.5448153065372</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" si="5"/>
-        <v>4818.6138342330287</v>
+        <v>5738.9995825915012</v>
       </c>
       <c r="F75" s="37">
         <f t="shared" si="6"/>
-        <v>493570.95065864315</v>
+        <v>590531.58554206672</v>
       </c>
       <c r="G75" s="37"/>
       <c r="H75" s="9"/>
@@ -2751,19 +2748,19 @@
       </c>
       <c r="C76" s="37">
         <f t="shared" si="7"/>
-        <v>493570.95065864315</v>
+        <v>590531.58554206672</v>
       </c>
       <c r="D76" s="14">
         <f t="shared" si="4"/>
-        <v>9329.4865865281936</v>
+        <v>8400.2833697865572</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" si="5"/>
-        <v>4730.0549438120042</v>
+        <v>5659.2610281114803</v>
       </c>
       <c r="F76" s="37">
         <f t="shared" si="6"/>
-        <v>484241.46407211496</v>
+        <v>582131.30217228015</v>
       </c>
       <c r="G76" s="37"/>
       <c r="H76" s="9"/>
@@ -2774,19 +2771,19 @@
       </c>
       <c r="C77" s="37">
         <f t="shared" si="7"/>
-        <v>484241.46407211496</v>
+        <v>582131.30217228015</v>
       </c>
       <c r="D77" s="14">
         <f t="shared" si="4"/>
-        <v>9418.8941663157566</v>
+        <v>8480.7860854136798</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" si="5"/>
-        <v>4640.6473640244403</v>
+        <v>5578.7583124843586</v>
       </c>
       <c r="F77" s="37">
         <f t="shared" si="6"/>
-        <v>474822.56990579923</v>
+        <v>573650.5160868665</v>
       </c>
       <c r="G77" s="37"/>
       <c r="H77" s="9"/>
@@ -2797,19 +2794,19 @@
       </c>
       <c r="C78" s="37">
         <f t="shared" si="7"/>
-        <v>474822.56990579923</v>
+        <v>573650.5160868665</v>
       </c>
       <c r="D78" s="14">
         <f t="shared" si="4"/>
-        <v>9509.1585687429506</v>
+        <v>8562.0602853988948</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" si="5"/>
-        <v>4550.3829615972463</v>
+        <v>5497.4841124991435</v>
       </c>
       <c r="F78" s="37">
         <f t="shared" si="6"/>
-        <v>465313.41133705626</v>
+        <v>565088.45580146764</v>
       </c>
       <c r="G78" s="37"/>
       <c r="H78" s="9"/>
@@ -2820,19 +2817,19 @@
       </c>
       <c r="C79" s="37">
         <f t="shared" si="7"/>
-        <v>465313.41133705626</v>
+        <v>565088.45580146764</v>
       </c>
       <c r="D79" s="14">
         <f t="shared" si="4"/>
-        <v>9600.2880050267322</v>
+        <v>8644.1133631339653</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" si="5"/>
-        <v>4459.2535253134647</v>
+        <v>5415.4310347640721</v>
       </c>
       <c r="F79" s="37">
         <f t="shared" si="6"/>
-        <v>455713.1233320295</v>
+        <v>556444.34243833367</v>
       </c>
       <c r="G79" s="37"/>
       <c r="H79" s="9"/>
@@ -2843,19 +2840,19 @@
       </c>
       <c r="C80" s="37">
         <f t="shared" si="7"/>
-        <v>455713.1233320295</v>
+        <v>556444.34243833367</v>
       </c>
       <c r="D80" s="14">
         <f t="shared" si="4"/>
-        <v>9692.2907650749112</v>
+        <v>8726.9527828640021</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" si="5"/>
-        <v>4367.2507652652866</v>
+        <v>5332.5916150340363</v>
       </c>
       <c r="F80" s="37">
         <f t="shared" si="6"/>
-        <v>446020.8325669546</v>
+        <v>547717.38965546968</v>
       </c>
       <c r="G80" s="37"/>
       <c r="H80" s="9"/>
@@ -2866,19 +2863,19 @@
       </c>
       <c r="C81" s="37">
         <f t="shared" si="7"/>
-        <v>446020.8325669546</v>
+        <v>547717.38965546968</v>
       </c>
       <c r="D81" s="14">
         <f t="shared" si="4"/>
-        <v>9785.1752182402088</v>
+        <v>8810.5860803664491</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" si="5"/>
-        <v>4274.3663120999872</v>
+        <v>5248.9583175315893</v>
       </c>
       <c r="F81" s="37">
         <f t="shared" si="6"/>
-        <v>436235.65734871442</v>
+        <v>538906.80357510329</v>
       </c>
       <c r="G81" s="37"/>
     </row>
@@ -2888,19 +2885,19 @@
       </c>
       <c r="C82" s="37">
         <f t="shared" si="7"/>
-        <v>436235.65734871442</v>
+        <v>538906.80357510329</v>
       </c>
       <c r="D82" s="14">
         <f t="shared" si="4"/>
-        <v>9878.9498140816777</v>
+        <v>8895.020863636626</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" si="5"/>
-        <v>4180.5917162585192</v>
+        <v>5164.5235342614124</v>
       </c>
       <c r="F82" s="37">
         <f t="shared" si="6"/>
-        <v>426356.70753463276</v>
+        <v>530011.78271146666</v>
       </c>
       <c r="G82" s="37"/>
     </row>
@@ -2910,19 +2907,19 @@
       </c>
       <c r="C83" s="37">
         <f t="shared" si="7"/>
-        <v>426356.70753463276</v>
+        <v>530011.78271146666</v>
       </c>
       <c r="D83" s="14">
         <f t="shared" si="4"/>
-        <v>9973.6230831332905</v>
+        <v>8980.2648135798081</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" si="5"/>
-        <v>4085.9184472069055</v>
+        <v>5079.2795843182303</v>
       </c>
       <c r="F83" s="37">
         <f t="shared" si="6"/>
-        <v>416383.08445149945</v>
+        <v>521031.51789788686</v>
       </c>
       <c r="G83" s="37"/>
     </row>
@@ -2932,19 +2929,19 @@
       </c>
       <c r="C84" s="37">
         <f t="shared" si="7"/>
-        <v>416383.08445149945</v>
+        <v>521031.51789788686</v>
       </c>
       <c r="D84" s="14">
         <f t="shared" si="4"/>
-        <v>10069.20363767999</v>
+        <v>9066.325684709951</v>
       </c>
       <c r="E84" s="14">
         <f t="shared" si="5"/>
-        <v>3990.3378926602072</v>
+        <v>4993.2187131880883</v>
       </c>
       <c r="F84" s="37">
         <f t="shared" si="6"/>
-        <v>406313.88081381947</v>
+        <v>511965.19221317692</v>
       </c>
       <c r="G84" s="37"/>
     </row>
@@ -2954,19 +2951,19 @@
       </c>
       <c r="C85" s="37">
         <f t="shared" si="7"/>
-        <v>406313.88081381947</v>
+        <v>511965.19221317692</v>
       </c>
       <c r="D85" s="14">
         <f t="shared" si="4"/>
-        <v>10165.700172541088</v>
+        <v>9153.2113058550858</v>
       </c>
       <c r="E85" s="14">
         <f t="shared" si="5"/>
-        <v>3893.8413577991091</v>
+        <v>4906.3330920429535</v>
       </c>
       <c r="F85" s="37">
         <f t="shared" si="6"/>
-        <v>396148.18064127839</v>
+        <v>502811.98090732185</v>
       </c>
       <c r="G85" s="37"/>
     </row>
@@ -2976,19 +2973,19 @@
       </c>
       <c r="C86" s="37">
         <f t="shared" si="7"/>
-        <v>396148.18064127839</v>
+        <v>502811.98090732185</v>
       </c>
       <c r="D86" s="14">
         <f t="shared" si="4"/>
-        <v>10263.121465861273</v>
+        <v>9240.9295808695315</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" si="5"/>
-        <v>3796.420064478923</v>
+        <v>4818.6148170285069</v>
       </c>
       <c r="F86" s="37">
         <f t="shared" si="6"/>
-        <v>385885.05917541712</v>
+        <v>493571.05132645229</v>
       </c>
       <c r="G86" s="37"/>
     </row>
@@ -2998,19 +2995,19 @@
       </c>
       <c r="C87" s="37">
         <f t="shared" si="7"/>
-        <v>385885.05917541712</v>
+        <v>493571.05132645229</v>
       </c>
       <c r="D87" s="14">
         <f t="shared" si="4"/>
-        <v>10361.476379909109</v>
+        <v>9329.4884893528651</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" si="5"/>
-        <v>3698.0651504310872</v>
+        <v>4730.0559085451723</v>
       </c>
       <c r="F87" s="37">
         <f t="shared" si="6"/>
-        <v>375523.58279550803</v>
+        <v>484241.56283709942</v>
       </c>
       <c r="G87" s="37"/>
     </row>
@@ -3020,19 +3017,19 @@
       </c>
       <c r="C88" s="37">
         <f t="shared" si="7"/>
-        <v>375523.58279550803</v>
+        <v>484241.56283709942</v>
       </c>
       <c r="D88" s="14">
         <f t="shared" si="4"/>
-        <v>10460.773861883237</v>
+        <v>9418.8960873758297</v>
       </c>
       <c r="E88" s="14">
         <f t="shared" si="5"/>
-        <v>3598.7676684569606</v>
+        <v>4640.6483105222096</v>
       </c>
       <c r="F88" s="37">
         <f t="shared" si="6"/>
-        <v>365062.80893362476</v>
+        <v>474822.6667497236</v>
       </c>
       <c r="G88" s="37"/>
     </row>
@@ -3042,19 +3039,19 @@
       </c>
       <c r="C89" s="37">
         <f t="shared" si="7"/>
-        <v>365062.80893362476</v>
+        <v>474822.6667497236</v>
       </c>
       <c r="D89" s="14">
         <f t="shared" si="4"/>
-        <v>10561.022944726286</v>
+        <v>9509.1605082131791</v>
       </c>
       <c r="E89" s="14">
         <f t="shared" si="5"/>
-        <v>3498.518585613911</v>
+        <v>4550.3838896848592</v>
       </c>
       <c r="F89" s="37">
         <f t="shared" si="6"/>
-        <v>354501.78598889848</v>
+        <v>465313.50624151045</v>
       </c>
       <c r="G89" s="37"/>
     </row>
@@ -3064,19 +3061,19 @@
       </c>
       <c r="C90" s="37">
         <f t="shared" si="7"/>
-        <v>354501.78598889848</v>
+        <v>465313.50624151045</v>
       </c>
       <c r="D90" s="14">
         <f t="shared" si="4"/>
-        <v>10662.232747946578</v>
+        <v>9600.28996308356</v>
       </c>
       <c r="E90" s="14">
         <f t="shared" si="5"/>
-        <v>3397.3087823936175</v>
+        <v>4459.2544348144793</v>
       </c>
       <c r="F90" s="37">
         <f t="shared" si="6"/>
-        <v>343839.55324095191</v>
+        <v>455713.21627842687</v>
       </c>
       <c r="G90" s="37"/>
     </row>
@@ -3086,19 +3083,19 @@
       </c>
       <c r="C91" s="37">
         <f t="shared" si="7"/>
-        <v>343839.55324095191</v>
+        <v>455713.21627842687</v>
       </c>
       <c r="D91" s="14">
         <f t="shared" si="4"/>
-        <v>10764.412478447735</v>
+        <v>9692.2927418964409</v>
       </c>
       <c r="E91" s="14">
         <f t="shared" si="5"/>
-        <v>3295.129051892462</v>
+        <v>4367.2516560015974</v>
       </c>
       <c r="F91" s="37">
         <f t="shared" si="6"/>
-        <v>333075.14076250419</v>
+        <v>446020.9235365304</v>
       </c>
       <c r="G91" s="37"/>
     </row>
@@ -3108,19 +3105,19 @@
       </c>
       <c r="C92" s="37">
         <f t="shared" si="7"/>
-        <v>333075.14076250419</v>
+        <v>446020.9235365304</v>
       </c>
       <c r="D92" s="14">
         <f t="shared" si="4"/>
-        <v>10867.571431366194</v>
+        <v>9785.1772140062822</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" si="5"/>
-        <v>3191.9700989740031</v>
+        <v>4274.3671838917553</v>
       </c>
       <c r="F92" s="37">
         <f t="shared" si="6"/>
-        <v>322207.56933113799</v>
+        <v>436235.74632252415</v>
       </c>
       <c r="G92" s="37"/>
     </row>
@@ -3130,19 +3127,19 @@
       </c>
       <c r="C93" s="37">
         <f t="shared" si="7"/>
-        <v>322207.56933113799</v>
+        <v>436235.74632252415</v>
       </c>
       <c r="D93" s="14">
         <f t="shared" si="4"/>
-        <v>10971.718990916783</v>
+        <v>9878.9518289738407</v>
       </c>
       <c r="E93" s="14">
         <f t="shared" si="5"/>
-        <v>3087.8225394234146</v>
+        <v>4180.5925689241976</v>
       </c>
       <c r="F93" s="37">
         <f t="shared" si="6"/>
-        <v>311235.85034022119</v>
+        <v>426356.79449355032</v>
       </c>
       <c r="G93" s="37"/>
     </row>
@@ -3152,19 +3149,19 @@
       </c>
       <c r="C94" s="37">
         <f t="shared" si="7"/>
-        <v>311235.85034022119</v>
+        <v>426356.79449355032</v>
       </c>
       <c r="D94" s="14">
         <f t="shared" si="4"/>
-        <v>11076.864631246402</v>
+        <v>9973.6251173348392</v>
       </c>
       <c r="E94" s="14">
         <f t="shared" si="5"/>
-        <v>2982.6768990937944</v>
+        <v>4085.9192805631988</v>
       </c>
       <c r="F94" s="37">
         <f t="shared" si="6"/>
-        <v>300158.98570897477</v>
+        <v>416383.16937621549</v>
       </c>
       <c r="G94" s="37"/>
     </row>
@@ -3174,19 +3171,19 @@
       </c>
       <c r="C95" s="37">
         <f t="shared" si="7"/>
-        <v>300158.98570897477</v>
+        <v>416383.16937621549</v>
       </c>
       <c r="D95" s="14">
         <f t="shared" si="4"/>
-        <v>11183.017917295845</v>
+        <v>10069.205691375966</v>
       </c>
       <c r="E95" s="14">
         <f t="shared" si="5"/>
-        <v>2876.5236130443509</v>
+        <v>3990.3387065220718</v>
       </c>
       <c r="F95" s="37">
         <f t="shared" si="6"/>
-        <v>288975.96779167891</v>
+        <v>406313.96368483955</v>
       </c>
       <c r="G95" s="37"/>
     </row>
@@ -3196,19 +3193,19 @@
       </c>
       <c r="C96" s="37">
         <f t="shared" si="7"/>
-        <v>288975.96779167891</v>
+        <v>406313.96368483955</v>
       </c>
       <c r="D96" s="14">
         <f t="shared" si="4"/>
-        <v>11290.188505669934</v>
+        <v>10165.702245918324</v>
       </c>
       <c r="E96" s="14">
         <f t="shared" si="5"/>
-        <v>2769.3530246702626</v>
+        <v>3893.8421519797139</v>
       </c>
       <c r="F96" s="37">
         <f t="shared" si="6"/>
-        <v>277685.77928600897</v>
+        <v>396148.26143892121</v>
       </c>
       <c r="G96" s="37"/>
     </row>
@@ -3218,19 +3215,19 @@
       </c>
       <c r="C97" s="37">
         <f t="shared" si="7"/>
-        <v>277685.77928600897</v>
+        <v>396148.26143892121</v>
       </c>
       <c r="D97" s="14">
         <f t="shared" si="4"/>
-        <v>11398.386145515939</v>
+        <v>10263.123559108368</v>
       </c>
       <c r="E97" s="14">
         <f t="shared" si="5"/>
-        <v>2661.1553848242579</v>
+        <v>3796.4208387896697</v>
       </c>
       <c r="F97" s="37">
         <f t="shared" si="6"/>
-        <v>266287.39314049302</v>
+        <v>385885.13787981286</v>
       </c>
       <c r="G97" s="37"/>
     </row>
@@ -3240,19 +3237,19 @@
       </c>
       <c r="C98" s="37">
         <f t="shared" si="7"/>
-        <v>266287.39314049302</v>
+        <v>385885.13787981286</v>
       </c>
       <c r="D98" s="14">
         <f t="shared" si="4"/>
-        <v>11507.620679410464</v>
+        <v>10361.478493216491</v>
       </c>
       <c r="E98" s="14">
         <f t="shared" si="5"/>
-        <v>2551.9208509297332</v>
+        <v>3698.0659046815472</v>
       </c>
       <c r="F98" s="37">
         <f t="shared" si="6"/>
-        <v>254779.77246108255</v>
+        <v>375523.65938659635</v>
       </c>
       <c r="G98" s="37"/>
     </row>
@@ -3262,19 +3259,19 @@
       </c>
       <c r="C99" s="37">
         <f t="shared" si="7"/>
-        <v>254779.77246108255</v>
+        <v>375523.65938659635</v>
       </c>
       <c r="D99" s="14">
         <f t="shared" si="4"/>
-        <v>11617.902044254815</v>
+        <v>10460.775995443151</v>
       </c>
       <c r="E99" s="14">
         <f t="shared" si="5"/>
-        <v>2441.6394860853816</v>
+        <v>3598.7684024548871</v>
       </c>
       <c r="F99" s="37">
         <f t="shared" si="6"/>
-        <v>243161.87041682773</v>
+        <v>365062.88339115318</v>
       </c>
       <c r="G99" s="37"/>
     </row>
@@ -3284,19 +3281,19 @@
       </c>
       <c r="C100" s="37">
         <f t="shared" si="7"/>
-        <v>243161.87041682773</v>
+        <v>365062.88339115318</v>
       </c>
       <c r="D100" s="14">
         <f t="shared" si="4"/>
-        <v>11729.240272178922</v>
+        <v>10561.025098732813</v>
       </c>
       <c r="E100" s="14">
         <f t="shared" si="5"/>
-        <v>2330.3012581612747</v>
+        <v>3498.5192991652261</v>
       </c>
       <c r="F100" s="37">
         <f t="shared" si="6"/>
-        <v>231432.63014464881</v>
+        <v>354501.85829242039</v>
       </c>
       <c r="G100" s="37"/>
     </row>
@@ -3306,19 +3303,19 @@
       </c>
       <c r="C101" s="37">
         <f t="shared" si="7"/>
-        <v>231432.63014464881</v>
+        <v>354501.85829242039</v>
       </c>
       <c r="D101" s="14">
         <f t="shared" si="4"/>
-        <v>11841.645491453972</v>
+        <v>10662.234922595671</v>
       </c>
       <c r="E101" s="14">
         <f t="shared" si="5"/>
-        <v>2217.8960388862261</v>
+        <v>3397.309475302367</v>
       </c>
       <c r="F101" s="37">
         <f t="shared" si="6"/>
-        <v>219590.98465319484</v>
+        <v>343839.62336982472</v>
       </c>
       <c r="G101" s="37"/>
     </row>
@@ -3328,19 +3325,19 @@
       </c>
       <c r="C102" s="37">
         <f t="shared" si="7"/>
-        <v>219590.98465319484</v>
+        <v>343839.62336982472</v>
       </c>
       <c r="D102" s="14">
         <f t="shared" si="4"/>
-        <v>11955.127927413738</v>
+        <v>10764.414673937212</v>
       </c>
       <c r="E102" s="14">
         <f t="shared" si="5"/>
-        <v>2104.4136029264582</v>
+        <v>3295.1297239608261</v>
       </c>
       <c r="F102" s="37">
         <f t="shared" si="6"/>
-        <v>207635.85672578111</v>
+        <v>333075.20869588753</v>
       </c>
       <c r="G102" s="37"/>
     </row>
@@ -3350,19 +3347,19 @@
       </c>
       <c r="C103" s="37">
         <f t="shared" si="7"/>
-        <v>207635.85672578111</v>
+        <v>333075.20869588753</v>
       </c>
       <c r="D103" s="14">
         <f t="shared" si="4"/>
-        <v>12069.697903384789</v>
+        <v>10867.573647895775</v>
       </c>
       <c r="E103" s="14">
         <f t="shared" si="5"/>
-        <v>1989.8436269554081</v>
+        <v>3191.9707500022632</v>
       </c>
       <c r="F103" s="37">
         <f t="shared" si="6"/>
-        <v>195566.1588223963</v>
+        <v>322207.63504799176</v>
       </c>
       <c r="G103" s="37"/>
     </row>
@@ -3372,19 +3369,19 @@
       </c>
       <c r="C104" s="37">
         <f t="shared" si="7"/>
-        <v>195566.1588223963</v>
+        <v>322207.63504799176</v>
       </c>
       <c r="D104" s="14">
         <f t="shared" si="4"/>
-        <v>12185.365841625557</v>
+        <v>10971.721228688104</v>
       </c>
       <c r="E104" s="14">
         <f t="shared" si="5"/>
-        <v>1874.1756887146403</v>
+        <v>3087.8231692099348</v>
       </c>
       <c r="F104" s="37">
         <f t="shared" si="6"/>
-        <v>183380.79298077076</v>
+        <v>311235.91381930368</v>
       </c>
       <c r="G104" s="37"/>
     </row>
@@ -3394,19 +3391,19 @@
       </c>
       <c r="C105" s="37">
         <f t="shared" si="7"/>
-        <v>183380.79298077076</v>
+        <v>311235.91381930368</v>
       </c>
       <c r="D105" s="14">
         <f t="shared" si="4"/>
-        <v>12302.142264274469</v>
+        <v>11076.866890463036</v>
       </c>
       <c r="E105" s="14">
         <f t="shared" si="5"/>
-        <v>1757.3992660657273</v>
+        <v>2982.6775074350035</v>
       </c>
       <c r="F105" s="37">
         <f t="shared" si="6"/>
-        <v>171078.65071649628</v>
+        <v>300159.04692884063</v>
       </c>
       <c r="G105" s="37"/>
     </row>
@@ -3416,19 +3413,19 @@
       </c>
       <c r="C106" s="37">
         <f t="shared" si="7"/>
-        <v>171078.65071649628</v>
+        <v>300159.04692884063</v>
       </c>
       <c r="D106" s="14">
         <f t="shared" si="4"/>
-        <v>12420.0377943071</v>
+        <v>11183.020198163311</v>
       </c>
       <c r="E106" s="14">
         <f t="shared" si="5"/>
-        <v>1639.5037360330973</v>
+        <v>2876.524199734728</v>
       </c>
       <c r="F106" s="37">
         <f t="shared" si="6"/>
-        <v>158658.61292218918</v>
+        <v>288976.02673067735</v>
       </c>
       <c r="G106" s="37"/>
     </row>
@@ -3438,19 +3435,19 @@
       </c>
       <c r="C107" s="37">
         <f t="shared" si="7"/>
-        <v>158658.61292218918</v>
+        <v>288976.02673067735</v>
       </c>
       <c r="D107" s="14">
         <f t="shared" si="4"/>
-        <v>12539.063156502545</v>
+        <v>11290.190808395706</v>
       </c>
       <c r="E107" s="14">
         <f t="shared" si="5"/>
-        <v>1520.478373837652</v>
+        <v>2769.3535895023315</v>
       </c>
       <c r="F107" s="37">
         <f t="shared" si="6"/>
-        <v>146119.54976568662</v>
+        <v>277685.83592228167</v>
       </c>
       <c r="G107" s="37"/>
     </row>
@@ -3460,19 +3457,19 @@
       </c>
       <c r="C108" s="37">
         <f t="shared" si="7"/>
-        <v>146119.54976568662</v>
+        <v>277685.83592228167</v>
       </c>
       <c r="D108" s="14">
         <f t="shared" si="4"/>
-        <v>12659.22917841902</v>
+        <v>11398.388470309495</v>
       </c>
       <c r="E108" s="14">
         <f t="shared" si="5"/>
-        <v>1400.3123519211758</v>
+        <v>2661.1559275885425</v>
       </c>
       <c r="F108" s="37">
         <f t="shared" si="6"/>
-        <v>133460.3205872676</v>
+        <v>266287.44745197217</v>
       </c>
       <c r="G108" s="37"/>
     </row>
@@ -3482,19 +3479,19 @@
       </c>
       <c r="C109" s="37">
         <f t="shared" si="7"/>
-        <v>133460.3205872676</v>
+        <v>266287.44745197217</v>
       </c>
       <c r="D109" s="14">
         <f t="shared" si="4"/>
-        <v>12780.546791378869</v>
+        <v>11507.623026483298</v>
       </c>
       <c r="E109" s="14">
         <f t="shared" si="5"/>
-        <v>1278.9947389613283</v>
+        <v>2551.9213714147404</v>
       </c>
       <c r="F109" s="37">
         <f t="shared" si="6"/>
-        <v>120679.77379588873</v>
+        <v>254779.82442548889</v>
       </c>
       <c r="G109" s="37"/>
     </row>
@@ -3504,19 +3501,19 @@
       </c>
       <c r="C110" s="37">
         <f t="shared" si="7"/>
-        <v>120679.77379588873</v>
+        <v>254779.82442548889</v>
       </c>
       <c r="D110" s="14">
         <f t="shared" si="4"/>
-        <v>12903.027031462925</v>
+        <v>11617.904413820434</v>
       </c>
       <c r="E110" s="14">
         <f t="shared" si="5"/>
-        <v>1156.5144988772718</v>
+        <v>2441.6399840776048</v>
       </c>
       <c r="F110" s="37">
         <f t="shared" si="6"/>
-        <v>107776.7467644258</v>
+        <v>243161.92001166847</v>
       </c>
       <c r="G110" s="37"/>
     </row>
@@ -3526,19 +3523,19 @@
       </c>
       <c r="C111" s="37">
         <f t="shared" si="7"/>
-        <v>107776.7467644258</v>
+        <v>243161.92001166847</v>
       </c>
       <c r="D111" s="14">
         <f t="shared" si="4"/>
-        <v>13026.681040514442</v>
+        <v>11729.242664452873</v>
       </c>
       <c r="E111" s="14">
         <f t="shared" si="5"/>
-        <v>1032.8604898257549</v>
+        <v>2330.3017334451652</v>
       </c>
       <c r="F111" s="37">
         <f t="shared" si="6"/>
-        <v>94750.065723911364</v>
+        <v>231432.67734721559</v>
       </c>
       <c r="G111" s="37"/>
     </row>
@@ -3548,19 +3545,19 @@
       </c>
       <c r="C112" s="37">
         <f t="shared" si="7"/>
-        <v>94750.065723911364</v>
+        <v>231432.67734721559</v>
       </c>
       <c r="D112" s="14">
         <f t="shared" si="4"/>
-        <v>13151.520067152704</v>
+        <v>11841.647906653881</v>
       </c>
       <c r="E112" s="14">
         <f t="shared" si="5"/>
-        <v>908.02146318749317</v>
+        <v>2217.8964912441566</v>
       </c>
       <c r="F112" s="37">
         <f t="shared" si="6"/>
-        <v>81598.545656758666</v>
+        <v>219591.02944056172</v>
       </c>
       <c r="G112" s="37"/>
     </row>
@@ -3570,19 +3567,19 @@
       </c>
       <c r="C113" s="37">
         <f t="shared" si="7"/>
-        <v>81598.545656758666</v>
+        <v>219591.02944056172</v>
       </c>
       <c r="D113" s="14">
         <f t="shared" si="4"/>
-        <v>13277.55546779625</v>
+        <v>11955.130365759316</v>
       </c>
       <c r="E113" s="14">
         <f t="shared" si="5"/>
-        <v>781.98606254394781</v>
+        <v>2104.4140321387217</v>
       </c>
       <c r="F113" s="37">
         <f t="shared" si="6"/>
-        <v>68320.990188962416</v>
+        <v>207635.89907480241</v>
       </c>
       <c r="G113" s="37"/>
     </row>
@@ -3592,19 +3589,19 @@
       </c>
       <c r="C114" s="37">
         <f t="shared" si="7"/>
-        <v>68320.990188962416</v>
+        <v>207635.89907480241</v>
       </c>
       <c r="D114" s="14">
         <f t="shared" si="4"/>
-        <v>13404.798707695965</v>
+        <v>12069.700365097846</v>
       </c>
       <c r="E114" s="14">
         <f t="shared" si="5"/>
-        <v>654.74282264423118</v>
+        <v>1989.8440328001923</v>
       </c>
       <c r="F114" s="37">
         <f t="shared" si="6"/>
-        <v>54916.191481266447</v>
+        <v>195566.19870970456</v>
       </c>
       <c r="G114" s="37"/>
     </row>
@@ -3614,19 +3611,19 @@
       </c>
       <c r="C115" s="37">
         <f t="shared" si="7"/>
-        <v>54916.191481266447</v>
+        <v>195566.19870970456</v>
       </c>
       <c r="D115" s="14">
         <f t="shared" si="4"/>
-        <v>13533.26136197805</v>
+        <v>12185.368326930029</v>
       </c>
       <c r="E115" s="14">
         <f t="shared" si="5"/>
-        <v>526.28016836214761</v>
+        <v>1874.17607096801</v>
       </c>
       <c r="F115" s="37">
         <f t="shared" si="6"/>
-        <v>41382.930119288401</v>
+        <v>183380.83038277453</v>
       </c>
       <c r="G115" s="37"/>
     </row>
@@ -3636,19 +3633,19 @@
       </c>
       <c r="C116" s="37">
         <f t="shared" si="7"/>
-        <v>41382.930119288401</v>
+        <v>183380.83038277453</v>
       </c>
       <c r="D116" s="14">
         <f t="shared" si="4"/>
-        <v>13662.95511669701</v>
+        <v>12302.144773396443</v>
       </c>
       <c r="E116" s="14">
         <f t="shared" si="5"/>
-        <v>396.58641364318709</v>
+        <v>1757.3996245015944</v>
       </c>
       <c r="F116" s="37">
         <f t="shared" si="6"/>
-        <v>27719.975002591389</v>
+        <v>171078.6856093781</v>
       </c>
       <c r="G116" s="37"/>
     </row>
@@ -3658,19 +3655,19 @@
       </c>
       <c r="C117" s="37">
         <f t="shared" si="7"/>
-        <v>27719.975002591389</v>
+        <v>171078.6856093781</v>
       </c>
       <c r="D117" s="14">
         <f t="shared" si="4"/>
-        <v>13793.89176989869</v>
+        <v>12420.040327474824</v>
       </c>
       <c r="E117" s="14">
         <f t="shared" si="5"/>
-        <v>265.64976044150637</v>
+        <v>1639.5040704232142</v>
       </c>
       <c r="F117" s="37">
         <f t="shared" si="6"/>
-        <v>13926.083232692699</v>
+        <v>158658.64528190327</v>
       </c>
       <c r="G117" s="37"/>
     </row>
@@ -3680,19 +3677,19 @@
       </c>
       <c r="C118" s="37">
         <f t="shared" si="7"/>
-        <v>13926.083232692699</v>
+        <v>158658.64528190327</v>
       </c>
       <c r="D118" s="14">
         <f t="shared" si="4"/>
-        <v>13926.083232693547</v>
+        <v>12539.065713946455</v>
       </c>
       <c r="E118" s="14">
         <f t="shared" si="5"/>
-        <v>133.4582976466493</v>
+        <v>1520.4786839515837</v>
       </c>
       <c r="F118" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>146119.57956795683</v>
       </c>
       <c r="G118" s="37"/>
     </row>
@@ -3702,19 +3699,19 @@
       </c>
       <c r="C119" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>146119.57956795683</v>
       </c>
       <c r="D119" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12659.231760371777</v>
       </c>
       <c r="E119" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1400.3126375262611</v>
       </c>
       <c r="F119" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>133460.34780758506</v>
       </c>
       <c r="G119" s="37"/>
     </row>
@@ -3724,19 +3721,19 @@
       </c>
       <c r="C120" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>133460.34780758506</v>
       </c>
       <c r="D120" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12780.549398075338</v>
       </c>
       <c r="E120" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1278.9949998227012</v>
       </c>
       <c r="F120" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>120679.79840950972</v>
       </c>
       <c r="G120" s="37"/>
     </row>
@@ -3746,19 +3743,19 @@
       </c>
       <c r="C121" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>120679.79840950972</v>
       </c>
       <c r="D121" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>12903.029663140225</v>
       </c>
       <c r="E121" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1156.5147347578127</v>
       </c>
       <c r="F121" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>107776.76874636949</v>
       </c>
       <c r="G121" s="37"/>
     </row>
@@ -3768,19 +3765,19 @@
       </c>
       <c r="C122" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>107776.76874636949</v>
       </c>
       <c r="D122" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13026.683697411992</v>
       </c>
       <c r="E122" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1032.8607004860457</v>
       </c>
       <c r="F122" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>94750.085048957495</v>
       </c>
       <c r="G122" s="37"/>
     </row>
@@ -3790,19 +3787,19 @@
       </c>
       <c r="C123" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>94750.085048957495</v>
       </c>
       <c r="D123" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13151.522749512189</v>
       </c>
       <c r="E123" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>908.0216483858494</v>
       </c>
       <c r="F123" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>81598.562299445301</v>
       </c>
       <c r="G123" s="37"/>
     </row>
@@ -3812,19 +3809,19 @@
       </c>
       <c r="C124" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>81598.562299445301</v>
       </c>
       <c r="D124" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13277.558175861679</v>
       </c>
       <c r="E124" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>781.98622203635955</v>
       </c>
       <c r="F124" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>68321.004123583625</v>
       </c>
       <c r="G124" s="37"/>
     </row>
@@ -3834,19 +3831,19 @@
       </c>
       <c r="C125" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>68321.004123583625</v>
       </c>
       <c r="D125" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13404.801441713684</v>
       </c>
       <c r="E125" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>654.74295618435474</v>
       </c>
       <c r="F125" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>54916.202681869938</v>
       </c>
       <c r="G125" s="37"/>
     </row>
@@ -3856,19 +3853,19 @@
       </c>
       <c r="C126" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>54916.202681869938</v>
       </c>
       <c r="D126" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13533.264122196773</v>
       </c>
       <c r="E126" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>526.28027570126505</v>
       </c>
       <c r="F126" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>41382.938559673166</v>
       </c>
       <c r="G126" s="37"/>
     </row>
@@ -3878,19 +3875,19 @@
       </c>
       <c r="C127" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>41382.938559673166</v>
       </c>
       <c r="D127" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13662.957903367831</v>
       </c>
       <c r="E127" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>396.58649453020661</v>
       </c>
       <c r="F127" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>27719.980656305335</v>
       </c>
       <c r="G127" s="37"/>
     </row>
@@ -3900,19 +3897,19 @@
       </c>
       <c r="C128" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>27719.980656305335</v>
       </c>
       <c r="D128" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13793.894583275103</v>
       </c>
       <c r="E128" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>265.64981462293503</v>
       </c>
       <c r="F128" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>13926.086073030232</v>
       </c>
       <c r="G128" s="37"/>
     </row>
@@ -3922,19 +3919,19 @@
       </c>
       <c r="C129" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>13926.086073030232</v>
       </c>
       <c r="D129" s="14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>13926.086073031489</v>
       </c>
       <c r="E129" s="14">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>133.45832486654885</v>
       </c>
       <c r="F129" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G129" s="37"/>
     </row>
@@ -3944,7 +3941,7 @@
       </c>
       <c r="C130" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D130" s="14">
         <f t="shared" si="4"/>
@@ -3956,7 +3953,7 @@
       </c>
       <c r="F130" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G130" s="37"/>
     </row>
@@ -3966,7 +3963,7 @@
       </c>
       <c r="C131" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D131" s="14">
         <f t="shared" si="4"/>
@@ -3978,7 +3975,7 @@
       </c>
       <c r="F131" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G131" s="37"/>
     </row>
@@ -3988,7 +3985,7 @@
       </c>
       <c r="C132" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D132" s="14">
         <f t="shared" si="4"/>
@@ -4000,7 +3997,7 @@
       </c>
       <c r="F132" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G132" s="37"/>
     </row>
@@ -4010,7 +4007,7 @@
       </c>
       <c r="C133" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D133" s="14">
         <f t="shared" si="4"/>
@@ -4022,7 +4019,7 @@
       </c>
       <c r="F133" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G133" s="37"/>
     </row>
@@ -4032,7 +4029,7 @@
       </c>
       <c r="C134" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D134" s="14">
         <f t="shared" si="4"/>
@@ -4044,7 +4041,7 @@
       </c>
       <c r="F134" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G134" s="37"/>
     </row>
@@ -4054,7 +4051,7 @@
       </c>
       <c r="C135" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D135" s="14">
         <f t="shared" si="4"/>
@@ -4066,7 +4063,7 @@
       </c>
       <c r="F135" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G135" s="37"/>
     </row>
@@ -4076,7 +4073,7 @@
       </c>
       <c r="C136" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D136" s="14">
         <f t="shared" si="4"/>
@@ -4088,7 +4085,7 @@
       </c>
       <c r="F136" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G136" s="37"/>
     </row>
@@ -4098,7 +4095,7 @@
       </c>
       <c r="C137" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D137" s="14">
         <f t="shared" si="4"/>
@@ -4110,7 +4107,7 @@
       </c>
       <c r="F137" s="37">
         <f t="shared" si="6"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G137" s="37"/>
     </row>
@@ -4120,7 +4117,7 @@
       </c>
       <c r="C138" s="37">
         <f t="shared" si="7"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D138" s="14">
         <f t="shared" ref="D138:D201" si="8">IF(ISERROR(PPMT(($B$2/12),$B138,$B$3,-$B$4)),0,PPMT(($B$2/12),$B138,$B$3,-$B$4))</f>
@@ -4132,7 +4129,7 @@
       </c>
       <c r="F138" s="37">
         <f t="shared" ref="F138:F201" si="10">C138-D138</f>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G138" s="37"/>
     </row>
@@ -4142,7 +4139,7 @@
       </c>
       <c r="C139" s="37">
         <f t="shared" ref="C139:C202" si="11">C138-D138</f>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D139" s="14">
         <f t="shared" si="8"/>
@@ -4154,7 +4151,7 @@
       </c>
       <c r="F139" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G139" s="37"/>
     </row>
@@ -4164,7 +4161,7 @@
       </c>
       <c r="C140" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D140" s="14">
         <f t="shared" si="8"/>
@@ -4176,7 +4173,7 @@
       </c>
       <c r="F140" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G140" s="37"/>
     </row>
@@ -4186,7 +4183,7 @@
       </c>
       <c r="C141" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D141" s="14">
         <f t="shared" si="8"/>
@@ -4198,7 +4195,7 @@
       </c>
       <c r="F141" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G141" s="37"/>
     </row>
@@ -4208,7 +4205,7 @@
       </c>
       <c r="C142" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D142" s="14">
         <f t="shared" si="8"/>
@@ -4220,7 +4217,7 @@
       </c>
       <c r="F142" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G142" s="37"/>
     </row>
@@ -4230,7 +4227,7 @@
       </c>
       <c r="C143" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D143" s="14">
         <f t="shared" si="8"/>
@@ -4242,7 +4239,7 @@
       </c>
       <c r="F143" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G143" s="37"/>
     </row>
@@ -4252,7 +4249,7 @@
       </c>
       <c r="C144" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D144" s="14">
         <f t="shared" si="8"/>
@@ -4264,7 +4261,7 @@
       </c>
       <c r="F144" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G144" s="37"/>
     </row>
@@ -4274,7 +4271,7 @@
       </c>
       <c r="C145" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D145" s="14">
         <f t="shared" si="8"/>
@@ -4286,7 +4283,7 @@
       </c>
       <c r="F145" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G145" s="37"/>
     </row>
@@ -4296,7 +4293,7 @@
       </c>
       <c r="C146" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D146" s="14">
         <f t="shared" si="8"/>
@@ -4308,7 +4305,7 @@
       </c>
       <c r="F146" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G146" s="37"/>
     </row>
@@ -4318,7 +4315,7 @@
       </c>
       <c r="C147" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D147" s="14">
         <f t="shared" si="8"/>
@@ -4330,7 +4327,7 @@
       </c>
       <c r="F147" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G147" s="37"/>
     </row>
@@ -4340,7 +4337,7 @@
       </c>
       <c r="C148" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D148" s="14">
         <f t="shared" si="8"/>
@@ -4352,7 +4349,7 @@
       </c>
       <c r="F148" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G148" s="37"/>
     </row>
@@ -4362,7 +4359,7 @@
       </c>
       <c r="C149" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D149" s="14">
         <f t="shared" si="8"/>
@@ -4374,7 +4371,7 @@
       </c>
       <c r="F149" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G149" s="37"/>
     </row>
@@ -4384,7 +4381,7 @@
       </c>
       <c r="C150" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D150" s="14">
         <f t="shared" si="8"/>
@@ -4396,7 +4393,7 @@
       </c>
       <c r="F150" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G150" s="37"/>
     </row>
@@ -4406,7 +4403,7 @@
       </c>
       <c r="C151" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D151" s="14">
         <f t="shared" si="8"/>
@@ -4418,7 +4415,7 @@
       </c>
       <c r="F151" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G151" s="37"/>
     </row>
@@ -4428,7 +4425,7 @@
       </c>
       <c r="C152" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D152" s="14">
         <f t="shared" si="8"/>
@@ -4440,7 +4437,7 @@
       </c>
       <c r="F152" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G152" s="37"/>
     </row>
@@ -4450,7 +4447,7 @@
       </c>
       <c r="C153" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D153" s="14">
         <f t="shared" si="8"/>
@@ -4462,7 +4459,7 @@
       </c>
       <c r="F153" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G153" s="37"/>
     </row>
@@ -4472,7 +4469,7 @@
       </c>
       <c r="C154" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D154" s="14">
         <f t="shared" si="8"/>
@@ -4484,7 +4481,7 @@
       </c>
       <c r="F154" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G154" s="37"/>
     </row>
@@ -4494,7 +4491,7 @@
       </c>
       <c r="C155" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D155" s="14">
         <f t="shared" si="8"/>
@@ -4506,7 +4503,7 @@
       </c>
       <c r="F155" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G155" s="37"/>
     </row>
@@ -4516,7 +4513,7 @@
       </c>
       <c r="C156" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D156" s="14">
         <f t="shared" si="8"/>
@@ -4528,7 +4525,7 @@
       </c>
       <c r="F156" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G156" s="37"/>
     </row>
@@ -4538,7 +4535,7 @@
       </c>
       <c r="C157" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D157" s="14">
         <f t="shared" si="8"/>
@@ -4550,7 +4547,7 @@
       </c>
       <c r="F157" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G157" s="37"/>
     </row>
@@ -4560,7 +4557,7 @@
       </c>
       <c r="C158" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D158" s="14">
         <f t="shared" si="8"/>
@@ -4572,7 +4569,7 @@
       </c>
       <c r="F158" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G158" s="37"/>
     </row>
@@ -4582,7 +4579,7 @@
       </c>
       <c r="C159" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D159" s="14">
         <f t="shared" si="8"/>
@@ -4594,7 +4591,7 @@
       </c>
       <c r="F159" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G159" s="37"/>
     </row>
@@ -4604,7 +4601,7 @@
       </c>
       <c r="C160" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D160" s="14">
         <f t="shared" si="8"/>
@@ -4616,7 +4613,7 @@
       </c>
       <c r="F160" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G160" s="37"/>
     </row>
@@ -4626,7 +4623,7 @@
       </c>
       <c r="C161" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D161" s="14">
         <f t="shared" si="8"/>
@@ -4638,7 +4635,7 @@
       </c>
       <c r="F161" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G161" s="37"/>
     </row>
@@ -4648,7 +4645,7 @@
       </c>
       <c r="C162" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D162" s="14">
         <f t="shared" si="8"/>
@@ -4660,7 +4657,7 @@
       </c>
       <c r="F162" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G162" s="37"/>
     </row>
@@ -4670,7 +4667,7 @@
       </c>
       <c r="C163" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D163" s="14">
         <f t="shared" si="8"/>
@@ -4682,7 +4679,7 @@
       </c>
       <c r="F163" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G163" s="37"/>
     </row>
@@ -4692,7 +4689,7 @@
       </c>
       <c r="C164" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D164" s="14">
         <f t="shared" si="8"/>
@@ -4704,7 +4701,7 @@
       </c>
       <c r="F164" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G164" s="37"/>
     </row>
@@ -4714,7 +4711,7 @@
       </c>
       <c r="C165" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D165" s="14">
         <f t="shared" si="8"/>
@@ -4726,7 +4723,7 @@
       </c>
       <c r="F165" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G165" s="37"/>
     </row>
@@ -4736,7 +4733,7 @@
       </c>
       <c r="C166" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D166" s="14">
         <f t="shared" si="8"/>
@@ -4748,7 +4745,7 @@
       </c>
       <c r="F166" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G166" s="37"/>
     </row>
@@ -4758,7 +4755,7 @@
       </c>
       <c r="C167" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D167" s="14">
         <f t="shared" si="8"/>
@@ -4770,7 +4767,7 @@
       </c>
       <c r="F167" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G167" s="37"/>
     </row>
@@ -4780,7 +4777,7 @@
       </c>
       <c r="C168" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D168" s="14">
         <f t="shared" si="8"/>
@@ -4792,7 +4789,7 @@
       </c>
       <c r="F168" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G168" s="37"/>
     </row>
@@ -4802,7 +4799,7 @@
       </c>
       <c r="C169" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D169" s="14">
         <f t="shared" si="8"/>
@@ -4814,7 +4811,7 @@
       </c>
       <c r="F169" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G169" s="37"/>
     </row>
@@ -4824,7 +4821,7 @@
       </c>
       <c r="C170" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D170" s="14">
         <f t="shared" si="8"/>
@@ -4836,7 +4833,7 @@
       </c>
       <c r="F170" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G170" s="37"/>
     </row>
@@ -4846,7 +4843,7 @@
       </c>
       <c r="C171" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D171" s="14">
         <f t="shared" si="8"/>
@@ -4858,7 +4855,7 @@
       </c>
       <c r="F171" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G171" s="37"/>
     </row>
@@ -4868,7 +4865,7 @@
       </c>
       <c r="C172" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D172" s="14">
         <f t="shared" si="8"/>
@@ -4880,7 +4877,7 @@
       </c>
       <c r="F172" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G172" s="37"/>
     </row>
@@ -4890,7 +4887,7 @@
       </c>
       <c r="C173" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D173" s="14">
         <f t="shared" si="8"/>
@@ -4902,7 +4899,7 @@
       </c>
       <c r="F173" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G173" s="37"/>
     </row>
@@ -4912,7 +4909,7 @@
       </c>
       <c r="C174" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D174" s="14">
         <f t="shared" si="8"/>
@@ -4924,7 +4921,7 @@
       </c>
       <c r="F174" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G174" s="37"/>
     </row>
@@ -4934,7 +4931,7 @@
       </c>
       <c r="C175" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D175" s="14">
         <f t="shared" si="8"/>
@@ -4946,7 +4943,7 @@
       </c>
       <c r="F175" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G175" s="37"/>
     </row>
@@ -4956,7 +4953,7 @@
       </c>
       <c r="C176" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D176" s="14">
         <f t="shared" si="8"/>
@@ -4968,7 +4965,7 @@
       </c>
       <c r="F176" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G176" s="37"/>
     </row>
@@ -4978,7 +4975,7 @@
       </c>
       <c r="C177" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D177" s="14">
         <f t="shared" si="8"/>
@@ -4990,7 +4987,7 @@
       </c>
       <c r="F177" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G177" s="37"/>
     </row>
@@ -5000,7 +4997,7 @@
       </c>
       <c r="C178" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D178" s="14">
         <f t="shared" si="8"/>
@@ -5012,7 +5009,7 @@
       </c>
       <c r="F178" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G178" s="37"/>
     </row>
@@ -5022,7 +5019,7 @@
       </c>
       <c r="C179" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D179" s="14">
         <f t="shared" si="8"/>
@@ -5034,7 +5031,7 @@
       </c>
       <c r="F179" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G179" s="37"/>
     </row>
@@ -5044,7 +5041,7 @@
       </c>
       <c r="C180" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D180" s="14">
         <f t="shared" si="8"/>
@@ -5056,7 +5053,7 @@
       </c>
       <c r="F180" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G180" s="37"/>
     </row>
@@ -5066,7 +5063,7 @@
       </c>
       <c r="C181" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D181" s="14">
         <f t="shared" si="8"/>
@@ -5078,7 +5075,7 @@
       </c>
       <c r="F181" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G181" s="37"/>
     </row>
@@ -5088,7 +5085,7 @@
       </c>
       <c r="C182" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D182" s="14">
         <f t="shared" si="8"/>
@@ -5100,7 +5097,7 @@
       </c>
       <c r="F182" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G182" s="37"/>
     </row>
@@ -5110,7 +5107,7 @@
       </c>
       <c r="C183" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D183" s="14">
         <f t="shared" si="8"/>
@@ -5122,7 +5119,7 @@
       </c>
       <c r="F183" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G183" s="37"/>
     </row>
@@ -5132,7 +5129,7 @@
       </c>
       <c r="C184" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D184" s="14">
         <f t="shared" si="8"/>
@@ -5144,7 +5141,7 @@
       </c>
       <c r="F184" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G184" s="37"/>
     </row>
@@ -5154,7 +5151,7 @@
       </c>
       <c r="C185" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D185" s="14">
         <f t="shared" si="8"/>
@@ -5166,7 +5163,7 @@
       </c>
       <c r="F185" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G185" s="37"/>
     </row>
@@ -5176,7 +5173,7 @@
       </c>
       <c r="C186" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D186" s="14">
         <f t="shared" si="8"/>
@@ -5188,7 +5185,7 @@
       </c>
       <c r="F186" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G186" s="37"/>
     </row>
@@ -5198,7 +5195,7 @@
       </c>
       <c r="C187" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D187" s="14">
         <f t="shared" si="8"/>
@@ -5210,7 +5207,7 @@
       </c>
       <c r="F187" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G187" s="37"/>
     </row>
@@ -5220,7 +5217,7 @@
       </c>
       <c r="C188" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D188" s="14">
         <f t="shared" si="8"/>
@@ -5232,7 +5229,7 @@
       </c>
       <c r="F188" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G188" s="37"/>
     </row>
@@ -5242,7 +5239,7 @@
       </c>
       <c r="C189" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D189" s="14">
         <f t="shared" si="8"/>
@@ -5254,7 +5251,7 @@
       </c>
       <c r="F189" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G189" s="37"/>
     </row>
@@ -5264,7 +5261,7 @@
       </c>
       <c r="C190" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D190" s="14">
         <f t="shared" si="8"/>
@@ -5276,7 +5273,7 @@
       </c>
       <c r="F190" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G190" s="37"/>
     </row>
@@ -5286,7 +5283,7 @@
       </c>
       <c r="C191" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D191" s="14">
         <f t="shared" si="8"/>
@@ -5298,7 +5295,7 @@
       </c>
       <c r="F191" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G191" s="37"/>
     </row>
@@ -5308,7 +5305,7 @@
       </c>
       <c r="C192" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D192" s="14">
         <f t="shared" si="8"/>
@@ -5320,7 +5317,7 @@
       </c>
       <c r="F192" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G192" s="37"/>
     </row>
@@ -5330,7 +5327,7 @@
       </c>
       <c r="C193" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D193" s="14">
         <f t="shared" si="8"/>
@@ -5342,7 +5339,7 @@
       </c>
       <c r="F193" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G193" s="37"/>
     </row>
@@ -5352,7 +5349,7 @@
       </c>
       <c r="C194" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D194" s="14">
         <f t="shared" si="8"/>
@@ -5364,7 +5361,7 @@
       </c>
       <c r="F194" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G194" s="37"/>
     </row>
@@ -5374,7 +5371,7 @@
       </c>
       <c r="C195" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D195" s="14">
         <f t="shared" si="8"/>
@@ -5386,7 +5383,7 @@
       </c>
       <c r="F195" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G195" s="37"/>
     </row>
@@ -5396,7 +5393,7 @@
       </c>
       <c r="C196" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D196" s="14">
         <f t="shared" si="8"/>
@@ -5408,7 +5405,7 @@
       </c>
       <c r="F196" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G196" s="37"/>
     </row>
@@ -5418,7 +5415,7 @@
       </c>
       <c r="C197" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D197" s="14">
         <f t="shared" si="8"/>
@@ -5430,7 +5427,7 @@
       </c>
       <c r="F197" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G197" s="37"/>
     </row>
@@ -5440,7 +5437,7 @@
       </c>
       <c r="C198" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D198" s="14">
         <f t="shared" si="8"/>
@@ -5452,7 +5449,7 @@
       </c>
       <c r="F198" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G198" s="37"/>
     </row>
@@ -5462,7 +5459,7 @@
       </c>
       <c r="C199" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D199" s="14">
         <f t="shared" si="8"/>
@@ -5474,7 +5471,7 @@
       </c>
       <c r="F199" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G199" s="37"/>
     </row>
@@ -5484,7 +5481,7 @@
       </c>
       <c r="C200" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D200" s="14">
         <f t="shared" si="8"/>
@@ -5496,7 +5493,7 @@
       </c>
       <c r="F200" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G200" s="37"/>
     </row>
@@ -5506,7 +5503,7 @@
       </c>
       <c r="C201" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D201" s="14">
         <f t="shared" si="8"/>
@@ -5518,7 +5515,7 @@
       </c>
       <c r="F201" s="37">
         <f t="shared" si="10"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G201" s="37"/>
     </row>
@@ -5528,7 +5525,7 @@
       </c>
       <c r="C202" s="37">
         <f t="shared" si="11"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D202" s="14">
         <f t="shared" ref="D202:D259" si="12">IF(ISERROR(PPMT(($B$2/12),$B202,$B$3,-$B$4)),0,PPMT(($B$2/12),$B202,$B$3,-$B$4))</f>
@@ -5540,7 +5537,7 @@
       </c>
       <c r="F202" s="37">
         <f t="shared" ref="F202:F259" si="14">C202-D202</f>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G202" s="37"/>
     </row>
@@ -5550,7 +5547,7 @@
       </c>
       <c r="C203" s="37">
         <f t="shared" ref="C203:C259" si="15">C202-D202</f>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D203" s="14">
         <f t="shared" si="12"/>
@@ -5562,7 +5559,7 @@
       </c>
       <c r="F203" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G203" s="37"/>
     </row>
@@ -5572,7 +5569,7 @@
       </c>
       <c r="C204" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D204" s="14">
         <f t="shared" si="12"/>
@@ -5584,7 +5581,7 @@
       </c>
       <c r="F204" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G204" s="37"/>
     </row>
@@ -5594,7 +5591,7 @@
       </c>
       <c r="C205" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D205" s="14">
         <f t="shared" si="12"/>
@@ -5606,7 +5603,7 @@
       </c>
       <c r="F205" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G205" s="37"/>
     </row>
@@ -5616,7 +5613,7 @@
       </c>
       <c r="C206" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D206" s="14">
         <f t="shared" si="12"/>
@@ -5628,7 +5625,7 @@
       </c>
       <c r="F206" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G206" s="37"/>
     </row>
@@ -5638,7 +5635,7 @@
       </c>
       <c r="C207" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D207" s="14">
         <f t="shared" si="12"/>
@@ -5650,7 +5647,7 @@
       </c>
       <c r="F207" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G207" s="37"/>
     </row>
@@ -5660,7 +5657,7 @@
       </c>
       <c r="C208" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D208" s="14">
         <f t="shared" si="12"/>
@@ -5672,7 +5669,7 @@
       </c>
       <c r="F208" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G208" s="37"/>
     </row>
@@ -5682,7 +5679,7 @@
       </c>
       <c r="C209" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D209" s="14">
         <f t="shared" si="12"/>
@@ -5694,7 +5691,7 @@
       </c>
       <c r="F209" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G209" s="37"/>
     </row>
@@ -5704,7 +5701,7 @@
       </c>
       <c r="C210" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D210" s="14">
         <f t="shared" si="12"/>
@@ -5716,7 +5713,7 @@
       </c>
       <c r="F210" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G210" s="37"/>
     </row>
@@ -5726,7 +5723,7 @@
       </c>
       <c r="C211" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D211" s="14">
         <f t="shared" si="12"/>
@@ -5738,7 +5735,7 @@
       </c>
       <c r="F211" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G211" s="37"/>
     </row>
@@ -5748,7 +5745,7 @@
       </c>
       <c r="C212" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D212" s="14">
         <f t="shared" si="12"/>
@@ -5760,7 +5757,7 @@
       </c>
       <c r="F212" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G212" s="37"/>
     </row>
@@ -5770,7 +5767,7 @@
       </c>
       <c r="C213" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D213" s="14">
         <f t="shared" si="12"/>
@@ -5782,7 +5779,7 @@
       </c>
       <c r="F213" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G213" s="37"/>
     </row>
@@ -5792,7 +5789,7 @@
       </c>
       <c r="C214" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D214" s="14">
         <f t="shared" si="12"/>
@@ -5804,7 +5801,7 @@
       </c>
       <c r="F214" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G214" s="37"/>
     </row>
@@ -5814,7 +5811,7 @@
       </c>
       <c r="C215" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D215" s="14">
         <f t="shared" si="12"/>
@@ -5826,7 +5823,7 @@
       </c>
       <c r="F215" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G215" s="37"/>
     </row>
@@ -5836,7 +5833,7 @@
       </c>
       <c r="C216" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D216" s="14">
         <f t="shared" si="12"/>
@@ -5848,7 +5845,7 @@
       </c>
       <c r="F216" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G216" s="37"/>
     </row>
@@ -5858,7 +5855,7 @@
       </c>
       <c r="C217" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D217" s="14">
         <f t="shared" si="12"/>
@@ -5870,7 +5867,7 @@
       </c>
       <c r="F217" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G217" s="37"/>
     </row>
@@ -5880,7 +5877,7 @@
       </c>
       <c r="C218" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D218" s="14">
         <f t="shared" si="12"/>
@@ -5892,7 +5889,7 @@
       </c>
       <c r="F218" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G218" s="37"/>
     </row>
@@ -5902,7 +5899,7 @@
       </c>
       <c r="C219" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D219" s="14">
         <f t="shared" si="12"/>
@@ -5914,7 +5911,7 @@
       </c>
       <c r="F219" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G219" s="37"/>
     </row>
@@ -5924,7 +5921,7 @@
       </c>
       <c r="C220" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D220" s="14">
         <f t="shared" si="12"/>
@@ -5936,7 +5933,7 @@
       </c>
       <c r="F220" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G220" s="37"/>
     </row>
@@ -5946,7 +5943,7 @@
       </c>
       <c r="C221" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D221" s="14">
         <f t="shared" si="12"/>
@@ -5958,7 +5955,7 @@
       </c>
       <c r="F221" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G221" s="37"/>
     </row>
@@ -5968,7 +5965,7 @@
       </c>
       <c r="C222" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D222" s="14">
         <f t="shared" si="12"/>
@@ -5980,7 +5977,7 @@
       </c>
       <c r="F222" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G222" s="37"/>
     </row>
@@ -5990,7 +5987,7 @@
       </c>
       <c r="C223" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D223" s="14">
         <f t="shared" si="12"/>
@@ -6002,7 +5999,7 @@
       </c>
       <c r="F223" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G223" s="37"/>
     </row>
@@ -6012,7 +6009,7 @@
       </c>
       <c r="C224" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D224" s="14">
         <f t="shared" si="12"/>
@@ -6024,7 +6021,7 @@
       </c>
       <c r="F224" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G224" s="37"/>
     </row>
@@ -6034,7 +6031,7 @@
       </c>
       <c r="C225" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D225" s="14">
         <f t="shared" si="12"/>
@@ -6046,7 +6043,7 @@
       </c>
       <c r="F225" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G225" s="37"/>
     </row>
@@ -6056,7 +6053,7 @@
       </c>
       <c r="C226" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D226" s="14">
         <f t="shared" si="12"/>
@@ -6068,7 +6065,7 @@
       </c>
       <c r="F226" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G226" s="37"/>
     </row>
@@ -6078,7 +6075,7 @@
       </c>
       <c r="C227" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D227" s="14">
         <f t="shared" si="12"/>
@@ -6090,7 +6087,7 @@
       </c>
       <c r="F227" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G227" s="37"/>
     </row>
@@ -6100,7 +6097,7 @@
       </c>
       <c r="C228" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D228" s="14">
         <f t="shared" si="12"/>
@@ -6112,7 +6109,7 @@
       </c>
       <c r="F228" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G228" s="37"/>
     </row>
@@ -6122,7 +6119,7 @@
       </c>
       <c r="C229" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D229" s="14">
         <f t="shared" si="12"/>
@@ -6134,7 +6131,7 @@
       </c>
       <c r="F229" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G229" s="37"/>
     </row>
@@ -6144,7 +6141,7 @@
       </c>
       <c r="C230" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D230" s="14">
         <f t="shared" si="12"/>
@@ -6156,7 +6153,7 @@
       </c>
       <c r="F230" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G230" s="37"/>
     </row>
@@ -6166,7 +6163,7 @@
       </c>
       <c r="C231" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D231" s="14">
         <f t="shared" si="12"/>
@@ -6178,7 +6175,7 @@
       </c>
       <c r="F231" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G231" s="37"/>
     </row>
@@ -6188,7 +6185,7 @@
       </c>
       <c r="C232" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D232" s="14">
         <f t="shared" si="12"/>
@@ -6200,7 +6197,7 @@
       </c>
       <c r="F232" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G232" s="37"/>
     </row>
@@ -6210,7 +6207,7 @@
       </c>
       <c r="C233" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D233" s="14">
         <f t="shared" si="12"/>
@@ -6222,7 +6219,7 @@
       </c>
       <c r="F233" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G233" s="37"/>
     </row>
@@ -6232,7 +6229,7 @@
       </c>
       <c r="C234" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D234" s="14">
         <f t="shared" si="12"/>
@@ -6244,7 +6241,7 @@
       </c>
       <c r="F234" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G234" s="37"/>
     </row>
@@ -6254,7 +6251,7 @@
       </c>
       <c r="C235" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D235" s="14">
         <f t="shared" si="12"/>
@@ -6266,7 +6263,7 @@
       </c>
       <c r="F235" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G235" s="37"/>
     </row>
@@ -6276,7 +6273,7 @@
       </c>
       <c r="C236" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D236" s="14">
         <f t="shared" si="12"/>
@@ -6288,7 +6285,7 @@
       </c>
       <c r="F236" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G236" s="37"/>
     </row>
@@ -6298,7 +6295,7 @@
       </c>
       <c r="C237" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D237" s="14">
         <f t="shared" si="12"/>
@@ -6310,7 +6307,7 @@
       </c>
       <c r="F237" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G237" s="37"/>
     </row>
@@ -6320,7 +6317,7 @@
       </c>
       <c r="C238" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D238" s="14">
         <f t="shared" si="12"/>
@@ -6332,7 +6329,7 @@
       </c>
       <c r="F238" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G238" s="37"/>
     </row>
@@ -6342,7 +6339,7 @@
       </c>
       <c r="C239" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D239" s="14">
         <f t="shared" si="12"/>
@@ -6354,7 +6351,7 @@
       </c>
       <c r="F239" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G239" s="37"/>
     </row>
@@ -6364,7 +6361,7 @@
       </c>
       <c r="C240" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D240" s="14">
         <f t="shared" si="12"/>
@@ -6376,7 +6373,7 @@
       </c>
       <c r="F240" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G240" s="37"/>
     </row>
@@ -6386,7 +6383,7 @@
       </c>
       <c r="C241" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D241" s="14">
         <f t="shared" si="12"/>
@@ -6398,7 +6395,7 @@
       </c>
       <c r="F241" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G241" s="37"/>
     </row>
@@ -6408,7 +6405,7 @@
       </c>
       <c r="C242" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D242" s="14">
         <f t="shared" si="12"/>
@@ -6420,7 +6417,7 @@
       </c>
       <c r="F242" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G242" s="37"/>
     </row>
@@ -6430,7 +6427,7 @@
       </c>
       <c r="C243" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D243" s="14">
         <f t="shared" si="12"/>
@@ -6442,7 +6439,7 @@
       </c>
       <c r="F243" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G243" s="37"/>
     </row>
@@ -6452,7 +6449,7 @@
       </c>
       <c r="C244" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D244" s="14">
         <f t="shared" si="12"/>
@@ -6464,7 +6461,7 @@
       </c>
       <c r="F244" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G244" s="37"/>
     </row>
@@ -6474,7 +6471,7 @@
       </c>
       <c r="C245" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D245" s="14">
         <f t="shared" si="12"/>
@@ -6486,7 +6483,7 @@
       </c>
       <c r="F245" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G245" s="37"/>
     </row>
@@ -6496,7 +6493,7 @@
       </c>
       <c r="C246" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D246" s="14">
         <f t="shared" si="12"/>
@@ -6508,7 +6505,7 @@
       </c>
       <c r="F246" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G246" s="37"/>
     </row>
@@ -6518,7 +6515,7 @@
       </c>
       <c r="C247" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D247" s="14">
         <f t="shared" si="12"/>
@@ -6530,7 +6527,7 @@
       </c>
       <c r="F247" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G247" s="37"/>
     </row>
@@ -6540,7 +6537,7 @@
       </c>
       <c r="C248" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D248" s="14">
         <f t="shared" si="12"/>
@@ -6552,7 +6549,7 @@
       </c>
       <c r="F248" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G248" s="37"/>
     </row>
@@ -6562,7 +6559,7 @@
       </c>
       <c r="C249" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D249" s="14">
         <f t="shared" si="12"/>
@@ -6574,7 +6571,7 @@
       </c>
       <c r="F249" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G249" s="37"/>
     </row>
@@ -6584,7 +6581,7 @@
       </c>
       <c r="C250" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D250" s="14">
         <f t="shared" si="12"/>
@@ -6596,7 +6593,7 @@
       </c>
       <c r="F250" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G250" s="37"/>
     </row>
@@ -6606,7 +6603,7 @@
       </c>
       <c r="C251" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D251" s="14">
         <f t="shared" si="12"/>
@@ -6618,7 +6615,7 @@
       </c>
       <c r="F251" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G251" s="37"/>
     </row>
@@ -6628,7 +6625,7 @@
       </c>
       <c r="C252" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D252" s="14">
         <f t="shared" si="12"/>
@@ -6640,7 +6637,7 @@
       </c>
       <c r="F252" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G252" s="37"/>
     </row>
@@ -6650,7 +6647,7 @@
       </c>
       <c r="C253" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D253" s="14">
         <f t="shared" si="12"/>
@@ -6662,7 +6659,7 @@
       </c>
       <c r="F253" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G253" s="37"/>
     </row>
@@ -6672,7 +6669,7 @@
       </c>
       <c r="C254" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D254" s="14">
         <f t="shared" si="12"/>
@@ -6684,7 +6681,7 @@
       </c>
       <c r="F254" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G254" s="37"/>
     </row>
@@ -6694,7 +6691,7 @@
       </c>
       <c r="C255" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D255" s="14">
         <f t="shared" si="12"/>
@@ -6706,7 +6703,7 @@
       </c>
       <c r="F255" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G255" s="37"/>
     </row>
@@ -6716,7 +6713,7 @@
       </c>
       <c r="C256" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D256" s="14">
         <f t="shared" si="12"/>
@@ -6728,7 +6725,7 @@
       </c>
       <c r="F256" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G256" s="37"/>
     </row>
@@ -6738,7 +6735,7 @@
       </c>
       <c r="C257" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D257" s="14">
         <f t="shared" si="12"/>
@@ -6750,7 +6747,7 @@
       </c>
       <c r="F257" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G257" s="37"/>
     </row>
@@ -6760,7 +6757,7 @@
       </c>
       <c r="C258" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D258" s="14">
         <f t="shared" si="12"/>
@@ -6772,7 +6769,7 @@
       </c>
       <c r="F258" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G258" s="37"/>
     </row>
@@ -6782,7 +6779,7 @@
       </c>
       <c r="C259" s="37">
         <f t="shared" si="15"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="D259" s="14">
         <f t="shared" si="12"/>
@@ -6794,7 +6791,7 @@
       </c>
       <c r="F259" s="37">
         <f t="shared" si="14"/>
-        <v>-8.4764906205236912E-10</v>
+        <v>-1.2569216778501868E-9</v>
       </c>
       <c r="G259" s="37"/>
     </row>
@@ -7681,7 +7678,7 @@
   <dimension ref="A1:K100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -7726,7 +7723,7 @@
         <v>21</v>
       </c>
       <c r="D4" s="4">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E4" s="31"/>
       <c r="F4" s="36"/>
@@ -7743,7 +7740,7 @@
         <v>22</v>
       </c>
       <c r="D5" s="23">
-        <v>948333</v>
+        <v>1000000</v>
       </c>
       <c r="E5" s="31"/>
       <c r="F5" s="36"/>
@@ -7798,7 +7795,7 @@
       </c>
       <c r="D11" s="10">
         <f>'Test-ExcelFormula'!G2</f>
-        <v>14059.541530340197</v>
+        <v>14059.544397898038</v>
       </c>
     </row>
     <row r="12" spans="1:11">
